--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>4.075</v>
+      </c>
+      <c r="C2" t="n">
         <v>4.065</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.004</v>
-      </c>
       <c r="D2" t="n">
+        <v>4.075</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.065</v>
       </c>
-      <c r="E2" t="n">
-        <v>4.004</v>
-      </c>
       <c r="F2" t="n">
-        <v>6000</v>
+        <v>451.6743</v>
       </c>
       <c r="G2" t="n">
-        <v>4.047549999999999</v>
+        <v>4.048</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.005</v>
+        <v>4.065</v>
       </c>
       <c r="C3" t="n">
-        <v>4.005</v>
+        <v>4.004</v>
       </c>
       <c r="D3" t="n">
-        <v>4.005</v>
+        <v>4.065</v>
       </c>
       <c r="E3" t="n">
-        <v>4.005</v>
+        <v>4.004</v>
       </c>
       <c r="F3" t="n">
-        <v>4872.7106</v>
+        <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>4.047099999999999</v>
+        <v>4.047549999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.008</v>
+        <v>4.005</v>
       </c>
       <c r="C4" t="n">
-        <v>4.008</v>
+        <v>4.005</v>
       </c>
       <c r="D4" t="n">
-        <v>4.008</v>
+        <v>4.005</v>
       </c>
       <c r="E4" t="n">
-        <v>4.008</v>
+        <v>4.005</v>
       </c>
       <c r="F4" t="n">
-        <v>222224.993</v>
+        <v>4872.7106</v>
       </c>
       <c r="G4" t="n">
-        <v>4.046983333333333</v>
+        <v>4.047099999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>4.008</v>
       </c>
       <c r="F5" t="n">
-        <v>16257</v>
+        <v>222224.993</v>
       </c>
       <c r="G5" t="n">
-        <v>4.046866666666667</v>
+        <v>4.046983333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.007</v>
+        <v>4.008</v>
       </c>
       <c r="C6" t="n">
-        <v>4.006</v>
+        <v>4.008</v>
       </c>
       <c r="D6" t="n">
-        <v>4.007</v>
+        <v>4.008</v>
       </c>
       <c r="E6" t="n">
-        <v>4.006</v>
+        <v>4.008</v>
       </c>
       <c r="F6" t="n">
-        <v>100000</v>
+        <v>16257</v>
       </c>
       <c r="G6" t="n">
-        <v>4.046716666666667</v>
+        <v>4.046866666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.008</v>
+        <v>4.007</v>
       </c>
       <c r="C7" t="n">
-        <v>4.033</v>
+        <v>4.006</v>
       </c>
       <c r="D7" t="n">
-        <v>4.033</v>
+        <v>4.007</v>
       </c>
       <c r="E7" t="n">
-        <v>4.008</v>
+        <v>4.006</v>
       </c>
       <c r="F7" t="n">
-        <v>61818.1134</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="n">
-        <v>4.048100000000001</v>
+        <v>4.046716666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.044</v>
+        <v>4.008</v>
       </c>
       <c r="C8" t="n">
-        <v>4.044</v>
+        <v>4.033</v>
       </c>
       <c r="D8" t="n">
-        <v>4.044</v>
+        <v>4.033</v>
       </c>
       <c r="E8" t="n">
-        <v>4.044</v>
+        <v>4.008</v>
       </c>
       <c r="F8" t="n">
-        <v>55102.2278</v>
+        <v>61818.1134</v>
       </c>
       <c r="G8" t="n">
-        <v>4.049266666666667</v>
+        <v>4.048100000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.042</v>
+        <v>4.044</v>
       </c>
       <c r="C9" t="n">
-        <v>4.043</v>
+        <v>4.044</v>
       </c>
       <c r="D9" t="n">
-        <v>4.043</v>
+        <v>4.044</v>
       </c>
       <c r="E9" t="n">
-        <v>4.042</v>
+        <v>4.044</v>
       </c>
       <c r="F9" t="n">
-        <v>100000</v>
+        <v>55102.2278</v>
       </c>
       <c r="G9" t="n">
-        <v>4.050983333333334</v>
+        <v>4.049266666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.016</v>
+        <v>4.042</v>
       </c>
       <c r="C10" t="n">
-        <v>4.006</v>
+        <v>4.043</v>
       </c>
       <c r="D10" t="n">
-        <v>4.016</v>
+        <v>4.043</v>
       </c>
       <c r="E10" t="n">
-        <v>4.006</v>
+        <v>4.042</v>
       </c>
       <c r="F10" t="n">
         <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.053416666666667</v>
+        <v>4.050983333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.014</v>
+        <v>4.016</v>
       </c>
       <c r="C11" t="n">
-        <v>3.995</v>
+        <v>4.006</v>
       </c>
       <c r="D11" t="n">
-        <v>4.014</v>
+        <v>4.016</v>
       </c>
       <c r="E11" t="n">
-        <v>3.995</v>
+        <v>4.006</v>
       </c>
       <c r="F11" t="n">
-        <v>374444.796</v>
+        <v>100000</v>
       </c>
       <c r="G11" t="n">
-        <v>4.055633333333335</v>
+        <v>4.053416666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.033</v>
+        <v>4.014</v>
       </c>
       <c r="C12" t="n">
-        <v>4.033</v>
+        <v>3.995</v>
       </c>
       <c r="D12" t="n">
-        <v>4.033</v>
+        <v>4.014</v>
       </c>
       <c r="E12" t="n">
-        <v>4.033</v>
+        <v>3.995</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>374444.796</v>
       </c>
       <c r="G12" t="n">
-        <v>4.058516666666667</v>
+        <v>4.055633333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.994</v>
+        <v>4.033</v>
       </c>
       <c r="C13" t="n">
-        <v>3.994</v>
+        <v>4.033</v>
       </c>
       <c r="D13" t="n">
-        <v>3.994</v>
+        <v>4.033</v>
       </c>
       <c r="E13" t="n">
-        <v>3.994</v>
+        <v>4.033</v>
       </c>
       <c r="F13" t="n">
-        <v>250.1252</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.059916666666667</v>
+        <v>4.058516666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.993</v>
+        <v>3.994</v>
       </c>
       <c r="C14" t="n">
-        <v>3.991</v>
+        <v>3.994</v>
       </c>
       <c r="D14" t="n">
-        <v>3.993</v>
+        <v>3.994</v>
       </c>
       <c r="E14" t="n">
-        <v>3.991</v>
+        <v>3.994</v>
       </c>
       <c r="F14" t="n">
-        <v>1247.0922</v>
+        <v>250.1252</v>
       </c>
       <c r="G14" t="n">
-        <v>4.060650000000001</v>
+        <v>4.059916666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3.993</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3.991</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3.993</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3.991</v>
       </c>
       <c r="F15" t="n">
-        <v>22710.7256</v>
+        <v>1247.0922</v>
       </c>
       <c r="G15" t="n">
-        <v>4.061316666666667</v>
+        <v>4.060650000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.998</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>3.998</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>289999.1838</v>
+        <v>22710.7256</v>
       </c>
       <c r="G16" t="n">
-        <v>4.0612</v>
+        <v>4.061316666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.962</v>
+        <v>3.998</v>
       </c>
       <c r="C17" t="n">
-        <v>3.962</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3.962</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>3.962</v>
+        <v>3.998</v>
       </c>
       <c r="F17" t="n">
-        <v>384089.4108</v>
+        <v>289999.1838</v>
       </c>
       <c r="G17" t="n">
-        <v>4.061366666666667</v>
+        <v>4.0612</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.961</v>
+        <v>3.962</v>
       </c>
       <c r="C18" t="n">
-        <v>3.909</v>
+        <v>3.962</v>
       </c>
       <c r="D18" t="n">
-        <v>3.961</v>
+        <v>3.962</v>
       </c>
       <c r="E18" t="n">
-        <v>3.909</v>
+        <v>3.962</v>
       </c>
       <c r="F18" t="n">
-        <v>275555.2954</v>
+        <v>384089.4108</v>
       </c>
       <c r="G18" t="n">
-        <v>4.061633333333334</v>
+        <v>4.061366666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.921</v>
+        <v>3.961</v>
       </c>
       <c r="C19" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="D19" t="n">
-        <v>3.921</v>
+        <v>3.961</v>
       </c>
       <c r="E19" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="F19" t="n">
-        <v>10611.6972</v>
+        <v>275555.2954</v>
       </c>
       <c r="G19" t="n">
-        <v>4.061066666666666</v>
+        <v>4.061633333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.909</v>
+        <v>3.921</v>
       </c>
       <c r="C20" t="n">
-        <v>3.909</v>
+        <v>3.921</v>
       </c>
       <c r="D20" t="n">
-        <v>3.909</v>
+        <v>3.921</v>
       </c>
       <c r="E20" t="n">
-        <v>3.909</v>
+        <v>3.921</v>
       </c>
       <c r="F20" t="n">
-        <v>22710.7256</v>
+        <v>10611.6972</v>
       </c>
       <c r="G20" t="n">
-        <v>4.060466666666667</v>
+        <v>4.061066666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="C21" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="D21" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="E21" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="F21" t="n">
-        <v>15021.696</v>
+        <v>22710.7256</v>
       </c>
       <c r="G21" t="n">
-        <v>4.059266666666667</v>
+        <v>4.060466666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.961</v>
+        <v>3.921</v>
       </c>
       <c r="C22" t="n">
-        <v>3.961</v>
+        <v>3.921</v>
       </c>
       <c r="D22" t="n">
-        <v>3.961</v>
+        <v>3.921</v>
       </c>
       <c r="E22" t="n">
-        <v>3.961</v>
+        <v>3.921</v>
       </c>
       <c r="F22" t="n">
-        <v>127</v>
+        <v>15021.696</v>
       </c>
       <c r="G22" t="n">
-        <v>4.058733333333334</v>
+        <v>4.059266666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>3.961</v>
       </c>
       <c r="C23" t="n">
-        <v>3.968</v>
+        <v>3.961</v>
       </c>
       <c r="D23" t="n">
-        <v>3.968</v>
+        <v>3.961</v>
       </c>
       <c r="E23" t="n">
         <v>3.961</v>
       </c>
       <c r="F23" t="n">
-        <v>525998.6935000001</v>
+        <v>127</v>
       </c>
       <c r="G23" t="n">
-        <v>4.0583</v>
+        <v>4.058733333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.968</v>
+        <v>3.961</v>
       </c>
       <c r="C24" t="n">
         <v>3.968</v>
@@ -1212,13 +1212,13 @@
         <v>3.968</v>
       </c>
       <c r="E24" t="n">
-        <v>3.968</v>
+        <v>3.961</v>
       </c>
       <c r="F24" t="n">
-        <v>76646.40519999999</v>
+        <v>525998.6935000001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.057633333333333</v>
+        <v>4.0583</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.971</v>
+        <v>3.968</v>
       </c>
       <c r="C25" t="n">
-        <v>3.971</v>
+        <v>3.968</v>
       </c>
       <c r="D25" t="n">
-        <v>3.971</v>
+        <v>3.968</v>
       </c>
       <c r="E25" t="n">
-        <v>3.971</v>
+        <v>3.968</v>
       </c>
       <c r="F25" t="n">
-        <v>126</v>
+        <v>76646.40519999999</v>
       </c>
       <c r="G25" t="n">
-        <v>4.056616666666666</v>
+        <v>4.057633333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.969</v>
+        <v>3.971</v>
       </c>
       <c r="C26" t="n">
-        <v>3.969</v>
+        <v>3.971</v>
       </c>
       <c r="D26" t="n">
-        <v>3.969</v>
+        <v>3.971</v>
       </c>
       <c r="E26" t="n">
-        <v>3.969</v>
+        <v>3.971</v>
       </c>
       <c r="F26" t="n">
-        <v>80964.62669999999</v>
+        <v>126</v>
       </c>
       <c r="G26" t="n">
-        <v>4.054516666666666</v>
+        <v>4.056616666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>3.969</v>
       </c>
       <c r="C27" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="D27" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="E27" t="n">
         <v>3.969</v>
       </c>
       <c r="F27" t="n">
-        <v>529100.5292</v>
+        <v>80964.62669999999</v>
       </c>
       <c r="G27" t="n">
-        <v>4.052449999999999</v>
+        <v>4.054516666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="C28" t="n">
         <v>3.971</v>
@@ -1352,13 +1352,13 @@
         <v>3.971</v>
       </c>
       <c r="E28" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="F28" t="n">
-        <v>125598.8711</v>
+        <v>529100.5292</v>
       </c>
       <c r="G28" t="n">
-        <v>4.049733333333333</v>
+        <v>4.052449999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.935</v>
+        <v>3.971</v>
       </c>
       <c r="C29" t="n">
-        <v>3.935</v>
+        <v>3.971</v>
       </c>
       <c r="D29" t="n">
-        <v>3.935</v>
+        <v>3.971</v>
       </c>
       <c r="E29" t="n">
-        <v>3.935</v>
+        <v>3.971</v>
       </c>
       <c r="F29" t="n">
-        <v>8880</v>
+        <v>125598.8711</v>
       </c>
       <c r="G29" t="n">
-        <v>4.046433333333333</v>
+        <v>4.049733333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>3.935</v>
       </c>
       <c r="F30" t="n">
-        <v>81664.44869999999</v>
+        <v>8880</v>
       </c>
       <c r="G30" t="n">
-        <v>4.043133333333333</v>
+        <v>4.046433333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>3.935</v>
       </c>
       <c r="F31" t="n">
-        <v>13185.65</v>
+        <v>81664.44869999999</v>
       </c>
       <c r="G31" t="n">
-        <v>4.040633333333333</v>
+        <v>4.043133333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.961</v>
+        <v>3.935</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3.935</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>3.935</v>
       </c>
       <c r="E32" t="n">
-        <v>3.961</v>
+        <v>3.935</v>
       </c>
       <c r="F32" t="n">
-        <v>858740.5060000001</v>
+        <v>13185.65</v>
       </c>
       <c r="G32" t="n">
-        <v>4.038566666666666</v>
+        <v>4.040633333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.998</v>
+        <v>3.961</v>
       </c>
       <c r="C33" t="n">
-        <v>3.998</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>3.998</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>3.998</v>
+        <v>3.961</v>
       </c>
       <c r="F33" t="n">
-        <v>57516.3039</v>
+        <v>858740.5060000001</v>
       </c>
       <c r="G33" t="n">
-        <v>4.036533333333333</v>
+        <v>4.038566666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.999</v>
+        <v>3.998</v>
       </c>
       <c r="C34" t="n">
-        <v>3.999</v>
+        <v>3.998</v>
       </c>
       <c r="D34" t="n">
-        <v>3.999</v>
+        <v>3.998</v>
       </c>
       <c r="E34" t="n">
-        <v>3.999</v>
+        <v>3.998</v>
       </c>
       <c r="F34" t="n">
-        <v>1521.2331</v>
+        <v>57516.3039</v>
       </c>
       <c r="G34" t="n">
-        <v>4.034599999999999</v>
+        <v>4.036533333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.998</v>
+        <v>3.999</v>
       </c>
       <c r="C35" t="n">
-        <v>3.952</v>
+        <v>3.999</v>
       </c>
       <c r="D35" t="n">
-        <v>3.998</v>
+        <v>3.999</v>
       </c>
       <c r="E35" t="n">
-        <v>3.952</v>
+        <v>3.999</v>
       </c>
       <c r="F35" t="n">
-        <v>157715.3513</v>
+        <v>1521.2331</v>
       </c>
       <c r="G35" t="n">
-        <v>4.032366666666666</v>
+        <v>4.034599999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.93</v>
+        <v>3.998</v>
       </c>
       <c r="C36" t="n">
-        <v>3.93</v>
+        <v>3.952</v>
       </c>
       <c r="D36" t="n">
-        <v>3.93</v>
+        <v>3.998</v>
       </c>
       <c r="E36" t="n">
-        <v>3.93</v>
+        <v>3.952</v>
       </c>
       <c r="F36" t="n">
-        <v>8880</v>
+        <v>157715.3513</v>
       </c>
       <c r="G36" t="n">
-        <v>4.029783333333332</v>
+        <v>4.032366666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.925</v>
+        <v>3.93</v>
       </c>
       <c r="C37" t="n">
-        <v>3.925</v>
+        <v>3.93</v>
       </c>
       <c r="D37" t="n">
-        <v>3.925</v>
+        <v>3.93</v>
       </c>
       <c r="E37" t="n">
-        <v>3.925</v>
+        <v>3.93</v>
       </c>
       <c r="F37" t="n">
-        <v>16793.0306</v>
+        <v>8880</v>
       </c>
       <c r="G37" t="n">
-        <v>4.026866666666666</v>
+        <v>4.029783333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>3.925</v>
       </c>
       <c r="C38" t="n">
-        <v>3.916</v>
+        <v>3.925</v>
       </c>
       <c r="D38" t="n">
         <v>3.925</v>
       </c>
       <c r="E38" t="n">
-        <v>3.916</v>
+        <v>3.925</v>
       </c>
       <c r="F38" t="n">
-        <v>212127.9309</v>
+        <v>16793.0306</v>
       </c>
       <c r="G38" t="n">
-        <v>4.023483333333332</v>
+        <v>4.026866666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="C39" t="n">
-        <v>3.958</v>
+        <v>3.916</v>
       </c>
       <c r="D39" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="E39" t="n">
-        <v>3.958</v>
+        <v>3.916</v>
       </c>
       <c r="F39" t="n">
-        <v>56332.9646</v>
+        <v>212127.9309</v>
       </c>
       <c r="G39" t="n">
-        <v>4.020783333333332</v>
+        <v>4.023483333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>3.969</v>
       </c>
       <c r="C40" t="n">
-        <v>3.979</v>
+        <v>3.958</v>
       </c>
       <c r="D40" t="n">
-        <v>3.979</v>
+        <v>3.969</v>
       </c>
       <c r="E40" t="n">
-        <v>3.969</v>
+        <v>3.958</v>
       </c>
       <c r="F40" t="n">
-        <v>91830.0488</v>
+        <v>56332.9646</v>
       </c>
       <c r="G40" t="n">
-        <v>4.018333333333333</v>
+        <v>4.020783333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.99</v>
+        <v>3.969</v>
       </c>
       <c r="C41" t="n">
-        <v>3.999</v>
+        <v>3.979</v>
       </c>
       <c r="D41" t="n">
-        <v>3.999</v>
+        <v>3.979</v>
       </c>
       <c r="E41" t="n">
-        <v>3.99</v>
+        <v>3.969</v>
       </c>
       <c r="F41" t="n">
-        <v>96247.63920000001</v>
+        <v>91830.0488</v>
       </c>
       <c r="G41" t="n">
-        <v>4.016216666666666</v>
+        <v>4.018333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C42" t="n">
         <v>3.999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.99</v>
       </c>
       <c r="D42" t="n">
         <v>3.999</v>
@@ -1845,10 +1845,10 @@
         <v>3.99</v>
       </c>
       <c r="F42" t="n">
-        <v>10214.0881</v>
+        <v>96247.63920000001</v>
       </c>
       <c r="G42" t="n">
-        <v>4.013949999999999</v>
+        <v>4.016216666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>3.999</v>
       </c>
       <c r="C43" t="n">
-        <v>3.999</v>
+        <v>3.99</v>
       </c>
       <c r="D43" t="n">
         <v>3.999</v>
       </c>
       <c r="E43" t="n">
-        <v>3.999</v>
+        <v>3.99</v>
       </c>
       <c r="F43" t="n">
-        <v>26460.8543</v>
+        <v>10214.0881</v>
       </c>
       <c r="G43" t="n">
-        <v>4.011883333333333</v>
+        <v>4.013949999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="F44" t="n">
-        <v>238090.3989</v>
+        <v>26460.8543</v>
       </c>
       <c r="G44" t="n">
-        <v>4.009833333333332</v>
+        <v>4.011883333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>10138.75</v>
+        <v>238090.3989</v>
       </c>
       <c r="G45" t="n">
-        <v>4.007783333333332</v>
+        <v>4.009833333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>93610.4276</v>
+        <v>10138.75</v>
       </c>
       <c r="G46" t="n">
-        <v>4.006349999999999</v>
+        <v>4.007783333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>138776.9276</v>
+        <v>93610.4276</v>
       </c>
       <c r="G47" t="n">
-        <v>4.004183333333333</v>
+        <v>4.006349999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>138776.9276</v>
       </c>
       <c r="G48" t="n">
-        <v>4.001849999999999</v>
+        <v>4.004183333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="F49" t="n">
-        <v>89931.67140000001</v>
+        <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>3.999683333333333</v>
+        <v>4.001849999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>267719.5461</v>
+        <v>89931.67140000001</v>
       </c>
       <c r="G50" t="n">
-        <v>3.998266666666666</v>
+        <v>3.999683333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>20152.6203</v>
+        <v>267719.5461</v>
       </c>
       <c r="G51" t="n">
-        <v>3.996699999999999</v>
+        <v>3.998266666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>3.99</v>
       </c>
       <c r="F52" t="n">
-        <v>50125.3133</v>
+        <v>20152.6203</v>
       </c>
       <c r="G52" t="n">
-        <v>3.995116666666666</v>
+        <v>3.996699999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.963</v>
+        <v>3.99</v>
       </c>
       <c r="C53" t="n">
-        <v>3.953</v>
+        <v>3.99</v>
       </c>
       <c r="D53" t="n">
-        <v>3.963</v>
+        <v>3.99</v>
       </c>
       <c r="E53" t="n">
-        <v>3.953</v>
+        <v>3.99</v>
       </c>
       <c r="F53" t="n">
-        <v>166035.7434</v>
+        <v>50125.3133</v>
       </c>
       <c r="G53" t="n">
-        <v>3.992916666666666</v>
+        <v>3.995116666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.953</v>
+        <v>3.963</v>
       </c>
       <c r="C54" t="n">
         <v>3.953</v>
       </c>
       <c r="D54" t="n">
-        <v>3.953</v>
+        <v>3.963</v>
       </c>
       <c r="E54" t="n">
         <v>3.953</v>
       </c>
       <c r="F54" t="n">
-        <v>120000</v>
+        <v>166035.7434</v>
       </c>
       <c r="G54" t="n">
-        <v>3.990716666666666</v>
+        <v>3.992916666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>3.953</v>
       </c>
       <c r="F55" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="G55" t="n">
-        <v>3.988516666666666</v>
+        <v>3.990716666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.952</v>
+        <v>3.953</v>
       </c>
       <c r="C56" t="n">
-        <v>3.931</v>
+        <v>3.953</v>
       </c>
       <c r="D56" t="n">
-        <v>3.952</v>
+        <v>3.953</v>
       </c>
       <c r="E56" t="n">
-        <v>3.931</v>
+        <v>3.953</v>
       </c>
       <c r="F56" t="n">
-        <v>79484.6023</v>
+        <v>150000</v>
       </c>
       <c r="G56" t="n">
-        <v>3.985949999999999</v>
+        <v>3.988516666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.931</v>
+        <v>3.952</v>
       </c>
       <c r="C57" t="n">
         <v>3.931</v>
       </c>
       <c r="D57" t="n">
-        <v>3.931</v>
+        <v>3.952</v>
       </c>
       <c r="E57" t="n">
         <v>3.931</v>
       </c>
       <c r="F57" t="n">
-        <v>137265.7151</v>
+        <v>79484.6023</v>
       </c>
       <c r="G57" t="n">
-        <v>3.983399999999999</v>
+        <v>3.985949999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>3.931</v>
       </c>
       <c r="C58" t="n">
-        <v>3.921</v>
+        <v>3.931</v>
       </c>
       <c r="D58" t="n">
         <v>3.931</v>
       </c>
       <c r="E58" t="n">
-        <v>3.921</v>
+        <v>3.931</v>
       </c>
       <c r="F58" t="n">
-        <v>9484.781999999999</v>
+        <v>137265.7151</v>
       </c>
       <c r="G58" t="n">
-        <v>3.980816666666666</v>
+        <v>3.983399999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.925</v>
+        <v>3.931</v>
       </c>
       <c r="C59" t="n">
-        <v>3.925</v>
+        <v>3.921</v>
       </c>
       <c r="D59" t="n">
-        <v>3.925</v>
+        <v>3.931</v>
       </c>
       <c r="E59" t="n">
-        <v>3.925</v>
+        <v>3.921</v>
       </c>
       <c r="F59" t="n">
-        <v>9230</v>
+        <v>9484.781999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>3.9783</v>
+        <v>3.980816666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.915</v>
+        <v>3.925</v>
       </c>
       <c r="C60" t="n">
-        <v>3.91</v>
+        <v>3.925</v>
       </c>
       <c r="D60" t="n">
-        <v>3.915</v>
+        <v>3.925</v>
       </c>
       <c r="E60" t="n">
-        <v>3.91</v>
+        <v>3.925</v>
       </c>
       <c r="F60" t="n">
-        <v>366396.9802</v>
+        <v>9230</v>
       </c>
       <c r="G60" t="n">
-        <v>3.97555</v>
+        <v>3.9783</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.909</v>
+        <v>3.915</v>
       </c>
       <c r="C61" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="D61" t="n">
-        <v>3.909</v>
+        <v>3.915</v>
       </c>
       <c r="E61" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="F61" t="n">
-        <v>598003.6822</v>
+        <v>366396.9802</v>
       </c>
       <c r="G61" t="n">
-        <v>3.9728</v>
+        <v>3.97555</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.877</v>
+        <v>3.909</v>
       </c>
       <c r="C62" t="n">
-        <v>3.877</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="n">
-        <v>3.877</v>
+        <v>3.909</v>
       </c>
       <c r="E62" t="n">
-        <v>3.877</v>
+        <v>3.9</v>
       </c>
       <c r="F62" t="n">
-        <v>257.6735</v>
+        <v>598003.6822</v>
       </c>
       <c r="G62" t="n">
-        <v>3.970683333333334</v>
+        <v>3.9728</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.876</v>
+        <v>3.877</v>
       </c>
       <c r="C63" t="n">
-        <v>3.874</v>
+        <v>3.877</v>
       </c>
       <c r="D63" t="n">
-        <v>3.876</v>
+        <v>3.877</v>
       </c>
       <c r="E63" t="n">
-        <v>3.874</v>
+        <v>3.877</v>
       </c>
       <c r="F63" t="n">
-        <v>82901.099</v>
+        <v>257.6735</v>
       </c>
       <c r="G63" t="n">
-        <v>3.9685</v>
+        <v>3.970683333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.871</v>
+        <v>3.876</v>
       </c>
       <c r="C64" t="n">
-        <v>3.867</v>
+        <v>3.874</v>
       </c>
       <c r="D64" t="n">
-        <v>3.871</v>
+        <v>3.876</v>
       </c>
       <c r="E64" t="n">
-        <v>3.867</v>
+        <v>3.874</v>
       </c>
       <c r="F64" t="n">
-        <v>228433.315</v>
+        <v>82901.099</v>
       </c>
       <c r="G64" t="n">
-        <v>3.96615</v>
+        <v>3.9685</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.866</v>
+        <v>3.871</v>
       </c>
       <c r="C65" t="n">
-        <v>3.866</v>
+        <v>3.867</v>
       </c>
       <c r="D65" t="n">
-        <v>3.866</v>
+        <v>3.871</v>
       </c>
       <c r="E65" t="n">
-        <v>3.866</v>
+        <v>3.867</v>
       </c>
       <c r="F65" t="n">
-        <v>300000</v>
+        <v>228433.315</v>
       </c>
       <c r="G65" t="n">
-        <v>3.963783333333333</v>
+        <v>3.96615</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.882</v>
+        <v>3.866</v>
       </c>
       <c r="C66" t="n">
-        <v>3.882</v>
+        <v>3.866</v>
       </c>
       <c r="D66" t="n">
-        <v>3.882</v>
+        <v>3.866</v>
       </c>
       <c r="E66" t="n">
-        <v>3.882</v>
+        <v>3.866</v>
       </c>
       <c r="F66" t="n">
-        <v>64351.4063</v>
+        <v>300000</v>
       </c>
       <c r="G66" t="n">
-        <v>3.961716666666667</v>
+        <v>3.963783333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>3.882</v>
       </c>
       <c r="F67" t="n">
-        <v>51034.7181</v>
+        <v>64351.4063</v>
       </c>
       <c r="G67" t="n">
-        <v>3.9592</v>
+        <v>3.961716666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.929</v>
+        <v>3.882</v>
       </c>
       <c r="C68" t="n">
-        <v>3.929</v>
+        <v>3.882</v>
       </c>
       <c r="D68" t="n">
-        <v>3.929</v>
+        <v>3.882</v>
       </c>
       <c r="E68" t="n">
-        <v>3.929</v>
+        <v>3.882</v>
       </c>
       <c r="F68" t="n">
-        <v>78000</v>
+        <v>51034.7181</v>
       </c>
       <c r="G68" t="n">
-        <v>3.957283333333334</v>
+        <v>3.9592</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.892</v>
+        <v>3.929</v>
       </c>
       <c r="C69" t="n">
-        <v>3.892</v>
+        <v>3.929</v>
       </c>
       <c r="D69" t="n">
-        <v>3.892</v>
+        <v>3.929</v>
       </c>
       <c r="E69" t="n">
-        <v>3.892</v>
+        <v>3.929</v>
       </c>
       <c r="F69" t="n">
-        <v>4812.8102</v>
+        <v>78000</v>
       </c>
       <c r="G69" t="n">
-        <v>3.954766666666667</v>
+        <v>3.957283333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>3.892</v>
       </c>
       <c r="C70" t="n">
-        <v>3.862</v>
+        <v>3.892</v>
       </c>
       <c r="D70" t="n">
         <v>3.892</v>
       </c>
       <c r="E70" t="n">
-        <v>3.862</v>
+        <v>3.892</v>
       </c>
       <c r="F70" t="n">
-        <v>138776.9276</v>
+        <v>4812.8102</v>
       </c>
       <c r="G70" t="n">
-        <v>3.952366666666667</v>
+        <v>3.954766666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,35 +2848,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.95</v>
+        <v>3.892</v>
       </c>
       <c r="C71" t="n">
-        <v>3.958</v>
+        <v>3.862</v>
       </c>
       <c r="D71" t="n">
-        <v>3.958</v>
+        <v>3.892</v>
       </c>
       <c r="E71" t="n">
-        <v>3.95</v>
+        <v>3.862</v>
       </c>
       <c r="F71" t="n">
-        <v>78108.43150000001</v>
+        <v>138776.9276</v>
       </c>
       <c r="G71" t="n">
-        <v>3.95175</v>
+        <v>3.952366666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.862</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -2887,40 +2883,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.977</v>
+        <v>3.95</v>
       </c>
       <c r="C72" t="n">
-        <v>3.977</v>
+        <v>3.958</v>
       </c>
       <c r="D72" t="n">
-        <v>3.977</v>
+        <v>3.958</v>
       </c>
       <c r="E72" t="n">
-        <v>3.977</v>
+        <v>3.95</v>
       </c>
       <c r="F72" t="n">
-        <v>125387.797</v>
+        <v>78108.43150000001</v>
       </c>
       <c r="G72" t="n">
-        <v>3.950816666666667</v>
+        <v>3.95175</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.969</v>
+        <v>3.977</v>
       </c>
       <c r="C73" t="n">
-        <v>3.969</v>
+        <v>3.977</v>
       </c>
       <c r="D73" t="n">
-        <v>3.969</v>
+        <v>3.977</v>
       </c>
       <c r="E73" t="n">
-        <v>3.969</v>
+        <v>3.977</v>
       </c>
       <c r="F73" t="n">
-        <v>28800</v>
+        <v>125387.797</v>
       </c>
       <c r="G73" t="n">
-        <v>3.9504</v>
+        <v>3.950816666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2954,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2971,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.959</v>
+        <v>3.969</v>
       </c>
       <c r="C74" t="n">
         <v>3.969</v>
@@ -2980,13 +2962,13 @@
         <v>3.969</v>
       </c>
       <c r="E74" t="n">
-        <v>3.959</v>
+        <v>3.969</v>
       </c>
       <c r="F74" t="n">
-        <v>18137.3806</v>
+        <v>28800</v>
       </c>
       <c r="G74" t="n">
-        <v>3.950033333333333</v>
+        <v>3.9504</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.969</v>
+        <v>3.959</v>
       </c>
       <c r="C75" t="n">
         <v>3.969</v>
@@ -3015,13 +2997,13 @@
         <v>3.969</v>
       </c>
       <c r="E75" t="n">
-        <v>3.969</v>
+        <v>3.959</v>
       </c>
       <c r="F75" t="n">
-        <v>111658.1647</v>
+        <v>18137.3806</v>
       </c>
       <c r="G75" t="n">
-        <v>3.949516666666666</v>
+        <v>3.950033333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.989</v>
+        <v>3.969</v>
       </c>
       <c r="C76" t="n">
-        <v>3.989</v>
+        <v>3.969</v>
       </c>
       <c r="D76" t="n">
-        <v>3.989</v>
+        <v>3.969</v>
       </c>
       <c r="E76" t="n">
-        <v>3.989</v>
+        <v>3.969</v>
       </c>
       <c r="F76" t="n">
-        <v>127110.2314</v>
+        <v>111658.1647</v>
       </c>
       <c r="G76" t="n">
-        <v>3.949333333333333</v>
+        <v>3.949516666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3088,10 +3070,10 @@
         <v>3.989</v>
       </c>
       <c r="F77" t="n">
-        <v>125032.0826</v>
+        <v>127110.2314</v>
       </c>
       <c r="G77" t="n">
-        <v>3.949783333333333</v>
+        <v>3.949333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,10 +3105,10 @@
         <v>3.989</v>
       </c>
       <c r="F78" t="n">
-        <v>13526.7871</v>
+        <v>125032.0826</v>
       </c>
       <c r="G78" t="n">
-        <v>3.951116666666667</v>
+        <v>3.949783333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,10 +3140,10 @@
         <v>3.989</v>
       </c>
       <c r="F79" t="n">
-        <v>18633.3483</v>
+        <v>13526.7871</v>
       </c>
       <c r="G79" t="n">
-        <v>3.95225</v>
+        <v>3.951116666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3181,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.98</v>
+        <v>3.989</v>
       </c>
       <c r="C80" t="n">
-        <v>4.003</v>
+        <v>3.989</v>
       </c>
       <c r="D80" t="n">
-        <v>4.003</v>
+        <v>3.989</v>
       </c>
       <c r="E80" t="n">
-        <v>3.98</v>
+        <v>3.989</v>
       </c>
       <c r="F80" t="n">
-        <v>425.7332</v>
+        <v>18633.3483</v>
       </c>
       <c r="G80" t="n">
-        <v>3.953816666666667</v>
+        <v>3.95225</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3216,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="C81" t="n">
-        <v>3.969</v>
+        <v>4.003</v>
       </c>
       <c r="D81" t="n">
-        <v>3.97</v>
+        <v>4.003</v>
       </c>
       <c r="E81" t="n">
-        <v>3.969</v>
+        <v>3.98</v>
       </c>
       <c r="F81" t="n">
-        <v>17870.8935</v>
+        <v>425.7332</v>
       </c>
       <c r="G81" t="n">
-        <v>3.954616666666667</v>
+        <v>3.953816666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.969</v>
+        <v>3.97</v>
       </c>
       <c r="C82" t="n">
         <v>3.969</v>
       </c>
       <c r="D82" t="n">
-        <v>3.969</v>
+        <v>3.97</v>
       </c>
       <c r="E82" t="n">
         <v>3.969</v>
       </c>
       <c r="F82" t="n">
-        <v>127110.2314</v>
+        <v>17870.8935</v>
       </c>
       <c r="G82" t="n">
-        <v>3.95475</v>
+        <v>3.954616666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,10 +3280,10 @@
         <v>3.969</v>
       </c>
       <c r="F83" t="n">
-        <v>4498.2007</v>
+        <v>127110.2314</v>
       </c>
       <c r="G83" t="n">
-        <v>3.954766666666667</v>
+        <v>3.95475</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.992</v>
+        <v>3.969</v>
       </c>
       <c r="C84" t="n">
-        <v>3.992</v>
+        <v>3.969</v>
       </c>
       <c r="D84" t="n">
-        <v>3.992</v>
+        <v>3.969</v>
       </c>
       <c r="E84" t="n">
-        <v>3.992</v>
+        <v>3.969</v>
       </c>
       <c r="F84" t="n">
-        <v>126</v>
+        <v>4498.2007</v>
       </c>
       <c r="G84" t="n">
-        <v>3.955166666666667</v>
+        <v>3.954766666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3359,19 +3341,19 @@
         <v>3.992</v>
       </c>
       <c r="C85" t="n">
-        <v>3.993</v>
+        <v>3.992</v>
       </c>
       <c r="D85" t="n">
-        <v>3.993</v>
+        <v>3.992</v>
       </c>
       <c r="E85" t="n">
         <v>3.992</v>
       </c>
       <c r="F85" t="n">
-        <v>51135.3222</v>
+        <v>126</v>
       </c>
       <c r="G85" t="n">
-        <v>3.955533333333334</v>
+        <v>3.955166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,19 +3373,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.969</v>
+        <v>3.992</v>
       </c>
       <c r="C86" t="n">
-        <v>3.969</v>
+        <v>3.993</v>
       </c>
       <c r="D86" t="n">
-        <v>3.969</v>
+        <v>3.993</v>
       </c>
       <c r="E86" t="n">
-        <v>3.969</v>
+        <v>3.992</v>
       </c>
       <c r="F86" t="n">
-        <v>51034.7181</v>
+        <v>51135.3222</v>
       </c>
       <c r="G86" t="n">
         <v>3.955533333333334</v>
@@ -3429,19 +3411,19 @@
         <v>3.969</v>
       </c>
       <c r="C87" t="n">
-        <v>3.958</v>
+        <v>3.969</v>
       </c>
       <c r="D87" t="n">
         <v>3.969</v>
       </c>
       <c r="E87" t="n">
-        <v>3.958</v>
+        <v>3.969</v>
       </c>
       <c r="F87" t="n">
-        <v>352198.8293</v>
+        <v>51034.7181</v>
       </c>
       <c r="G87" t="n">
-        <v>3.955316666666667</v>
+        <v>3.955533333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.955</v>
+        <v>3.969</v>
       </c>
       <c r="C88" t="n">
-        <v>3.95</v>
+        <v>3.958</v>
       </c>
       <c r="D88" t="n">
-        <v>3.955</v>
+        <v>3.969</v>
       </c>
       <c r="E88" t="n">
-        <v>3.95</v>
+        <v>3.958</v>
       </c>
       <c r="F88" t="n">
-        <v>24040.4842</v>
+        <v>352198.8293</v>
       </c>
       <c r="G88" t="n">
-        <v>3.954966666666667</v>
+        <v>3.955316666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.94</v>
+        <v>3.955</v>
       </c>
       <c r="C89" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="D89" t="n">
-        <v>3.94</v>
+        <v>3.955</v>
       </c>
       <c r="E89" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="F89" t="n">
-        <v>49257.7163</v>
+        <v>24040.4842</v>
       </c>
       <c r="G89" t="n">
-        <v>3.95455</v>
+        <v>3.954966666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="C90" t="n">
-        <v>3.872</v>
+        <v>3.91</v>
       </c>
       <c r="D90" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="E90" t="n">
-        <v>3.872</v>
+        <v>3.91</v>
       </c>
       <c r="F90" t="n">
-        <v>624430.0852</v>
+        <v>49257.7163</v>
       </c>
       <c r="G90" t="n">
-        <v>3.9535</v>
+        <v>3.95455</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.872</v>
+        <v>3.9</v>
       </c>
       <c r="C91" t="n">
         <v>3.872</v>
       </c>
       <c r="D91" t="n">
-        <v>3.872</v>
+        <v>3.9</v>
       </c>
       <c r="E91" t="n">
         <v>3.872</v>
       </c>
       <c r="F91" t="n">
-        <v>91966.52039999999</v>
+        <v>624430.0852</v>
       </c>
       <c r="G91" t="n">
-        <v>3.95245</v>
+        <v>3.9535</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,10 +3595,10 @@
         <v>3.872</v>
       </c>
       <c r="F92" t="n">
-        <v>13301.4738</v>
+        <v>91966.52039999999</v>
       </c>
       <c r="G92" t="n">
-        <v>3.950316666666667</v>
+        <v>3.95245</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3648,10 +3630,10 @@
         <v>3.872</v>
       </c>
       <c r="F93" t="n">
-        <v>269945.975</v>
+        <v>13301.4738</v>
       </c>
       <c r="G93" t="n">
-        <v>3.948216666666667</v>
+        <v>3.950316666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.885</v>
+        <v>3.872</v>
       </c>
       <c r="C94" t="n">
-        <v>3.885</v>
+        <v>3.872</v>
       </c>
       <c r="D94" t="n">
-        <v>3.885</v>
+        <v>3.872</v>
       </c>
       <c r="E94" t="n">
-        <v>3.885</v>
+        <v>3.872</v>
       </c>
       <c r="F94" t="n">
-        <v>7530</v>
+        <v>269945.975</v>
       </c>
       <c r="G94" t="n">
-        <v>3.946316666666667</v>
+        <v>3.948216666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3718,10 +3700,10 @@
         <v>3.885</v>
       </c>
       <c r="F95" t="n">
-        <v>163788.4749</v>
+        <v>7530</v>
       </c>
       <c r="G95" t="n">
-        <v>3.9452</v>
+        <v>3.946316666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3753,10 +3735,10 @@
         <v>3.885</v>
       </c>
       <c r="F96" t="n">
-        <v>93315.07060000001</v>
+        <v>163788.4749</v>
       </c>
       <c r="G96" t="n">
-        <v>3.94445</v>
+        <v>3.9452</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3788,10 +3770,10 @@
         <v>3.885</v>
       </c>
       <c r="F97" t="n">
-        <v>48491.5898</v>
+        <v>93315.07060000001</v>
       </c>
       <c r="G97" t="n">
-        <v>3.943783333333333</v>
+        <v>3.94445</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,10 +3805,10 @@
         <v>3.885</v>
       </c>
       <c r="F98" t="n">
-        <v>553177.9301</v>
+        <v>48491.5898</v>
       </c>
       <c r="G98" t="n">
-        <v>3.943266666666666</v>
+        <v>3.943783333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3858,10 +3840,10 @@
         <v>3.885</v>
       </c>
       <c r="F99" t="n">
-        <v>95369.56329999999</v>
+        <v>553177.9301</v>
       </c>
       <c r="G99" t="n">
-        <v>3.94205</v>
+        <v>3.943266666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3893,23 +3875,19 @@
         <v>3.885</v>
       </c>
       <c r="F100" t="n">
-        <v>613.7012</v>
+        <v>95369.56329999999</v>
       </c>
       <c r="G100" t="n">
-        <v>3.940483333333332</v>
+        <v>3.94205</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3.885</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -3920,40 +3898,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="C101" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="D101" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="E101" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="F101" t="n">
-        <v>515.9016</v>
+        <v>613.7012</v>
       </c>
       <c r="G101" t="n">
-        <v>3.938516666666666</v>
+        <v>3.940483333333332</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3966,37 +3936,29 @@
         <v>3.881</v>
       </c>
       <c r="C102" t="n">
-        <v>3.885</v>
+        <v>3.881</v>
       </c>
       <c r="D102" t="n">
-        <v>3.885</v>
+        <v>3.881</v>
       </c>
       <c r="E102" t="n">
         <v>3.881</v>
       </c>
       <c r="F102" t="n">
-        <v>3058853.5225</v>
+        <v>515.9016</v>
       </c>
       <c r="G102" t="n">
-        <v>3.936766666666665</v>
+        <v>3.938516666666666</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4006,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.885</v>
+        <v>3.881</v>
       </c>
       <c r="C103" t="n">
         <v>3.885</v>
@@ -4015,13 +3977,13 @@
         <v>3.885</v>
       </c>
       <c r="E103" t="n">
-        <v>3.885</v>
+        <v>3.881</v>
       </c>
       <c r="F103" t="n">
-        <v>1543.8726</v>
+        <v>3058853.5225</v>
       </c>
       <c r="G103" t="n">
-        <v>3.934866666666665</v>
+        <v>3.936766666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4030,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4047,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.875</v>
+        <v>3.885</v>
       </c>
       <c r="C104" t="n">
-        <v>3.862</v>
+        <v>3.885</v>
       </c>
       <c r="D104" t="n">
-        <v>3.875</v>
+        <v>3.885</v>
       </c>
       <c r="E104" t="n">
-        <v>3.862</v>
+        <v>3.885</v>
       </c>
       <c r="F104" t="n">
-        <v>500638.994</v>
+        <v>1543.8726</v>
       </c>
       <c r="G104" t="n">
-        <v>3.932566666666665</v>
+        <v>3.934866666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4071,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="C105" t="n">
         <v>3.862</v>
       </c>
-      <c r="C105" t="n">
-        <v>3.853</v>
-      </c>
       <c r="D105" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E105" t="n">
         <v>3.862</v>
       </c>
-      <c r="E105" t="n">
-        <v>3.853</v>
-      </c>
       <c r="F105" t="n">
-        <v>1402949.8263</v>
+        <v>500638.994</v>
       </c>
       <c r="G105" t="n">
-        <v>3.930116666666665</v>
+        <v>3.932566666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4112,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4129,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.885</v>
+        <v>3.862</v>
       </c>
       <c r="C106" t="n">
-        <v>3.885</v>
+        <v>3.853</v>
       </c>
       <c r="D106" t="n">
-        <v>3.885</v>
+        <v>3.862</v>
       </c>
       <c r="E106" t="n">
-        <v>3.885</v>
+        <v>3.853</v>
       </c>
       <c r="F106" t="n">
-        <v>76000</v>
+        <v>1402949.8263</v>
       </c>
       <c r="G106" t="n">
-        <v>3.928199999999999</v>
+        <v>3.930116666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4153,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4182,10 +4120,10 @@
         <v>3.885</v>
       </c>
       <c r="F107" t="n">
-        <v>800.3733999999999</v>
+        <v>76000</v>
       </c>
       <c r="G107" t="n">
-        <v>3.926283333333332</v>
+        <v>3.928199999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4194,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4211,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.91</v>
+        <v>3.885</v>
       </c>
       <c r="C108" t="n">
-        <v>3.91</v>
+        <v>3.885</v>
       </c>
       <c r="D108" t="n">
-        <v>3.91</v>
+        <v>3.885</v>
       </c>
       <c r="E108" t="n">
-        <v>3.91</v>
+        <v>3.885</v>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>800.3733999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>3.924949999999998</v>
+        <v>3.926283333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4235,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4264,10 +4190,10 @@
         <v>3.91</v>
       </c>
       <c r="F109" t="n">
-        <v>44943.6485</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
-        <v>3.923449999999998</v>
+        <v>3.924949999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4276,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4305,10 +4225,10 @@
         <v>3.91</v>
       </c>
       <c r="F110" t="n">
-        <v>785.5297</v>
+        <v>44943.6485</v>
       </c>
       <c r="G110" t="n">
-        <v>3.921949999999998</v>
+        <v>3.923449999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4317,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4346,10 +4260,10 @@
         <v>3.91</v>
       </c>
       <c r="F111" t="n">
-        <v>38471.6561</v>
+        <v>785.5297</v>
       </c>
       <c r="G111" t="n">
-        <v>3.920616666666665</v>
+        <v>3.921949999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4358,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4375,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="C112" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="D112" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="E112" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>38471.6561</v>
       </c>
       <c r="G112" t="n">
-        <v>3.919716666666665</v>
+        <v>3.920616666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4399,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4416,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.91</v>
+        <v>3.936</v>
       </c>
       <c r="C113" t="n">
-        <v>3.91</v>
+        <v>3.936</v>
       </c>
       <c r="D113" t="n">
-        <v>3.91</v>
+        <v>3.936</v>
       </c>
       <c r="E113" t="n">
-        <v>3.91</v>
+        <v>3.936</v>
       </c>
       <c r="F113" t="n">
-        <v>515.9016</v>
+        <v>200</v>
       </c>
       <c r="G113" t="n">
-        <v>3.918999999999998</v>
+        <v>3.919716666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4440,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4457,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="C114" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="D114" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="E114" t="n">
-        <v>3.936</v>
+        <v>3.91</v>
       </c>
       <c r="F114" t="n">
-        <v>1497.0754</v>
+        <v>515.9016</v>
       </c>
       <c r="G114" t="n">
-        <v>3.918716666666664</v>
+        <v>3.918999999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4481,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4498,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.925</v>
+        <v>3.936</v>
       </c>
       <c r="C115" t="n">
-        <v>3.925</v>
+        <v>3.936</v>
       </c>
       <c r="D115" t="n">
-        <v>3.925</v>
+        <v>3.936</v>
       </c>
       <c r="E115" t="n">
-        <v>3.925</v>
+        <v>3.936</v>
       </c>
       <c r="F115" t="n">
-        <v>128</v>
+        <v>1497.0754</v>
       </c>
       <c r="G115" t="n">
-        <v>3.918249999999998</v>
+        <v>3.918716666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4522,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4539,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.92</v>
+        <v>3.925</v>
       </c>
       <c r="C116" t="n">
-        <v>3.92</v>
+        <v>3.925</v>
       </c>
       <c r="D116" t="n">
-        <v>3.92</v>
+        <v>3.925</v>
       </c>
       <c r="E116" t="n">
-        <v>3.92</v>
+        <v>3.925</v>
       </c>
       <c r="F116" t="n">
         <v>128</v>
       </c>
       <c r="G116" t="n">
-        <v>3.918066666666664</v>
+        <v>3.918249999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4563,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4592,10 +4470,10 @@
         <v>3.92</v>
       </c>
       <c r="F117" t="n">
-        <v>3899.5</v>
+        <v>128</v>
       </c>
       <c r="G117" t="n">
-        <v>3.91788333333333</v>
+        <v>3.918066666666664</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4604,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4633,10 +4505,10 @@
         <v>3.92</v>
       </c>
       <c r="F118" t="n">
-        <v>2039.6775</v>
+        <v>3899.5</v>
       </c>
       <c r="G118" t="n">
-        <v>3.917866666666664</v>
+        <v>3.91788333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4645,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4662,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="C119" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="D119" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="E119" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="F119" t="n">
-        <v>2502.7027</v>
+        <v>2039.6775</v>
       </c>
       <c r="G119" t="n">
-        <v>3.917449999999997</v>
+        <v>3.917866666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.889</v>
+        <v>3.91</v>
       </c>
       <c r="C120" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D120" t="n">
-        <v>3.889</v>
+        <v>3.91</v>
       </c>
       <c r="E120" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F120" t="n">
-        <v>478116.0096</v>
+        <v>2502.7027</v>
       </c>
       <c r="G120" t="n">
-        <v>3.916449999999997</v>
+        <v>3.917449999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4727,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4744,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.914</v>
+        <v>3.889</v>
       </c>
       <c r="C121" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="D121" t="n">
-        <v>3.914</v>
+        <v>3.889</v>
       </c>
       <c r="E121" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="F121" t="n">
-        <v>3832.396525293</v>
+        <v>478116.0096</v>
       </c>
       <c r="G121" t="n">
-        <v>3.91668333333333</v>
+        <v>3.916449999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4768,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4785,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.881</v>
+        <v>3.914</v>
       </c>
       <c r="C122" t="n">
-        <v>3.881</v>
+        <v>3.914</v>
       </c>
       <c r="D122" t="n">
-        <v>3.881</v>
+        <v>3.914</v>
       </c>
       <c r="E122" t="n">
-        <v>3.881</v>
+        <v>3.914</v>
       </c>
       <c r="F122" t="n">
-        <v>5650</v>
+        <v>3832.396525293</v>
       </c>
       <c r="G122" t="n">
-        <v>3.916749999999996</v>
+        <v>3.91668333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4809,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4838,10 +4680,10 @@
         <v>3.881</v>
       </c>
       <c r="F123" t="n">
-        <v>23706.3555</v>
+        <v>5650</v>
       </c>
       <c r="G123" t="n">
-        <v>3.916866666666663</v>
+        <v>3.916749999999996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4850,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4867,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.914</v>
+        <v>3.881</v>
       </c>
       <c r="C124" t="n">
-        <v>3.914</v>
+        <v>3.881</v>
       </c>
       <c r="D124" t="n">
-        <v>3.914</v>
+        <v>3.881</v>
       </c>
       <c r="E124" t="n">
-        <v>3.914</v>
+        <v>3.881</v>
       </c>
       <c r="F124" t="n">
-        <v>128</v>
+        <v>23706.3555</v>
       </c>
       <c r="G124" t="n">
-        <v>3.917649999999997</v>
+        <v>3.916866666666663</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4891,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4911,19 +4741,19 @@
         <v>3.914</v>
       </c>
       <c r="C125" t="n">
-        <v>3.915</v>
+        <v>3.914</v>
       </c>
       <c r="D125" t="n">
-        <v>3.915</v>
+        <v>3.914</v>
       </c>
       <c r="E125" t="n">
         <v>3.914</v>
       </c>
       <c r="F125" t="n">
-        <v>98670</v>
+        <v>128</v>
       </c>
       <c r="G125" t="n">
-        <v>3.918466666666663</v>
+        <v>3.917649999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4932,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4949,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.925</v>
+        <v>3.914</v>
       </c>
       <c r="C126" t="n">
-        <v>3.935</v>
+        <v>3.915</v>
       </c>
       <c r="D126" t="n">
-        <v>3.935</v>
+        <v>3.915</v>
       </c>
       <c r="E126" t="n">
-        <v>3.925</v>
+        <v>3.914</v>
       </c>
       <c r="F126" t="n">
-        <v>257078.7301</v>
+        <v>98670</v>
       </c>
       <c r="G126" t="n">
-        <v>3.919349999999996</v>
+        <v>3.918466666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4973,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4990,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="C127" t="n">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="D127" t="n">
-        <v>3.936</v>
+        <v>3.935</v>
       </c>
       <c r="E127" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="F127" t="n">
-        <v>322561.025</v>
+        <v>257078.7301</v>
       </c>
       <c r="G127" t="n">
-        <v>3.920249999999996</v>
+        <v>3.919349999999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5014,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5031,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.946</v>
+        <v>3.936</v>
       </c>
       <c r="C128" t="n">
-        <v>3.96</v>
+        <v>3.936</v>
       </c>
       <c r="D128" t="n">
-        <v>3.96</v>
+        <v>3.936</v>
       </c>
       <c r="E128" t="n">
-        <v>3.946</v>
+        <v>3.936</v>
       </c>
       <c r="F128" t="n">
-        <v>22905.7226</v>
+        <v>322561.025</v>
       </c>
       <c r="G128" t="n">
-        <v>3.920766666666663</v>
+        <v>3.920249999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5055,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5072,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.978</v>
+        <v>3.946</v>
       </c>
       <c r="C129" t="n">
-        <v>3.978</v>
+        <v>3.96</v>
       </c>
       <c r="D129" t="n">
-        <v>3.978</v>
+        <v>3.96</v>
       </c>
       <c r="E129" t="n">
-        <v>3.978</v>
+        <v>3.946</v>
       </c>
       <c r="F129" t="n">
-        <v>126</v>
+        <v>22905.7226</v>
       </c>
       <c r="G129" t="n">
-        <v>3.922199999999997</v>
+        <v>3.920766666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5096,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5113,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.977</v>
+        <v>3.978</v>
       </c>
       <c r="C130" t="n">
-        <v>3.977</v>
+        <v>3.978</v>
       </c>
       <c r="D130" t="n">
-        <v>3.977</v>
+        <v>3.978</v>
       </c>
       <c r="E130" t="n">
-        <v>3.977</v>
+        <v>3.978</v>
       </c>
       <c r="F130" t="n">
-        <v>16836.339</v>
+        <v>126</v>
       </c>
       <c r="G130" t="n">
-        <v>3.924116666666663</v>
+        <v>3.922199999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5137,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.978</v>
+        <v>3.977</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3.977</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>3.977</v>
       </c>
       <c r="E131" t="n">
-        <v>3.978</v>
+        <v>3.977</v>
       </c>
       <c r="F131" t="n">
-        <v>532898.0421</v>
+        <v>16836.339</v>
       </c>
       <c r="G131" t="n">
-        <v>3.924816666666664</v>
+        <v>3.924116666666663</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5178,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5195,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>3.978</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
@@ -5204,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>3.978</v>
       </c>
       <c r="F132" t="n">
-        <v>7416.6259</v>
+        <v>532898.0421</v>
       </c>
       <c r="G132" t="n">
-        <v>3.925199999999997</v>
+        <v>3.924816666666664</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5219,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5239,19 +5021,19 @@
         <v>4</v>
       </c>
       <c r="C133" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
       </c>
       <c r="F133" t="n">
-        <v>572588.374</v>
+        <v>7416.6259</v>
       </c>
       <c r="G133" t="n">
-        <v>3.926716666666664</v>
+        <v>3.925199999999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5260,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5277,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.071</v>
+        <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>4.071</v>
+        <v>4.06</v>
       </c>
       <c r="D134" t="n">
-        <v>4.071</v>
+        <v>4.06</v>
       </c>
       <c r="E134" t="n">
-        <v>4.071</v>
+        <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>123</v>
+        <v>572588.374</v>
       </c>
       <c r="G134" t="n">
-        <v>3.928416666666664</v>
+        <v>3.926716666666664</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5301,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5318,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.997</v>
+        <v>4.071</v>
       </c>
       <c r="C135" t="n">
-        <v>3.997</v>
+        <v>4.071</v>
       </c>
       <c r="D135" t="n">
-        <v>3.997</v>
+        <v>4.071</v>
       </c>
       <c r="E135" t="n">
-        <v>3.997</v>
+        <v>4.071</v>
       </c>
       <c r="F135" t="n">
-        <v>390889.6235</v>
+        <v>123</v>
       </c>
       <c r="G135" t="n">
-        <v>3.928883333333331</v>
+        <v>3.928416666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5342,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5371,10 +5135,10 @@
         <v>3.997</v>
       </c>
       <c r="F136" t="n">
-        <v>249.9375</v>
+        <v>390889.6235</v>
       </c>
       <c r="G136" t="n">
-        <v>3.929016666666664</v>
+        <v>3.928883333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5383,16 +5147,10 @@
         <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>1.023828828828829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5412,10 +5170,10 @@
         <v>3.997</v>
       </c>
       <c r="F137" t="n">
-        <v>19750.0625</v>
+        <v>249.9375</v>
       </c>
       <c r="G137" t="n">
-        <v>3.929149999999997</v>
+        <v>3.929016666666664</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5435,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>3.997</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3.997</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>3.997</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>3.997</v>
       </c>
       <c r="F138" t="n">
-        <v>13301.4738</v>
+        <v>19750.0625</v>
       </c>
       <c r="G138" t="n">
-        <v>3.92933333333333</v>
+        <v>3.929149999999997</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5482,10 +5240,10 @@
         <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>597.273</v>
+        <v>13301.4738</v>
       </c>
       <c r="G139" t="n">
-        <v>3.929516666666664</v>
+        <v>3.92933333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5505,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="D140" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
-        <v>20000</v>
+        <v>597.273</v>
       </c>
       <c r="G140" t="n">
-        <v>3.929416666666663</v>
+        <v>3.929516666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5552,10 +5310,10 @@
         <v>3.997</v>
       </c>
       <c r="F141" t="n">
-        <v>263345.8331</v>
+        <v>20000</v>
       </c>
       <c r="G141" t="n">
-        <v>3.929883333333331</v>
+        <v>3.929416666666663</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5575,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.003</v>
+        <v>3.997</v>
       </c>
       <c r="C142" t="n">
-        <v>4.003</v>
+        <v>3.997</v>
       </c>
       <c r="D142" t="n">
-        <v>4.003</v>
+        <v>3.997</v>
       </c>
       <c r="E142" t="n">
-        <v>4.003</v>
+        <v>3.997</v>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>263345.8331</v>
       </c>
       <c r="G142" t="n">
-        <v>3.930449999999997</v>
+        <v>3.929883333333331</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5613,19 +5371,19 @@
         <v>4.003</v>
       </c>
       <c r="C143" t="n">
-        <v>3.987</v>
+        <v>4.003</v>
       </c>
       <c r="D143" t="n">
         <v>4.003</v>
       </c>
       <c r="E143" t="n">
-        <v>3.987</v>
+        <v>4.003</v>
       </c>
       <c r="F143" t="n">
-        <v>46932.5644</v>
+        <v>300</v>
       </c>
       <c r="G143" t="n">
-        <v>3.930749999999997</v>
+        <v>3.930449999999997</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5645,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.987</v>
+        <v>4.003</v>
       </c>
       <c r="C144" t="n">
         <v>3.987</v>
       </c>
       <c r="D144" t="n">
-        <v>3.987</v>
+        <v>4.003</v>
       </c>
       <c r="E144" t="n">
         <v>3.987</v>
       </c>
       <c r="F144" t="n">
-        <v>11709.7581</v>
+        <v>46932.5644</v>
       </c>
       <c r="G144" t="n">
-        <v>3.930666666666664</v>
+        <v>3.930749999999997</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5680,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.004</v>
+        <v>3.987</v>
       </c>
       <c r="C145" t="n">
-        <v>4.003</v>
+        <v>3.987</v>
       </c>
       <c r="D145" t="n">
-        <v>4.004</v>
+        <v>3.987</v>
       </c>
       <c r="E145" t="n">
-        <v>4.003</v>
+        <v>3.987</v>
       </c>
       <c r="F145" t="n">
-        <v>159403.3455</v>
+        <v>11709.7581</v>
       </c>
       <c r="G145" t="n">
-        <v>3.930833333333331</v>
+        <v>3.930666666666664</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5715,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.003</v>
+        <v>4.004</v>
       </c>
       <c r="C146" t="n">
         <v>4.003</v>
       </c>
       <c r="D146" t="n">
-        <v>4.003</v>
+        <v>4.004</v>
       </c>
       <c r="E146" t="n">
         <v>4.003</v>
       </c>
       <c r="F146" t="n">
-        <v>26589.3485</v>
+        <v>159403.3455</v>
       </c>
       <c r="G146" t="n">
-        <v>3.931399999999997</v>
+        <v>3.930833333333331</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5753,19 +5511,19 @@
         <v>4.003</v>
       </c>
       <c r="C147" t="n">
-        <v>4.005</v>
+        <v>4.003</v>
       </c>
       <c r="D147" t="n">
-        <v>4.005</v>
+        <v>4.003</v>
       </c>
       <c r="E147" t="n">
         <v>4.003</v>
       </c>
       <c r="F147" t="n">
-        <v>20561.4454</v>
+        <v>26589.3485</v>
       </c>
       <c r="G147" t="n">
-        <v>3.93218333333333</v>
+        <v>3.931399999999997</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5785,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.005</v>
+        <v>4.003</v>
       </c>
       <c r="C148" t="n">
         <v>4.005</v>
@@ -5794,13 +5552,13 @@
         <v>4.005</v>
       </c>
       <c r="E148" t="n">
-        <v>4.005</v>
+        <v>4.003</v>
       </c>
       <c r="F148" t="n">
-        <v>13288.0345</v>
+        <v>20561.4454</v>
       </c>
       <c r="G148" t="n">
-        <v>3.933099999999997</v>
+        <v>3.93218333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5820,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.978</v>
+        <v>4.005</v>
       </c>
       <c r="C149" t="n">
-        <v>3.97</v>
+        <v>4.005</v>
       </c>
       <c r="D149" t="n">
-        <v>3.978</v>
+        <v>4.005</v>
       </c>
       <c r="E149" t="n">
-        <v>3.97</v>
+        <v>4.005</v>
       </c>
       <c r="F149" t="n">
-        <v>22956.2318</v>
+        <v>13288.0345</v>
       </c>
       <c r="G149" t="n">
-        <v>3.934099999999998</v>
+        <v>3.933099999999997</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5855,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.004</v>
+        <v>3.978</v>
       </c>
       <c r="C150" t="n">
-        <v>4.004</v>
+        <v>3.97</v>
       </c>
       <c r="D150" t="n">
-        <v>4.004</v>
+        <v>3.978</v>
       </c>
       <c r="E150" t="n">
-        <v>4.004</v>
+        <v>3.97</v>
       </c>
       <c r="F150" t="n">
-        <v>6645.6772</v>
+        <v>22956.2318</v>
       </c>
       <c r="G150" t="n">
-        <v>3.936299999999997</v>
+        <v>3.934099999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5890,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.972</v>
+        <v>4.004</v>
       </c>
       <c r="C151" t="n">
-        <v>3.962</v>
+        <v>4.004</v>
       </c>
       <c r="D151" t="n">
-        <v>3.972</v>
+        <v>4.004</v>
       </c>
       <c r="E151" t="n">
-        <v>3.962</v>
+        <v>4.004</v>
       </c>
       <c r="F151" t="n">
-        <v>66816.5053</v>
+        <v>6645.6772</v>
       </c>
       <c r="G151" t="n">
-        <v>3.937799999999997</v>
+        <v>3.936299999999997</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5925,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C152" t="n">
         <v>3.962</v>
       </c>
-      <c r="C152" t="n">
-        <v>3.993</v>
-      </c>
       <c r="D152" t="n">
-        <v>4.004</v>
+        <v>3.972</v>
       </c>
       <c r="E152" t="n">
         <v>3.962</v>
       </c>
       <c r="F152" t="n">
-        <v>6528.8806</v>
+        <v>66816.5053</v>
       </c>
       <c r="G152" t="n">
-        <v>3.939816666666663</v>
+        <v>3.937799999999997</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5960,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.993</v>
+        <v>3.962</v>
       </c>
       <c r="C153" t="n">
         <v>3.993</v>
       </c>
       <c r="D153" t="n">
-        <v>3.993</v>
+        <v>4.004</v>
       </c>
       <c r="E153" t="n">
-        <v>3.993</v>
+        <v>3.962</v>
       </c>
       <c r="F153" t="n">
-        <v>2501</v>
+        <v>6528.8806</v>
       </c>
       <c r="G153" t="n">
-        <v>3.941833333333329</v>
+        <v>3.939816666666663</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5995,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.96</v>
+        <v>3.993</v>
       </c>
       <c r="C154" t="n">
-        <v>3.951</v>
+        <v>3.993</v>
       </c>
       <c r="D154" t="n">
-        <v>3.96</v>
+        <v>3.993</v>
       </c>
       <c r="E154" t="n">
-        <v>3.951</v>
+        <v>3.993</v>
       </c>
       <c r="F154" t="n">
-        <v>20561.4454</v>
+        <v>2501</v>
       </c>
       <c r="G154" t="n">
-        <v>3.942933333333329</v>
+        <v>3.941833333333329</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6030,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.951</v>
+        <v>3.96</v>
       </c>
       <c r="C155" t="n">
         <v>3.951</v>
       </c>
       <c r="D155" t="n">
-        <v>3.951</v>
+        <v>3.96</v>
       </c>
       <c r="E155" t="n">
         <v>3.951</v>
       </c>
       <c r="F155" t="n">
-        <v>24252.9649</v>
+        <v>20561.4454</v>
       </c>
       <c r="G155" t="n">
-        <v>3.94403333333333</v>
+        <v>3.942933333333329</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6077,10 +5835,10 @@
         <v>3.951</v>
       </c>
       <c r="F156" t="n">
-        <v>65521.7176</v>
+        <v>24252.9649</v>
       </c>
       <c r="G156" t="n">
-        <v>3.94513333333333</v>
+        <v>3.94403333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6100,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="C157" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="D157" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="E157" t="n">
-        <v>3.94</v>
+        <v>3.951</v>
       </c>
       <c r="F157" t="n">
-        <v>126840.7654</v>
+        <v>65521.7176</v>
       </c>
       <c r="G157" t="n">
-        <v>3.946049999999997</v>
+        <v>3.94513333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6135,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="C158" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="D158" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="E158" t="n">
-        <v>3.939</v>
+        <v>3.94</v>
       </c>
       <c r="F158" t="n">
-        <v>6484.9478</v>
+        <v>126840.7654</v>
       </c>
       <c r="G158" t="n">
-        <v>3.946949999999996</v>
+        <v>3.946049999999997</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6170,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.931</v>
+        <v>3.939</v>
       </c>
       <c r="C159" t="n">
-        <v>3.9</v>
+        <v>3.939</v>
       </c>
       <c r="D159" t="n">
-        <v>3.931</v>
+        <v>3.939</v>
       </c>
       <c r="E159" t="n">
-        <v>3.9</v>
+        <v>3.939</v>
       </c>
       <c r="F159" t="n">
-        <v>1875.0265</v>
+        <v>6484.9478</v>
       </c>
       <c r="G159" t="n">
-        <v>3.947199999999996</v>
+        <v>3.946949999999996</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6205,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.89</v>
+        <v>3.931</v>
       </c>
       <c r="C160" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="D160" t="n">
-        <v>3.89</v>
+        <v>3.931</v>
       </c>
       <c r="E160" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="F160" t="n">
-        <v>437.0943</v>
+        <v>1875.0265</v>
       </c>
       <c r="G160" t="n">
-        <v>3.94728333333333</v>
+        <v>3.947199999999996</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6240,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="C161" t="n">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="D161" t="n">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="E161" t="n">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="F161" t="n">
-        <v>257.4743</v>
+        <v>437.0943</v>
       </c>
       <c r="G161" t="n">
-        <v>3.947266666666663</v>
+        <v>3.94728333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6275,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="C162" t="n">
-        <v>3.874</v>
+        <v>3.88</v>
       </c>
       <c r="D162" t="n">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="E162" t="n">
-        <v>3.874</v>
+        <v>3.88</v>
       </c>
       <c r="F162" t="n">
-        <v>6277.6117</v>
+        <v>257.4743</v>
       </c>
       <c r="G162" t="n">
-        <v>3.94708333333333</v>
+        <v>3.947266666666663</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6310,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.87</v>
+        <v>3.875</v>
       </c>
       <c r="C163" t="n">
-        <v>3.87</v>
+        <v>3.874</v>
       </c>
       <c r="D163" t="n">
-        <v>3.87</v>
+        <v>3.875</v>
       </c>
       <c r="E163" t="n">
-        <v>3.87</v>
+        <v>3.874</v>
       </c>
       <c r="F163" t="n">
-        <v>41211.2074</v>
+        <v>6277.6117</v>
       </c>
       <c r="G163" t="n">
-        <v>3.94683333333333</v>
+        <v>3.94708333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6340,6 +6098,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F164" t="n">
+        <v>41211.2074</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.94683333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>451.6743</v>
       </c>
       <c r="G2" t="n">
+        <v>4.090666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.048</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6000</v>
       </c>
       <c r="G3" t="n">
+        <v>4.082266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.047549999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4872.7106</v>
       </c>
       <c r="G4" t="n">
+        <v>4.073933333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.047099999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>222224.993</v>
       </c>
       <c r="G5" t="n">
+        <v>4.065800000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.046983333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>16257</v>
       </c>
       <c r="G6" t="n">
+        <v>4.060666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.046866666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>100000</v>
       </c>
       <c r="G7" t="n">
+        <v>4.055466666666669</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.046716666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>61818.1134</v>
       </c>
       <c r="G8" t="n">
+        <v>4.052000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.048100000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>55102.2278</v>
       </c>
       <c r="G9" t="n">
+        <v>4.049266666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.049266666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>100000</v>
       </c>
       <c r="G10" t="n">
+        <v>4.046466666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.050983333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>100000</v>
       </c>
       <c r="G11" t="n">
+        <v>4.041200000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.053416666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>374444.796</v>
       </c>
       <c r="G12" t="n">
+        <v>4.035200000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.055633333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>4.031800000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.058516666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>250.1252</v>
       </c>
       <c r="G14" t="n">
+        <v>4.026333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.059916666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1247.0922</v>
       </c>
       <c r="G15" t="n">
+        <v>4.020666666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.060650000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>22710.7256</v>
       </c>
       <c r="G16" t="n">
+        <v>4.015666666666669</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.061316666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>289999.1838</v>
       </c>
       <c r="G17" t="n">
+        <v>4.011333333333336</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.0612</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>384089.4108</v>
       </c>
       <c r="G18" t="n">
+        <v>4.008533333333336</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.061366666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>275555.2954</v>
       </c>
       <c r="G19" t="n">
+        <v>4.002133333333336</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.061633333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>10611.6972</v>
       </c>
       <c r="G20" t="n">
+        <v>3.996333333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.061066666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>22710.7256</v>
       </c>
       <c r="G21" t="n">
+        <v>3.989733333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.060466666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>15021.696</v>
       </c>
       <c r="G22" t="n">
+        <v>3.984066666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.059266666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>127</v>
       </c>
       <c r="G23" t="n">
+        <v>3.979266666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.058733333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>525998.6935000001</v>
       </c>
       <c r="G24" t="n">
+        <v>3.974200000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.0583</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>76646.40519999999</v>
       </c>
       <c r="G25" t="n">
+        <v>3.969200000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.057633333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>126</v>
       </c>
       <c r="G26" t="n">
+        <v>3.966866666666669</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.056616666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>80964.62669999999</v>
       </c>
       <c r="G27" t="n">
+        <v>3.965133333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.054516666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>529100.5292</v>
       </c>
       <c r="G28" t="n">
+        <v>3.961000000000003</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.052449999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>125598.8711</v>
       </c>
       <c r="G29" t="n">
+        <v>3.959466666666669</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.049733333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>8880</v>
       </c>
       <c r="G30" t="n">
+        <v>3.955733333333336</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.046433333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>81664.44869999999</v>
       </c>
       <c r="G31" t="n">
+        <v>3.951400000000003</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.043133333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>13185.65</v>
       </c>
       <c r="G32" t="n">
+        <v>3.94706666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.040633333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>858740.5060000001</v>
       </c>
       <c r="G33" t="n">
+        <v>3.949600000000003</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.038566666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>57516.3039</v>
       </c>
       <c r="G34" t="n">
+        <v>3.955533333333336</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.036533333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1521.2331</v>
       </c>
       <c r="G35" t="n">
+        <v>3.960733333333336</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.034599999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>157715.3513</v>
       </c>
       <c r="G36" t="n">
+        <v>3.963600000000003</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.032366666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8880</v>
       </c>
       <c r="G37" t="n">
+        <v>3.964200000000003</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.029783333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>16793.0306</v>
       </c>
       <c r="G38" t="n">
+        <v>3.961800000000003</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.026866666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>212127.9309</v>
       </c>
       <c r="G39" t="n">
+        <v>3.958333333333336</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.023483333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>56332.9646</v>
       </c>
       <c r="G40" t="n">
+        <v>3.957666666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.020783333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>91830.0488</v>
       </c>
       <c r="G41" t="n">
+        <v>3.958200000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.018333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>96247.63920000001</v>
       </c>
       <c r="G42" t="n">
+        <v>3.960200000000002</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.016216666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>10214.0881</v>
       </c>
       <c r="G43" t="n">
+        <v>3.961466666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.013949999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>26460.8543</v>
       </c>
       <c r="G44" t="n">
+        <v>3.963333333333336</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.011883333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>238090.3989</v>
       </c>
       <c r="G45" t="n">
+        <v>3.967666666666669</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.009833333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10138.75</v>
       </c>
       <c r="G46" t="n">
+        <v>3.972000000000003</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.007783333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>93610.4276</v>
       </c>
       <c r="G47" t="n">
+        <v>3.976333333333336</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.006349999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>138776.9276</v>
       </c>
       <c r="G48" t="n">
+        <v>3.976333333333336</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.004183333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>300</v>
       </c>
       <c r="G49" t="n">
+        <v>3.975800000000003</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.001849999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>89931.67140000001</v>
       </c>
       <c r="G50" t="n">
+        <v>3.975866666666669</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.999683333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>267719.5461</v>
       </c>
       <c r="G51" t="n">
+        <v>3.979066666666669</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.998266666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>20152.6203</v>
       </c>
       <c r="G52" t="n">
+        <v>3.98306666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.996699999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>50125.3133</v>
       </c>
       <c r="G53" t="n">
+        <v>3.987400000000003</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.995116666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>166035.7434</v>
       </c>
       <c r="G54" t="n">
+        <v>3.98986666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.992916666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>120000</v>
       </c>
       <c r="G55" t="n">
+        <v>3.989533333333337</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.990716666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>150000</v>
       </c>
       <c r="G56" t="n">
+        <v>3.987800000000004</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.988516666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>79484.6023</v>
       </c>
       <c r="G57" t="n">
+        <v>3.983266666666671</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.985949999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>137265.7151</v>
       </c>
       <c r="G58" t="n">
+        <v>3.979333333333337</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.983399999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>9484.781999999999</v>
       </c>
       <c r="G59" t="n">
+        <v>3.974133333333337</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.980816666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>9230</v>
       </c>
       <c r="G60" t="n">
+        <v>3.969133333333337</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.9783</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>366396.9802</v>
       </c>
       <c r="G61" t="n">
+        <v>3.963133333333337</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.97555</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>598003.6822</v>
       </c>
       <c r="G62" t="n">
+        <v>3.95646666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.9728</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>257.6735</v>
       </c>
       <c r="G63" t="n">
+        <v>3.94826666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.970683333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>82901.099</v>
       </c>
       <c r="G64" t="n">
+        <v>3.940533333333336</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.9685</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>228433.315</v>
       </c>
       <c r="G65" t="n">
+        <v>3.93166666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.96615</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>300000</v>
       </c>
       <c r="G66" t="n">
+        <v>3.922733333333336</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.963783333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>64351.4063</v>
       </c>
       <c r="G67" t="n">
+        <v>3.915533333333336</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.961716666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>51034.7181</v>
       </c>
       <c r="G68" t="n">
+        <v>3.908333333333336</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.9592</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>78000</v>
       </c>
       <c r="G69" t="n">
+        <v>3.906733333333336</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.957283333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>4812.8102</v>
       </c>
       <c r="G70" t="n">
+        <v>3.902666666666669</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.954766666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>138776.9276</v>
       </c>
       <c r="G71" t="n">
+        <v>3.896600000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.952366666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>78108.43150000001</v>
       </c>
       <c r="G72" t="n">
+        <v>3.898400000000002</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.95175</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>125387.797</v>
       </c>
       <c r="G73" t="n">
+        <v>3.901466666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.950816666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>28800</v>
       </c>
       <c r="G74" t="n">
+        <v>3.904666666666669</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.9504</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>18137.3806</v>
       </c>
       <c r="G75" t="n">
+        <v>3.907600000000003</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.950033333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>111658.1647</v>
       </c>
       <c r="G76" t="n">
+        <v>3.911533333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.949516666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>127110.2314</v>
       </c>
       <c r="G77" t="n">
+        <v>3.91746666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.949333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>125032.0826</v>
       </c>
       <c r="G78" t="n">
+        <v>3.924933333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.949783333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>13526.7871</v>
       </c>
       <c r="G79" t="n">
+        <v>3.932600000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.951116666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>18633.3483</v>
       </c>
       <c r="G80" t="n">
+        <v>3.940733333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.95225</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>425.7332</v>
       </c>
       <c r="G81" t="n">
+        <v>3.949866666666669</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.953816666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>17870.8935</v>
       </c>
       <c r="G82" t="n">
+        <v>3.955666666666669</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.954616666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>127110.2314</v>
       </c>
       <c r="G83" t="n">
+        <v>3.961466666666669</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.95475</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>4498.2007</v>
       </c>
       <c r="G84" t="n">
+        <v>3.964133333333336</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.954766666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>126</v>
       </c>
       <c r="G85" t="n">
+        <v>3.970800000000002</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.955166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>51135.3222</v>
       </c>
       <c r="G86" t="n">
+        <v>3.979533333333336</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.955533333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>51034.7181</v>
       </c>
       <c r="G87" t="n">
+        <v>3.980266666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.955533333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>352198.8293</v>
       </c>
       <c r="G88" t="n">
+        <v>3.979000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.955316666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>24040.4842</v>
       </c>
       <c r="G89" t="n">
+        <v>3.977733333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.954966666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>49257.7163</v>
       </c>
       <c r="G90" t="n">
+        <v>3.973800000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.95455</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>624430.0852</v>
       </c>
       <c r="G91" t="n">
+        <v>3.967333333333336</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.9535</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>91966.52039999999</v>
       </c>
       <c r="G92" t="n">
+        <v>3.959533333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.95245</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,25 @@
         <v>13301.4738</v>
       </c>
       <c r="G93" t="n">
+        <v>3.951733333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.950316666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3953,29 @@
         <v>269945.975</v>
       </c>
       <c r="G94" t="n">
+        <v>3.943933333333336</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.948216666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3999,29 @@
         <v>7530</v>
       </c>
       <c r="G95" t="n">
+        <v>3.937000000000003</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.946316666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4045,25 @@
         <v>163788.4749</v>
       </c>
       <c r="G96" t="n">
+        <v>3.929133333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.9452</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4087,29 @@
         <v>93315.07060000001</v>
       </c>
       <c r="G97" t="n">
+        <v>3.923533333333336</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.94445</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4133,27 @@
         <v>48491.5898</v>
       </c>
       <c r="G98" t="n">
+        <v>3.917933333333336</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.943783333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4177,21 @@
         <v>553177.9301</v>
       </c>
       <c r="G99" t="n">
+        <v>3.912333333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.943266666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4215,21 @@
         <v>95369.56329999999</v>
       </c>
       <c r="G100" t="n">
+        <v>3.905200000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.94205</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4253,21 @@
         <v>613.7012</v>
       </c>
       <c r="G101" t="n">
+        <v>3.898000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.940483333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4291,21 @@
         <v>515.9016</v>
       </c>
       <c r="G102" t="n">
+        <v>3.892133333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.938516666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4329,21 @@
         <v>3058853.5225</v>
       </c>
       <c r="G103" t="n">
+        <v>3.887266666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.936766666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4367,21 @@
         <v>1543.8726</v>
       </c>
       <c r="G104" t="n">
+        <v>3.882933333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.934866666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4405,21 @@
         <v>500638.994</v>
       </c>
       <c r="G105" t="n">
+        <v>3.879733333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.932566666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4443,21 @@
         <v>1402949.8263</v>
       </c>
       <c r="G106" t="n">
+        <v>3.878466666666669</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.930116666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4481,21 @@
         <v>76000</v>
       </c>
       <c r="G107" t="n">
+        <v>3.879333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.928199999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4519,21 @@
         <v>800.3733999999999</v>
       </c>
       <c r="G108" t="n">
+        <v>3.880200000000002</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.926283333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4557,21 @@
         <v>200</v>
       </c>
       <c r="G109" t="n">
+        <v>3.882733333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.924949999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4595,21 @@
         <v>44943.6485</v>
       </c>
       <c r="G110" t="n">
+        <v>3.884400000000002</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.923449999999998</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4633,21 @@
         <v>785.5297</v>
       </c>
       <c r="G111" t="n">
+        <v>3.886066666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.921949999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4671,21 @@
         <v>38471.6561</v>
       </c>
       <c r="G112" t="n">
+        <v>3.887733333333336</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.920616666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4709,21 @@
         <v>200</v>
       </c>
       <c r="G113" t="n">
+        <v>3.891133333333336</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.919716666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4747,21 @@
         <v>515.9016</v>
       </c>
       <c r="G114" t="n">
+        <v>3.892800000000003</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.918999999999998</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4785,21 @@
         <v>1497.0754</v>
       </c>
       <c r="G115" t="n">
+        <v>3.896200000000003</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.918716666666664</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4823,21 @@
         <v>128</v>
       </c>
       <c r="G116" t="n">
+        <v>3.89886666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.918249999999998</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4861,21 @@
         <v>128</v>
       </c>
       <c r="G117" t="n">
+        <v>3.90146666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.918066666666664</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4899,21 @@
         <v>3899.5</v>
       </c>
       <c r="G118" t="n">
+        <v>3.903800000000003</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.91788333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4937,21 @@
         <v>2039.6775</v>
       </c>
       <c r="G119" t="n">
+        <v>3.906133333333337</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.917866666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4975,21 @@
         <v>2502.7027</v>
       </c>
       <c r="G120" t="n">
+        <v>3.90866666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.917449999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5013,21 @@
         <v>478116.0096</v>
       </c>
       <c r="G121" t="n">
+        <v>3.90846666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.916449999999997</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5051,21 @@
         <v>3832.396525293</v>
       </c>
       <c r="G122" t="n">
+        <v>3.910400000000004</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.91668333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5089,21 @@
         <v>5650</v>
       </c>
       <c r="G123" t="n">
+        <v>3.910133333333337</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.916749999999996</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5127,21 @@
         <v>23706.3555</v>
       </c>
       <c r="G124" t="n">
+        <v>3.908200000000004</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.916866666666663</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5165,21 @@
         <v>128</v>
       </c>
       <c r="G125" t="n">
+        <v>3.908466666666671</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.917649999999997</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5203,21 @@
         <v>98670</v>
       </c>
       <c r="G126" t="n">
+        <v>3.908800000000004</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.918466666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5241,21 @@
         <v>257078.7301</v>
       </c>
       <c r="G127" t="n">
+        <v>3.910466666666671</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.919349999999996</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5279,21 @@
         <v>322561.025</v>
       </c>
       <c r="G128" t="n">
+        <v>3.910466666666671</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.920249999999996</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5317,21 @@
         <v>22905.7226</v>
       </c>
       <c r="G129" t="n">
+        <v>3.913800000000004</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.920766666666663</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5355,21 @@
         <v>126</v>
       </c>
       <c r="G130" t="n">
+        <v>3.916600000000004</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.922199999999997</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5393,21 @@
         <v>16836.339</v>
       </c>
       <c r="G131" t="n">
+        <v>3.920066666666671</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.924116666666663</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5431,21 @@
         <v>532898.0421</v>
       </c>
       <c r="G132" t="n">
+        <v>3.925400000000004</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.924816666666664</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5469,21 @@
         <v>7416.6259</v>
       </c>
       <c r="G133" t="n">
+        <v>3.930733333333337</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.925199999999997</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5507,21 @@
         <v>572588.374</v>
       </c>
       <c r="G134" t="n">
+        <v>3.940066666666671</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.926716666666664</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5545,21 @@
         <v>123</v>
       </c>
       <c r="G135" t="n">
+        <v>3.951466666666671</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.928416666666664</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5583,21 @@
         <v>390889.6235</v>
       </c>
       <c r="G136" t="n">
+        <v>3.961266666666671</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.928883333333331</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5621,21 @@
         <v>249.9375</v>
       </c>
       <c r="G137" t="n">
+        <v>3.966800000000004</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.929016666666664</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5659,21 @@
         <v>19750.0625</v>
       </c>
       <c r="G138" t="n">
+        <v>3.974533333333337</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.929149999999997</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5697,21 @@
         <v>13301.4738</v>
       </c>
       <c r="G139" t="n">
+        <v>3.98246666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.92933333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5735,21 @@
         <v>597.273</v>
       </c>
       <c r="G140" t="n">
+        <v>3.988200000000004</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.929516666666664</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5773,21 @@
         <v>20000</v>
       </c>
       <c r="G141" t="n">
+        <v>3.99366666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.929416666666663</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5811,21 @@
         <v>263345.8331</v>
       </c>
       <c r="G142" t="n">
+        <v>3.997800000000004</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.929883333333331</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5849,21 @@
         <v>300</v>
       </c>
       <c r="G143" t="n">
+        <v>4.00226666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.930449999999997</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5887,21 @@
         <v>46932.5644</v>
       </c>
       <c r="G144" t="n">
+        <v>4.00406666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.930749999999997</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5925,21 @@
         <v>11709.7581</v>
       </c>
       <c r="G145" t="n">
+        <v>4.004666666666671</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.930666666666664</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5963,21 @@
         <v>159403.3455</v>
       </c>
       <c r="G146" t="n">
+        <v>4.006400000000005</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.930833333333331</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6001,21 @@
         <v>26589.3485</v>
       </c>
       <c r="G147" t="n">
+        <v>4.006600000000005</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.931399999999997</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6039,21 @@
         <v>20561.4454</v>
       </c>
       <c r="G148" t="n">
+        <v>4.006933333333338</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.93218333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6077,21 @@
         <v>13288.0345</v>
       </c>
       <c r="G149" t="n">
+        <v>4.003266666666671</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.933099999999997</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6115,21 @@
         <v>22956.2318</v>
       </c>
       <c r="G150" t="n">
+        <v>3.996533333333338</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.934099999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6153,21 @@
         <v>6645.6772</v>
       </c>
       <c r="G151" t="n">
+        <v>3.997000000000004</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.936299999999997</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6191,21 @@
         <v>66816.5053</v>
       </c>
       <c r="G152" t="n">
+        <v>3.994666666666671</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.937799999999997</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6229,21 @@
         <v>6528.8806</v>
       </c>
       <c r="G153" t="n">
+        <v>3.994400000000005</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.939816666666663</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6267,21 @@
         <v>2501</v>
       </c>
       <c r="G154" t="n">
+        <v>3.993933333333338</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.941833333333329</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6305,21 @@
         <v>20561.4454</v>
       </c>
       <c r="G155" t="n">
+        <v>3.990666666666671</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.942933333333329</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6343,21 @@
         <v>24252.9649</v>
       </c>
       <c r="G156" t="n">
+        <v>3.987600000000005</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.94403333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6381,21 @@
         <v>65521.7176</v>
       </c>
       <c r="G157" t="n">
+        <v>3.984533333333338</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.94513333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6419,21 @@
         <v>126840.7654</v>
       </c>
       <c r="G158" t="n">
+        <v>3.980333333333338</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.946049999999997</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6457,21 @@
         <v>6484.9478</v>
       </c>
       <c r="G159" t="n">
+        <v>3.977133333333338</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.946949999999996</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6495,21 @@
         <v>1875.0265</v>
       </c>
       <c r="G160" t="n">
+        <v>3.971333333333338</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.947199999999996</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6533,21 @@
         <v>437.0943</v>
       </c>
       <c r="G161" t="n">
+        <v>3.963800000000004</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.94728333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6571,21 @@
         <v>257.4743</v>
       </c>
       <c r="G162" t="n">
+        <v>3.955600000000004</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.947266666666663</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6609,21 @@
         <v>6277.6117</v>
       </c>
       <c r="G163" t="n">
+        <v>3.946866666666671</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.94708333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,22 +6647,437 @@
         <v>41211.2074</v>
       </c>
       <c r="G164" t="n">
+        <v>3.937866666666671</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.94683333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>3.874</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
         <v>3.874</v>
       </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5053.1807</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.931133333333337</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.946949999999997</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.922200000000004</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.94723333333333</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>187416.558548859</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3.924000000000004</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.948966666666664</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40277.6285</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.918000000000004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.949266666666664</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8639.978499999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3.912000000000003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.949149999999997</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22330</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.910600000000003</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.949483333333331</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F171" t="n">
+        <v>33057.6285</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.90986666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.94998333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="F172" t="n">
+        <v>43770</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.910400000000003</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3.950799999999997</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="F173" t="n">
+        <v>59354.8386</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3.912333333333337</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.951349999999997</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F174" t="n">
+        <v>62947.6736</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3.914400000000003</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3.952349999999997</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.075</v>
+        <v>4.124</v>
       </c>
       <c r="C2" t="n">
-        <v>4.065</v>
+        <v>4.124</v>
       </c>
       <c r="D2" t="n">
-        <v>4.075</v>
+        <v>4.124</v>
       </c>
       <c r="E2" t="n">
-        <v>4.065</v>
+        <v>4.124</v>
       </c>
       <c r="F2" t="n">
-        <v>451.6743</v>
+        <v>242.2406</v>
       </c>
       <c r="G2" t="n">
-        <v>4.090666666666667</v>
+        <v>5366488.00277584</v>
       </c>
       <c r="H2" t="n">
-        <v>4.048</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.065</v>
+        <v>4.119</v>
       </c>
       <c r="C3" t="n">
-        <v>4.004</v>
+        <v>4.12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.065</v>
+        <v>4.12</v>
       </c>
       <c r="E3" t="n">
-        <v>4.004</v>
+        <v>4.119</v>
       </c>
       <c r="F3" t="n">
-        <v>6000</v>
+        <v>232.5984</v>
       </c>
       <c r="G3" t="n">
-        <v>4.082266666666667</v>
+        <v>5366255.40437584</v>
       </c>
       <c r="H3" t="n">
-        <v>4.047549999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.005</v>
+        <v>4.115</v>
       </c>
       <c r="C4" t="n">
-        <v>4.005</v>
+        <v>4.115</v>
       </c>
       <c r="D4" t="n">
-        <v>4.005</v>
+        <v>4.115</v>
       </c>
       <c r="E4" t="n">
-        <v>4.005</v>
+        <v>4.115</v>
       </c>
       <c r="F4" t="n">
-        <v>4872.7106</v>
+        <v>232.4984</v>
       </c>
       <c r="G4" t="n">
-        <v>4.073933333333335</v>
+        <v>5366022.90597584</v>
       </c>
       <c r="H4" t="n">
-        <v>4.047099999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.008</v>
+        <v>4.086</v>
       </c>
       <c r="C5" t="n">
-        <v>4.008</v>
+        <v>4.086</v>
       </c>
       <c r="D5" t="n">
-        <v>4.008</v>
+        <v>4.086</v>
       </c>
       <c r="E5" t="n">
-        <v>4.008</v>
+        <v>4.086</v>
       </c>
       <c r="F5" t="n">
-        <v>222224.993</v>
+        <v>129.7734</v>
       </c>
       <c r="G5" t="n">
-        <v>4.065800000000001</v>
+        <v>5365893.13257584</v>
       </c>
       <c r="H5" t="n">
-        <v>4.046983333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.008</v>
+        <v>4.085</v>
       </c>
       <c r="C6" t="n">
-        <v>4.008</v>
+        <v>4.085</v>
       </c>
       <c r="D6" t="n">
-        <v>4.008</v>
+        <v>4.085</v>
       </c>
       <c r="E6" t="n">
-        <v>4.008</v>
+        <v>4.085</v>
       </c>
       <c r="F6" t="n">
-        <v>16257</v>
+        <v>34424.3995</v>
       </c>
       <c r="G6" t="n">
-        <v>4.060666666666668</v>
+        <v>5331468.733075839</v>
       </c>
       <c r="H6" t="n">
-        <v>4.046866666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.007</v>
+        <v>4.086</v>
       </c>
       <c r="C7" t="n">
-        <v>4.006</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.007</v>
+        <v>4.1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.006</v>
+        <v>4.086</v>
       </c>
       <c r="F7" t="n">
-        <v>100000</v>
+        <v>121587.966109756</v>
       </c>
       <c r="G7" t="n">
-        <v>4.055466666666669</v>
+        <v>5453056.699185596</v>
       </c>
       <c r="H7" t="n">
-        <v>4.046716666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.008</v>
+        <v>4.1</v>
       </c>
       <c r="C8" t="n">
-        <v>4.033</v>
+        <v>4.119</v>
       </c>
       <c r="D8" t="n">
-        <v>4.033</v>
+        <v>4.12</v>
       </c>
       <c r="E8" t="n">
-        <v>4.008</v>
+        <v>4.1</v>
       </c>
       <c r="F8" t="n">
-        <v>61818.1134</v>
+        <v>185568.713790244</v>
       </c>
       <c r="G8" t="n">
-        <v>4.052000000000001</v>
+        <v>5638625.41297584</v>
       </c>
       <c r="H8" t="n">
-        <v>4.048100000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.044</v>
+        <v>4.12</v>
       </c>
       <c r="C9" t="n">
-        <v>4.044</v>
+        <v>4.12</v>
       </c>
       <c r="D9" t="n">
-        <v>4.044</v>
+        <v>4.12</v>
       </c>
       <c r="E9" t="n">
-        <v>4.044</v>
+        <v>4.12</v>
       </c>
       <c r="F9" t="n">
-        <v>55102.2278</v>
+        <v>14206.4253</v>
       </c>
       <c r="G9" t="n">
-        <v>4.049266666666669</v>
+        <v>5652831.838275841</v>
       </c>
       <c r="H9" t="n">
-        <v>4.049266666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.042</v>
+        <v>4.124</v>
       </c>
       <c r="C10" t="n">
-        <v>4.043</v>
+        <v>4.126</v>
       </c>
       <c r="D10" t="n">
-        <v>4.043</v>
+        <v>4.126</v>
       </c>
       <c r="E10" t="n">
-        <v>4.042</v>
+        <v>4.124</v>
       </c>
       <c r="F10" t="n">
-        <v>100000</v>
+        <v>54740.0472</v>
       </c>
       <c r="G10" t="n">
-        <v>4.046466666666668</v>
+        <v>5707571.88547584</v>
       </c>
       <c r="H10" t="n">
-        <v>4.050983333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.016</v>
+        <v>4.126</v>
       </c>
       <c r="C11" t="n">
-        <v>4.006</v>
+        <v>4.126</v>
       </c>
       <c r="D11" t="n">
-        <v>4.016</v>
+        <v>4.126</v>
       </c>
       <c r="E11" t="n">
-        <v>4.006</v>
+        <v>4.126</v>
       </c>
       <c r="F11" t="n">
-        <v>100000</v>
+        <v>4651.0988</v>
       </c>
       <c r="G11" t="n">
-        <v>4.041200000000002</v>
+        <v>5707571.88547584</v>
       </c>
       <c r="H11" t="n">
-        <v>4.053416666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.014</v>
+        <v>4.126</v>
       </c>
       <c r="C12" t="n">
-        <v>3.995</v>
+        <v>4.126</v>
       </c>
       <c r="D12" t="n">
-        <v>4.014</v>
+        <v>4.126</v>
       </c>
       <c r="E12" t="n">
-        <v>3.995</v>
+        <v>4.126</v>
       </c>
       <c r="F12" t="n">
-        <v>374444.796</v>
+        <v>11732.2616</v>
       </c>
       <c r="G12" t="n">
-        <v>4.035200000000001</v>
+        <v>5707571.88547584</v>
       </c>
       <c r="H12" t="n">
-        <v>4.055633333333335</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.033</v>
+        <v>4.123</v>
       </c>
       <c r="C13" t="n">
-        <v>4.033</v>
+        <v>4.123</v>
       </c>
       <c r="D13" t="n">
-        <v>4.033</v>
+        <v>4.123</v>
       </c>
       <c r="E13" t="n">
-        <v>4.033</v>
+        <v>4.123</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.031800000000001</v>
+        <v>5677571.88547584</v>
       </c>
       <c r="H13" t="n">
-        <v>4.058516666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.994</v>
+        <v>4.123</v>
       </c>
       <c r="C14" t="n">
-        <v>3.994</v>
+        <v>4.123</v>
       </c>
       <c r="D14" t="n">
-        <v>3.994</v>
+        <v>4.123</v>
       </c>
       <c r="E14" t="n">
-        <v>3.994</v>
+        <v>4.123</v>
       </c>
       <c r="F14" t="n">
-        <v>250.1252</v>
+        <v>15591.6809</v>
       </c>
       <c r="G14" t="n">
-        <v>4.026333333333334</v>
+        <v>5677571.88547584</v>
       </c>
       <c r="H14" t="n">
-        <v>4.059916666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.993</v>
+        <v>4.123</v>
       </c>
       <c r="C15" t="n">
-        <v>3.991</v>
+        <v>4.123</v>
       </c>
       <c r="D15" t="n">
-        <v>3.993</v>
+        <v>4.123</v>
       </c>
       <c r="E15" t="n">
-        <v>3.991</v>
+        <v>4.123</v>
       </c>
       <c r="F15" t="n">
-        <v>1247.0922</v>
+        <v>44619.5966</v>
       </c>
       <c r="G15" t="n">
-        <v>4.020666666666668</v>
+        <v>5677571.88547584</v>
       </c>
       <c r="H15" t="n">
-        <v>4.060650000000001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.087</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>4.086</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>4.087</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>4.086</v>
       </c>
       <c r="F16" t="n">
-        <v>22710.7256</v>
+        <v>11847.464</v>
       </c>
       <c r="G16" t="n">
-        <v>4.015666666666669</v>
+        <v>5665724.421475841</v>
       </c>
       <c r="H16" t="n">
-        <v>4.061316666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.998</v>
+        <v>4.125</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>4.13</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>4.13</v>
       </c>
       <c r="E17" t="n">
-        <v>3.998</v>
+        <v>4.125</v>
       </c>
       <c r="F17" t="n">
-        <v>289999.1838</v>
+        <v>205887.8012</v>
       </c>
       <c r="G17" t="n">
-        <v>4.011333333333336</v>
+        <v>5871612.22267584</v>
       </c>
       <c r="H17" t="n">
-        <v>4.0612</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.962</v>
+        <v>4.13</v>
       </c>
       <c r="C18" t="n">
-        <v>3.962</v>
+        <v>4.13</v>
       </c>
       <c r="D18" t="n">
-        <v>3.962</v>
+        <v>4.13</v>
       </c>
       <c r="E18" t="n">
-        <v>3.962</v>
+        <v>4.13</v>
       </c>
       <c r="F18" t="n">
-        <v>384089.4108</v>
+        <v>90751.2861</v>
       </c>
       <c r="G18" t="n">
-        <v>4.008533333333336</v>
+        <v>5871612.22267584</v>
       </c>
       <c r="H18" t="n">
-        <v>4.061366666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.961</v>
+        <v>4.13</v>
       </c>
       <c r="C19" t="n">
-        <v>3.909</v>
+        <v>4.13</v>
       </c>
       <c r="D19" t="n">
-        <v>3.961</v>
+        <v>4.13</v>
       </c>
       <c r="E19" t="n">
-        <v>3.909</v>
+        <v>4.13</v>
       </c>
       <c r="F19" t="n">
-        <v>275555.2954</v>
+        <v>190450.5783</v>
       </c>
       <c r="G19" t="n">
-        <v>4.002133333333336</v>
+        <v>5871612.22267584</v>
       </c>
       <c r="H19" t="n">
-        <v>4.061633333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="C20" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="D20" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="E20" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="F20" t="n">
-        <v>10611.6972</v>
+        <v>244.5533</v>
       </c>
       <c r="G20" t="n">
-        <v>3.996333333333335</v>
+        <v>5871367.669375841</v>
       </c>
       <c r="H20" t="n">
-        <v>4.061066666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.909</v>
+        <v>4.084</v>
       </c>
       <c r="C21" t="n">
-        <v>3.909</v>
+        <v>4.084</v>
       </c>
       <c r="D21" t="n">
-        <v>3.909</v>
+        <v>4.084</v>
       </c>
       <c r="E21" t="n">
-        <v>3.909</v>
+        <v>4.084</v>
       </c>
       <c r="F21" t="n">
-        <v>22710.7256</v>
+        <v>3501.6571</v>
       </c>
       <c r="G21" t="n">
-        <v>3.989733333333335</v>
+        <v>5867866.01227584</v>
       </c>
       <c r="H21" t="n">
-        <v>4.060466666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="C22" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="D22" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="E22" t="n">
-        <v>3.921</v>
+        <v>4.085</v>
       </c>
       <c r="F22" t="n">
-        <v>15021.696</v>
+        <v>112080.5038</v>
       </c>
       <c r="G22" t="n">
-        <v>3.984066666666668</v>
+        <v>5979946.51607584</v>
       </c>
       <c r="H22" t="n">
-        <v>4.059266666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="C23" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="D23" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="E23" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>66441.19010000001</v>
       </c>
       <c r="G23" t="n">
-        <v>3.979266666666668</v>
+        <v>5979946.51607584</v>
       </c>
       <c r="H23" t="n">
-        <v>4.058733333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="C24" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="D24" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="E24" t="n">
-        <v>3.961</v>
+        <v>4.085</v>
       </c>
       <c r="F24" t="n">
-        <v>525998.6935000001</v>
+        <v>66441.19010000001</v>
       </c>
       <c r="G24" t="n">
-        <v>3.974200000000002</v>
+        <v>5979946.51607584</v>
       </c>
       <c r="H24" t="n">
-        <v>4.0583</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="C25" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="D25" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="E25" t="n">
-        <v>3.968</v>
+        <v>4.085</v>
       </c>
       <c r="F25" t="n">
-        <v>76646.40519999999</v>
+        <v>90211.2775</v>
       </c>
       <c r="G25" t="n">
-        <v>3.969200000000002</v>
+        <v>5979946.51607584</v>
       </c>
       <c r="H25" t="n">
-        <v>4.057633333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.971</v>
+        <v>4.085</v>
       </c>
       <c r="C26" t="n">
-        <v>3.971</v>
+        <v>4.085</v>
       </c>
       <c r="D26" t="n">
-        <v>3.971</v>
+        <v>4.085</v>
       </c>
       <c r="E26" t="n">
-        <v>3.971</v>
+        <v>4.085</v>
       </c>
       <c r="F26" t="n">
-        <v>126</v>
+        <v>32102.6815</v>
       </c>
       <c r="G26" t="n">
-        <v>3.966866666666669</v>
+        <v>5979946.51607584</v>
       </c>
       <c r="H26" t="n">
-        <v>4.056616666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.969</v>
+        <v>4.084</v>
       </c>
       <c r="C27" t="n">
-        <v>3.969</v>
+        <v>4.084</v>
       </c>
       <c r="D27" t="n">
-        <v>3.969</v>
+        <v>4.084</v>
       </c>
       <c r="E27" t="n">
-        <v>3.969</v>
+        <v>4.084</v>
       </c>
       <c r="F27" t="n">
-        <v>80964.62669999999</v>
+        <v>9901.305700000001</v>
       </c>
       <c r="G27" t="n">
-        <v>3.965133333333335</v>
+        <v>5970045.21037584</v>
       </c>
       <c r="H27" t="n">
-        <v>4.054516666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.969</v>
+        <v>4.076</v>
       </c>
       <c r="C28" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="D28" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="E28" t="n">
-        <v>3.969</v>
+        <v>4.076</v>
       </c>
       <c r="F28" t="n">
-        <v>529100.5292</v>
+        <v>28991.1017</v>
       </c>
       <c r="G28" t="n">
-        <v>3.961000000000003</v>
+        <v>5941054.108675839</v>
       </c>
       <c r="H28" t="n">
-        <v>4.052449999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="C29" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="D29" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="E29" t="n">
-        <v>3.971</v>
+        <v>4.076</v>
       </c>
       <c r="F29" t="n">
-        <v>125598.8711</v>
+        <v>114671</v>
       </c>
       <c r="G29" t="n">
-        <v>3.959466666666669</v>
+        <v>5941054.108675839</v>
       </c>
       <c r="H29" t="n">
-        <v>4.049733333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="C30" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="D30" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="E30" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="F30" t="n">
-        <v>8880</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="n">
-        <v>3.955733333333336</v>
+        <v>5891054.108675839</v>
       </c>
       <c r="H30" t="n">
-        <v>4.046433333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="C31" t="n">
-        <v>3.935</v>
+        <v>4.065</v>
       </c>
       <c r="D31" t="n">
-        <v>3.935</v>
+        <v>4.075</v>
       </c>
       <c r="E31" t="n">
-        <v>3.935</v>
+        <v>4.065</v>
       </c>
       <c r="F31" t="n">
-        <v>81664.44869999999</v>
+        <v>451.6743</v>
       </c>
       <c r="G31" t="n">
-        <v>3.951400000000003</v>
+        <v>5890602.434375839</v>
       </c>
       <c r="H31" t="n">
-        <v>4.043133333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.935</v>
+        <v>4.065</v>
       </c>
       <c r="C32" t="n">
-        <v>3.935</v>
+        <v>4.004</v>
       </c>
       <c r="D32" t="n">
-        <v>3.935</v>
+        <v>4.065</v>
       </c>
       <c r="E32" t="n">
-        <v>3.935</v>
+        <v>4.004</v>
       </c>
       <c r="F32" t="n">
-        <v>13185.65</v>
+        <v>6000</v>
       </c>
       <c r="G32" t="n">
-        <v>3.94706666666667</v>
+        <v>5884602.434375839</v>
       </c>
       <c r="H32" t="n">
-        <v>4.040633333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.961</v>
+        <v>4.005</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>4.005</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>4.005</v>
       </c>
       <c r="E33" t="n">
-        <v>3.961</v>
+        <v>4.005</v>
       </c>
       <c r="F33" t="n">
-        <v>858740.5060000001</v>
+        <v>4872.7106</v>
       </c>
       <c r="G33" t="n">
-        <v>3.949600000000003</v>
+        <v>5889475.144975839</v>
       </c>
       <c r="H33" t="n">
-        <v>4.038566666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="C34" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="D34" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="E34" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="F34" t="n">
-        <v>57516.3039</v>
+        <v>222224.993</v>
       </c>
       <c r="G34" t="n">
-        <v>3.955533333333336</v>
+        <v>6111700.137975839</v>
       </c>
       <c r="H34" t="n">
-        <v>4.036533333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.999</v>
+        <v>4.008</v>
       </c>
       <c r="C35" t="n">
-        <v>3.999</v>
+        <v>4.008</v>
       </c>
       <c r="D35" t="n">
-        <v>3.999</v>
+        <v>4.008</v>
       </c>
       <c r="E35" t="n">
-        <v>3.999</v>
+        <v>4.008</v>
       </c>
       <c r="F35" t="n">
-        <v>1521.2331</v>
+        <v>16257</v>
       </c>
       <c r="G35" t="n">
-        <v>3.960733333333336</v>
+        <v>6111700.137975839</v>
       </c>
       <c r="H35" t="n">
-        <v>4.034599999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.998</v>
+        <v>4.007</v>
       </c>
       <c r="C36" t="n">
-        <v>3.952</v>
+        <v>4.006</v>
       </c>
       <c r="D36" t="n">
-        <v>3.998</v>
+        <v>4.007</v>
       </c>
       <c r="E36" t="n">
-        <v>3.952</v>
+        <v>4.006</v>
       </c>
       <c r="F36" t="n">
-        <v>157715.3513</v>
+        <v>100000</v>
       </c>
       <c r="G36" t="n">
-        <v>3.963600000000003</v>
+        <v>6011700.137975839</v>
       </c>
       <c r="H36" t="n">
-        <v>4.032366666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.93</v>
+        <v>4.008</v>
       </c>
       <c r="C37" t="n">
-        <v>3.93</v>
+        <v>4.033</v>
       </c>
       <c r="D37" t="n">
-        <v>3.93</v>
+        <v>4.033</v>
       </c>
       <c r="E37" t="n">
-        <v>3.93</v>
+        <v>4.008</v>
       </c>
       <c r="F37" t="n">
-        <v>8880</v>
+        <v>61818.1134</v>
       </c>
       <c r="G37" t="n">
-        <v>3.964200000000003</v>
+        <v>6073518.251375839</v>
       </c>
       <c r="H37" t="n">
-        <v>4.029783333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.925</v>
+        <v>4.044</v>
       </c>
       <c r="C38" t="n">
-        <v>3.925</v>
+        <v>4.044</v>
       </c>
       <c r="D38" t="n">
-        <v>3.925</v>
+        <v>4.044</v>
       </c>
       <c r="E38" t="n">
-        <v>3.925</v>
+        <v>4.044</v>
       </c>
       <c r="F38" t="n">
-        <v>16793.0306</v>
+        <v>55102.2278</v>
       </c>
       <c r="G38" t="n">
-        <v>3.961800000000003</v>
+        <v>6128620.47917584</v>
       </c>
       <c r="H38" t="n">
-        <v>4.026866666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.925</v>
+        <v>4.042</v>
       </c>
       <c r="C39" t="n">
-        <v>3.916</v>
+        <v>4.043</v>
       </c>
       <c r="D39" t="n">
-        <v>3.925</v>
+        <v>4.043</v>
       </c>
       <c r="E39" t="n">
-        <v>3.916</v>
+        <v>4.042</v>
       </c>
       <c r="F39" t="n">
-        <v>212127.9309</v>
+        <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>3.958333333333336</v>
+        <v>6028620.47917584</v>
       </c>
       <c r="H39" t="n">
-        <v>4.023483333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.969</v>
+        <v>4.016</v>
       </c>
       <c r="C40" t="n">
-        <v>3.958</v>
+        <v>4.006</v>
       </c>
       <c r="D40" t="n">
-        <v>3.969</v>
+        <v>4.016</v>
       </c>
       <c r="E40" t="n">
-        <v>3.958</v>
+        <v>4.006</v>
       </c>
       <c r="F40" t="n">
-        <v>56332.9646</v>
+        <v>100000</v>
       </c>
       <c r="G40" t="n">
-        <v>3.957666666666669</v>
+        <v>5928620.47917584</v>
       </c>
       <c r="H40" t="n">
-        <v>4.020783333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.969</v>
+        <v>4.014</v>
       </c>
       <c r="C41" t="n">
-        <v>3.979</v>
+        <v>3.995</v>
       </c>
       <c r="D41" t="n">
-        <v>3.979</v>
+        <v>4.014</v>
       </c>
       <c r="E41" t="n">
-        <v>3.969</v>
+        <v>3.995</v>
       </c>
       <c r="F41" t="n">
-        <v>91830.0488</v>
+        <v>374444.796</v>
       </c>
       <c r="G41" t="n">
-        <v>3.958200000000002</v>
+        <v>5554175.683175839</v>
       </c>
       <c r="H41" t="n">
-        <v>4.018333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.99</v>
+        <v>4.033</v>
       </c>
       <c r="C42" t="n">
-        <v>3.999</v>
+        <v>4.033</v>
       </c>
       <c r="D42" t="n">
-        <v>3.999</v>
+        <v>4.033</v>
       </c>
       <c r="E42" t="n">
-        <v>3.99</v>
+        <v>4.033</v>
       </c>
       <c r="F42" t="n">
-        <v>96247.63920000001</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>3.960200000000002</v>
+        <v>5555175.683175839</v>
       </c>
       <c r="H42" t="n">
-        <v>4.016216666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.999</v>
+        <v>3.994</v>
       </c>
       <c r="C43" t="n">
-        <v>3.99</v>
+        <v>3.994</v>
       </c>
       <c r="D43" t="n">
-        <v>3.999</v>
+        <v>3.994</v>
       </c>
       <c r="E43" t="n">
-        <v>3.99</v>
+        <v>3.994</v>
       </c>
       <c r="F43" t="n">
-        <v>10214.0881</v>
+        <v>250.1252</v>
       </c>
       <c r="G43" t="n">
-        <v>3.961466666666669</v>
+        <v>5554925.55797584</v>
       </c>
       <c r="H43" t="n">
-        <v>4.013949999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.999</v>
+        <v>3.993</v>
       </c>
       <c r="C44" t="n">
-        <v>3.999</v>
+        <v>3.991</v>
       </c>
       <c r="D44" t="n">
-        <v>3.999</v>
+        <v>3.993</v>
       </c>
       <c r="E44" t="n">
-        <v>3.999</v>
+        <v>3.991</v>
       </c>
       <c r="F44" t="n">
-        <v>26460.8543</v>
+        <v>1247.0922</v>
       </c>
       <c r="G44" t="n">
-        <v>3.963333333333336</v>
+        <v>5553678.46577584</v>
       </c>
       <c r="H44" t="n">
-        <v>4.011883333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,24 +1950,21 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>238090.3989</v>
+        <v>22710.7256</v>
       </c>
       <c r="G45" t="n">
-        <v>3.967666666666669</v>
+        <v>5576389.19137584</v>
       </c>
       <c r="H45" t="n">
-        <v>4.009833333333332</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3.998</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
@@ -2119,27 +1982,24 @@
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3.998</v>
       </c>
       <c r="F46" t="n">
-        <v>10138.75</v>
+        <v>289999.1838</v>
       </c>
       <c r="G46" t="n">
-        <v>3.972000000000003</v>
+        <v>5576389.19137584</v>
       </c>
       <c r="H46" t="n">
-        <v>4.007783333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3.962</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3.962</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>3.962</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3.962</v>
       </c>
       <c r="F47" t="n">
-        <v>93610.4276</v>
+        <v>384089.4108</v>
       </c>
       <c r="G47" t="n">
-        <v>3.976333333333336</v>
+        <v>5192299.78057584</v>
       </c>
       <c r="H47" t="n">
-        <v>4.006349999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>3.961</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>3.961</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="F48" t="n">
-        <v>138776.9276</v>
+        <v>275555.2954</v>
       </c>
       <c r="G48" t="n">
-        <v>3.976333333333336</v>
+        <v>4916744.48517584</v>
       </c>
       <c r="H48" t="n">
-        <v>4.004183333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.99</v>
+        <v>3.921</v>
       </c>
       <c r="C49" t="n">
-        <v>3.99</v>
+        <v>3.921</v>
       </c>
       <c r="D49" t="n">
-        <v>3.99</v>
+        <v>3.921</v>
       </c>
       <c r="E49" t="n">
-        <v>3.99</v>
+        <v>3.921</v>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>10611.6972</v>
       </c>
       <c r="G49" t="n">
-        <v>3.975800000000003</v>
+        <v>4927356.18237584</v>
       </c>
       <c r="H49" t="n">
-        <v>4.001849999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="F50" t="n">
-        <v>89931.67140000001</v>
+        <v>22710.7256</v>
       </c>
       <c r="G50" t="n">
-        <v>3.975866666666669</v>
+        <v>4904645.45677584</v>
       </c>
       <c r="H50" t="n">
-        <v>3.999683333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>3.921</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3.921</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>3.921</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>3.921</v>
       </c>
       <c r="F51" t="n">
-        <v>267719.5461</v>
+        <v>15021.696</v>
       </c>
       <c r="G51" t="n">
-        <v>3.979066666666669</v>
+        <v>4919667.152775841</v>
       </c>
       <c r="H51" t="n">
-        <v>3.998266666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="C52" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="D52" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="E52" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="F52" t="n">
-        <v>20152.6203</v>
+        <v>127</v>
       </c>
       <c r="G52" t="n">
-        <v>3.98306666666667</v>
+        <v>4919794.152775841</v>
       </c>
       <c r="H52" t="n">
-        <v>3.996699999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="C53" t="n">
-        <v>3.99</v>
+        <v>3.968</v>
       </c>
       <c r="D53" t="n">
-        <v>3.99</v>
+        <v>3.968</v>
       </c>
       <c r="E53" t="n">
-        <v>3.99</v>
+        <v>3.961</v>
       </c>
       <c r="F53" t="n">
-        <v>50125.3133</v>
+        <v>525998.6935000001</v>
       </c>
       <c r="G53" t="n">
-        <v>3.987400000000003</v>
+        <v>5445792.846275841</v>
       </c>
       <c r="H53" t="n">
-        <v>3.995116666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.963</v>
+        <v>3.968</v>
       </c>
       <c r="C54" t="n">
-        <v>3.953</v>
+        <v>3.968</v>
       </c>
       <c r="D54" t="n">
-        <v>3.963</v>
+        <v>3.968</v>
       </c>
       <c r="E54" t="n">
-        <v>3.953</v>
+        <v>3.968</v>
       </c>
       <c r="F54" t="n">
-        <v>166035.7434</v>
+        <v>76646.40519999999</v>
       </c>
       <c r="G54" t="n">
-        <v>3.98986666666667</v>
+        <v>5445792.846275841</v>
       </c>
       <c r="H54" t="n">
-        <v>3.992916666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.953</v>
+        <v>3.971</v>
       </c>
       <c r="C55" t="n">
-        <v>3.953</v>
+        <v>3.971</v>
       </c>
       <c r="D55" t="n">
-        <v>3.953</v>
+        <v>3.971</v>
       </c>
       <c r="E55" t="n">
-        <v>3.953</v>
+        <v>3.971</v>
       </c>
       <c r="F55" t="n">
-        <v>120000</v>
+        <v>126</v>
       </c>
       <c r="G55" t="n">
-        <v>3.989533333333337</v>
+        <v>5445918.846275841</v>
       </c>
       <c r="H55" t="n">
-        <v>3.990716666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.953</v>
+        <v>3.969</v>
       </c>
       <c r="C56" t="n">
-        <v>3.953</v>
+        <v>3.969</v>
       </c>
       <c r="D56" t="n">
-        <v>3.953</v>
+        <v>3.969</v>
       </c>
       <c r="E56" t="n">
-        <v>3.953</v>
+        <v>3.969</v>
       </c>
       <c r="F56" t="n">
-        <v>150000</v>
+        <v>80964.62669999999</v>
       </c>
       <c r="G56" t="n">
-        <v>3.987800000000004</v>
+        <v>5364954.219575841</v>
       </c>
       <c r="H56" t="n">
-        <v>3.988516666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.952</v>
+        <v>3.969</v>
       </c>
       <c r="C57" t="n">
-        <v>3.931</v>
+        <v>3.971</v>
       </c>
       <c r="D57" t="n">
-        <v>3.952</v>
+        <v>3.971</v>
       </c>
       <c r="E57" t="n">
-        <v>3.931</v>
+        <v>3.969</v>
       </c>
       <c r="F57" t="n">
-        <v>79484.6023</v>
+        <v>529100.5292</v>
       </c>
       <c r="G57" t="n">
-        <v>3.983266666666671</v>
+        <v>5894054.748775841</v>
       </c>
       <c r="H57" t="n">
-        <v>3.985949999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.931</v>
+        <v>3.971</v>
       </c>
       <c r="C58" t="n">
-        <v>3.931</v>
+        <v>3.971</v>
       </c>
       <c r="D58" t="n">
-        <v>3.931</v>
+        <v>3.971</v>
       </c>
       <c r="E58" t="n">
-        <v>3.931</v>
+        <v>3.971</v>
       </c>
       <c r="F58" t="n">
-        <v>137265.7151</v>
+        <v>125598.8711</v>
       </c>
       <c r="G58" t="n">
-        <v>3.979333333333337</v>
+        <v>5894054.748775841</v>
       </c>
       <c r="H58" t="n">
-        <v>3.983399999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.931</v>
+        <v>3.935</v>
       </c>
       <c r="C59" t="n">
-        <v>3.921</v>
+        <v>3.935</v>
       </c>
       <c r="D59" t="n">
-        <v>3.931</v>
+        <v>3.935</v>
       </c>
       <c r="E59" t="n">
-        <v>3.921</v>
+        <v>3.935</v>
       </c>
       <c r="F59" t="n">
-        <v>9484.781999999999</v>
+        <v>8880</v>
       </c>
       <c r="G59" t="n">
-        <v>3.974133333333337</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H59" t="n">
-        <v>3.980816666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.925</v>
+        <v>3.935</v>
       </c>
       <c r="C60" t="n">
-        <v>3.925</v>
+        <v>3.935</v>
       </c>
       <c r="D60" t="n">
-        <v>3.925</v>
+        <v>3.935</v>
       </c>
       <c r="E60" t="n">
-        <v>3.925</v>
+        <v>3.935</v>
       </c>
       <c r="F60" t="n">
-        <v>9230</v>
+        <v>81664.44869999999</v>
       </c>
       <c r="G60" t="n">
-        <v>3.969133333333337</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9783</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.915</v>
+        <v>3.935</v>
       </c>
       <c r="C61" t="n">
-        <v>3.91</v>
+        <v>3.935</v>
       </c>
       <c r="D61" t="n">
-        <v>3.915</v>
+        <v>3.935</v>
       </c>
       <c r="E61" t="n">
-        <v>3.91</v>
+        <v>3.935</v>
       </c>
       <c r="F61" t="n">
-        <v>366396.9802</v>
+        <v>13185.65</v>
       </c>
       <c r="G61" t="n">
-        <v>3.963133333333337</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H61" t="n">
-        <v>3.97555</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.909</v>
+        <v>3.961</v>
       </c>
       <c r="C62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>3.909</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>3.9</v>
+        <v>3.961</v>
       </c>
       <c r="F62" t="n">
-        <v>598003.6822</v>
+        <v>858740.5060000001</v>
       </c>
       <c r="G62" t="n">
-        <v>3.95646666666667</v>
+        <v>6743915.254775841</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9728</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.877</v>
+        <v>3.998</v>
       </c>
       <c r="C63" t="n">
-        <v>3.877</v>
+        <v>3.998</v>
       </c>
       <c r="D63" t="n">
-        <v>3.877</v>
+        <v>3.998</v>
       </c>
       <c r="E63" t="n">
-        <v>3.877</v>
+        <v>3.998</v>
       </c>
       <c r="F63" t="n">
-        <v>257.6735</v>
+        <v>57516.3039</v>
       </c>
       <c r="G63" t="n">
-        <v>3.94826666666667</v>
+        <v>6686398.950875841</v>
       </c>
       <c r="H63" t="n">
-        <v>3.970683333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.876</v>
+        <v>3.999</v>
       </c>
       <c r="C64" t="n">
-        <v>3.874</v>
+        <v>3.999</v>
       </c>
       <c r="D64" t="n">
-        <v>3.876</v>
+        <v>3.999</v>
       </c>
       <c r="E64" t="n">
-        <v>3.874</v>
+        <v>3.999</v>
       </c>
       <c r="F64" t="n">
-        <v>82901.099</v>
+        <v>1521.2331</v>
       </c>
       <c r="G64" t="n">
-        <v>3.940533333333336</v>
+        <v>6687920.183975841</v>
       </c>
       <c r="H64" t="n">
-        <v>3.9685</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.871</v>
+        <v>3.998</v>
       </c>
       <c r="C65" t="n">
-        <v>3.867</v>
+        <v>3.952</v>
       </c>
       <c r="D65" t="n">
-        <v>3.871</v>
+        <v>3.998</v>
       </c>
       <c r="E65" t="n">
-        <v>3.867</v>
+        <v>3.952</v>
       </c>
       <c r="F65" t="n">
-        <v>228433.315</v>
+        <v>157715.3513</v>
       </c>
       <c r="G65" t="n">
-        <v>3.93166666666667</v>
+        <v>6530204.832675841</v>
       </c>
       <c r="H65" t="n">
-        <v>3.96615</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.866</v>
+        <v>3.93</v>
       </c>
       <c r="C66" t="n">
-        <v>3.866</v>
+        <v>3.93</v>
       </c>
       <c r="D66" t="n">
-        <v>3.866</v>
+        <v>3.93</v>
       </c>
       <c r="E66" t="n">
-        <v>3.866</v>
+        <v>3.93</v>
       </c>
       <c r="F66" t="n">
-        <v>300000</v>
+        <v>8880</v>
       </c>
       <c r="G66" t="n">
-        <v>3.922733333333336</v>
+        <v>6521324.832675841</v>
       </c>
       <c r="H66" t="n">
-        <v>3.963783333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="C67" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="D67" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="E67" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="F67" t="n">
-        <v>64351.4063</v>
+        <v>16793.0306</v>
       </c>
       <c r="G67" t="n">
-        <v>3.915533333333336</v>
+        <v>6504531.802075841</v>
       </c>
       <c r="H67" t="n">
-        <v>3.961716666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="C68" t="n">
-        <v>3.882</v>
+        <v>3.916</v>
       </c>
       <c r="D68" t="n">
-        <v>3.882</v>
+        <v>3.925</v>
       </c>
       <c r="E68" t="n">
-        <v>3.882</v>
+        <v>3.916</v>
       </c>
       <c r="F68" t="n">
-        <v>51034.7181</v>
+        <v>212127.9309</v>
       </c>
       <c r="G68" t="n">
-        <v>3.908333333333336</v>
+        <v>6292403.87117584</v>
       </c>
       <c r="H68" t="n">
-        <v>3.9592</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.929</v>
+        <v>3.969</v>
       </c>
       <c r="C69" t="n">
-        <v>3.929</v>
+        <v>3.958</v>
       </c>
       <c r="D69" t="n">
-        <v>3.929</v>
+        <v>3.969</v>
       </c>
       <c r="E69" t="n">
-        <v>3.929</v>
+        <v>3.958</v>
       </c>
       <c r="F69" t="n">
-        <v>78000</v>
+        <v>56332.9646</v>
       </c>
       <c r="G69" t="n">
-        <v>3.906733333333336</v>
+        <v>6348736.83577584</v>
       </c>
       <c r="H69" t="n">
-        <v>3.957283333333334</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.892</v>
+        <v>3.969</v>
       </c>
       <c r="C70" t="n">
-        <v>3.892</v>
+        <v>3.979</v>
       </c>
       <c r="D70" t="n">
-        <v>3.892</v>
+        <v>3.979</v>
       </c>
       <c r="E70" t="n">
-        <v>3.892</v>
+        <v>3.969</v>
       </c>
       <c r="F70" t="n">
-        <v>4812.8102</v>
+        <v>91830.0488</v>
       </c>
       <c r="G70" t="n">
-        <v>3.902666666666669</v>
+        <v>6440566.88457584</v>
       </c>
       <c r="H70" t="n">
-        <v>3.954766666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.892</v>
+        <v>3.99</v>
       </c>
       <c r="C71" t="n">
-        <v>3.862</v>
+        <v>3.999</v>
       </c>
       <c r="D71" t="n">
-        <v>3.892</v>
+        <v>3.999</v>
       </c>
       <c r="E71" t="n">
-        <v>3.862</v>
+        <v>3.99</v>
       </c>
       <c r="F71" t="n">
-        <v>138776.9276</v>
+        <v>96247.63920000001</v>
       </c>
       <c r="G71" t="n">
-        <v>3.896600000000002</v>
+        <v>6536814.52377584</v>
       </c>
       <c r="H71" t="n">
-        <v>3.952366666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.95</v>
+        <v>3.999</v>
       </c>
       <c r="C72" t="n">
-        <v>3.958</v>
+        <v>3.99</v>
       </c>
       <c r="D72" t="n">
-        <v>3.958</v>
+        <v>3.999</v>
       </c>
       <c r="E72" t="n">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="F72" t="n">
-        <v>78108.43150000001</v>
+        <v>10214.0881</v>
       </c>
       <c r="G72" t="n">
-        <v>3.898400000000002</v>
+        <v>6526600.43567584</v>
       </c>
       <c r="H72" t="n">
-        <v>3.95175</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.977</v>
+        <v>3.999</v>
       </c>
       <c r="C73" t="n">
-        <v>3.977</v>
+        <v>3.999</v>
       </c>
       <c r="D73" t="n">
-        <v>3.977</v>
+        <v>3.999</v>
       </c>
       <c r="E73" t="n">
-        <v>3.977</v>
+        <v>3.999</v>
       </c>
       <c r="F73" t="n">
-        <v>125387.797</v>
+        <v>26460.8543</v>
       </c>
       <c r="G73" t="n">
-        <v>3.901466666666669</v>
+        <v>6553061.28997584</v>
       </c>
       <c r="H73" t="n">
-        <v>3.950816666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>28800</v>
+        <v>238090.3989</v>
       </c>
       <c r="G74" t="n">
-        <v>3.904666666666669</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9504</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.959</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>3.959</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>18137.3806</v>
+        <v>10138.75</v>
       </c>
       <c r="G75" t="n">
-        <v>3.907600000000003</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H75" t="n">
-        <v>3.950033333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>111658.1647</v>
+        <v>93610.4276</v>
       </c>
       <c r="G76" t="n">
-        <v>3.911533333333336</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H76" t="n">
-        <v>3.949516666666666</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>127110.2314</v>
+        <v>138776.9276</v>
       </c>
       <c r="G77" t="n">
-        <v>3.91746666666667</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H77" t="n">
-        <v>3.949333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.989</v>
+        <v>3.99</v>
       </c>
       <c r="C78" t="n">
-        <v>3.989</v>
+        <v>3.99</v>
       </c>
       <c r="D78" t="n">
-        <v>3.989</v>
+        <v>3.99</v>
       </c>
       <c r="E78" t="n">
-        <v>3.989</v>
+        <v>3.99</v>
       </c>
       <c r="F78" t="n">
-        <v>125032.0826</v>
+        <v>300</v>
       </c>
       <c r="G78" t="n">
-        <v>3.924933333333336</v>
+        <v>6790851.68887584</v>
       </c>
       <c r="H78" t="n">
-        <v>3.949783333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>13526.7871</v>
+        <v>89931.67140000001</v>
       </c>
       <c r="G79" t="n">
-        <v>3.932600000000002</v>
+        <v>6880783.36027584</v>
       </c>
       <c r="H79" t="n">
-        <v>3.951116666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>18633.3483</v>
+        <v>267719.5461</v>
       </c>
       <c r="G80" t="n">
-        <v>3.940733333333335</v>
+        <v>6880783.36027584</v>
       </c>
       <c r="H80" t="n">
-        <v>3.95225</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="C81" t="n">
-        <v>4.003</v>
+        <v>3.99</v>
       </c>
       <c r="D81" t="n">
-        <v>4.003</v>
+        <v>3.99</v>
       </c>
       <c r="E81" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="F81" t="n">
-        <v>425.7332</v>
+        <v>20152.6203</v>
       </c>
       <c r="G81" t="n">
-        <v>3.949866666666669</v>
+        <v>6860630.739975841</v>
       </c>
       <c r="H81" t="n">
-        <v>3.953816666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="C82" t="n">
-        <v>3.969</v>
+        <v>3.99</v>
       </c>
       <c r="D82" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="E82" t="n">
-        <v>3.969</v>
+        <v>3.99</v>
       </c>
       <c r="F82" t="n">
-        <v>17870.8935</v>
+        <v>50125.3133</v>
       </c>
       <c r="G82" t="n">
-        <v>3.955666666666669</v>
+        <v>6860630.739975841</v>
       </c>
       <c r="H82" t="n">
-        <v>3.954616666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.969</v>
+        <v>3.963</v>
       </c>
       <c r="C83" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="D83" t="n">
-        <v>3.969</v>
+        <v>3.963</v>
       </c>
       <c r="E83" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="F83" t="n">
-        <v>127110.2314</v>
+        <v>166035.7434</v>
       </c>
       <c r="G83" t="n">
-        <v>3.961466666666669</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H83" t="n">
-        <v>3.95475</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="C84" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="D84" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="E84" t="n">
-        <v>3.969</v>
+        <v>3.953</v>
       </c>
       <c r="F84" t="n">
-        <v>4498.2007</v>
+        <v>120000</v>
       </c>
       <c r="G84" t="n">
-        <v>3.964133333333336</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H84" t="n">
-        <v>3.954766666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.992</v>
+        <v>3.953</v>
       </c>
       <c r="C85" t="n">
-        <v>3.992</v>
+        <v>3.953</v>
       </c>
       <c r="D85" t="n">
-        <v>3.992</v>
+        <v>3.953</v>
       </c>
       <c r="E85" t="n">
-        <v>3.992</v>
+        <v>3.953</v>
       </c>
       <c r="F85" t="n">
-        <v>126</v>
+        <v>150000</v>
       </c>
       <c r="G85" t="n">
-        <v>3.970800000000002</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H85" t="n">
-        <v>3.955166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.992</v>
+        <v>3.952</v>
       </c>
       <c r="C86" t="n">
-        <v>3.993</v>
+        <v>3.931</v>
       </c>
       <c r="D86" t="n">
-        <v>3.993</v>
+        <v>3.952</v>
       </c>
       <c r="E86" t="n">
-        <v>3.992</v>
+        <v>3.931</v>
       </c>
       <c r="F86" t="n">
-        <v>51135.3222</v>
+        <v>79484.6023</v>
       </c>
       <c r="G86" t="n">
-        <v>3.979533333333336</v>
+        <v>6615110.39427584</v>
       </c>
       <c r="H86" t="n">
-        <v>3.955533333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="C87" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="D87" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="E87" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="F87" t="n">
-        <v>51034.7181</v>
+        <v>137265.7151</v>
       </c>
       <c r="G87" t="n">
-        <v>3.980266666666669</v>
+        <v>6615110.39427584</v>
       </c>
       <c r="H87" t="n">
-        <v>3.955533333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="C88" t="n">
-        <v>3.958</v>
+        <v>3.921</v>
       </c>
       <c r="D88" t="n">
-        <v>3.969</v>
+        <v>3.931</v>
       </c>
       <c r="E88" t="n">
-        <v>3.958</v>
+        <v>3.921</v>
       </c>
       <c r="F88" t="n">
-        <v>352198.8293</v>
+        <v>9484.781999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>3.979000000000002</v>
+        <v>6605625.612275841</v>
       </c>
       <c r="H88" t="n">
-        <v>3.955316666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.955</v>
+        <v>3.925</v>
       </c>
       <c r="C89" t="n">
-        <v>3.95</v>
+        <v>3.925</v>
       </c>
       <c r="D89" t="n">
-        <v>3.955</v>
+        <v>3.925</v>
       </c>
       <c r="E89" t="n">
-        <v>3.95</v>
+        <v>3.925</v>
       </c>
       <c r="F89" t="n">
-        <v>24040.4842</v>
+        <v>9230</v>
       </c>
       <c r="G89" t="n">
-        <v>3.977733333333336</v>
+        <v>6614855.612275841</v>
       </c>
       <c r="H89" t="n">
-        <v>3.954966666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.94</v>
+        <v>3.915</v>
       </c>
       <c r="C90" t="n">
         <v>3.91</v>
       </c>
       <c r="D90" t="n">
-        <v>3.94</v>
+        <v>3.915</v>
       </c>
       <c r="E90" t="n">
         <v>3.91</v>
       </c>
       <c r="F90" t="n">
-        <v>49257.7163</v>
+        <v>366396.9802</v>
       </c>
       <c r="G90" t="n">
-        <v>3.973800000000002</v>
+        <v>6248458.632075841</v>
       </c>
       <c r="H90" t="n">
-        <v>3.95455</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="C91" t="n">
         <v>3.9</v>
       </c>
-      <c r="C91" t="n">
-        <v>3.872</v>
-      </c>
       <c r="D91" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="E91" t="n">
         <v>3.9</v>
       </c>
-      <c r="E91" t="n">
-        <v>3.872</v>
-      </c>
       <c r="F91" t="n">
-        <v>624430.0852</v>
+        <v>598003.6822</v>
       </c>
       <c r="G91" t="n">
-        <v>3.967333333333336</v>
+        <v>5650454.949875841</v>
       </c>
       <c r="H91" t="n">
-        <v>3.9535</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.872</v>
+        <v>3.877</v>
       </c>
       <c r="C92" t="n">
-        <v>3.872</v>
+        <v>3.877</v>
       </c>
       <c r="D92" t="n">
-        <v>3.872</v>
+        <v>3.877</v>
       </c>
       <c r="E92" t="n">
-        <v>3.872</v>
+        <v>3.877</v>
       </c>
       <c r="F92" t="n">
-        <v>91966.52039999999</v>
+        <v>257.6735</v>
       </c>
       <c r="G92" t="n">
-        <v>3.959533333333336</v>
+        <v>5650197.276375841</v>
       </c>
       <c r="H92" t="n">
-        <v>3.95245</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,40 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.872</v>
+        <v>3.876</v>
       </c>
       <c r="C93" t="n">
-        <v>3.872</v>
+        <v>3.874</v>
       </c>
       <c r="D93" t="n">
-        <v>3.872</v>
+        <v>3.876</v>
       </c>
       <c r="E93" t="n">
-        <v>3.872</v>
+        <v>3.874</v>
       </c>
       <c r="F93" t="n">
-        <v>13301.4738</v>
+        <v>82901.099</v>
       </c>
       <c r="G93" t="n">
-        <v>3.951733333333336</v>
+        <v>5567296.177375841</v>
       </c>
       <c r="H93" t="n">
-        <v>3.950316666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,44 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.872</v>
+        <v>3.871</v>
       </c>
       <c r="C94" t="n">
-        <v>3.872</v>
+        <v>3.867</v>
       </c>
       <c r="D94" t="n">
-        <v>3.872</v>
+        <v>3.871</v>
       </c>
       <c r="E94" t="n">
-        <v>3.872</v>
+        <v>3.867</v>
       </c>
       <c r="F94" t="n">
-        <v>269945.975</v>
+        <v>228433.315</v>
       </c>
       <c r="G94" t="n">
-        <v>3.943933333333336</v>
+        <v>5338862.862375841</v>
       </c>
       <c r="H94" t="n">
-        <v>3.948216666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,44 +3688,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.885</v>
+        <v>3.866</v>
       </c>
       <c r="C95" t="n">
-        <v>3.885</v>
+        <v>3.866</v>
       </c>
       <c r="D95" t="n">
-        <v>3.885</v>
+        <v>3.866</v>
       </c>
       <c r="E95" t="n">
-        <v>3.885</v>
+        <v>3.866</v>
       </c>
       <c r="F95" t="n">
-        <v>7530</v>
+        <v>300000</v>
       </c>
       <c r="G95" t="n">
-        <v>3.937000000000003</v>
+        <v>5038862.862375841</v>
       </c>
       <c r="H95" t="n">
-        <v>3.946316666666667</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>3.867</v>
       </c>
       <c r="K95" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,40 +3727,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="C96" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="D96" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="E96" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="F96" t="n">
-        <v>163788.4749</v>
+        <v>64351.4063</v>
       </c>
       <c r="G96" t="n">
-        <v>3.929133333333336</v>
+        <v>5103214.26867584</v>
       </c>
       <c r="H96" t="n">
-        <v>3.9452</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,44 +3768,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="C97" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="D97" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="E97" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="F97" t="n">
-        <v>93315.07060000001</v>
+        <v>51034.7181</v>
       </c>
       <c r="G97" t="n">
-        <v>3.923533333333336</v>
+        <v>5103214.26867584</v>
       </c>
       <c r="H97" t="n">
-        <v>3.94445</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="M97" t="inlineStr">
+        <v>3.867</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,42 +3809,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.885</v>
+        <v>3.929</v>
       </c>
       <c r="C98" t="n">
-        <v>3.885</v>
+        <v>3.929</v>
       </c>
       <c r="D98" t="n">
-        <v>3.885</v>
+        <v>3.929</v>
       </c>
       <c r="E98" t="n">
-        <v>3.885</v>
+        <v>3.929</v>
       </c>
       <c r="F98" t="n">
-        <v>48491.5898</v>
+        <v>78000</v>
       </c>
       <c r="G98" t="n">
-        <v>3.917933333333336</v>
+        <v>5181214.26867584</v>
       </c>
       <c r="H98" t="n">
-        <v>3.943783333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3844,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="C99" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="D99" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="E99" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="F99" t="n">
-        <v>553177.9301</v>
+        <v>4812.8102</v>
       </c>
       <c r="G99" t="n">
-        <v>3.912333333333335</v>
+        <v>5176401.45847584</v>
       </c>
       <c r="H99" t="n">
-        <v>3.943266666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3879,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="C100" t="n">
-        <v>3.885</v>
+        <v>3.862</v>
       </c>
       <c r="D100" t="n">
-        <v>3.885</v>
+        <v>3.892</v>
       </c>
       <c r="E100" t="n">
-        <v>3.885</v>
+        <v>3.862</v>
       </c>
       <c r="F100" t="n">
-        <v>95369.56329999999</v>
+        <v>138776.9276</v>
       </c>
       <c r="G100" t="n">
-        <v>3.905200000000002</v>
+        <v>5037624.53087584</v>
       </c>
       <c r="H100" t="n">
-        <v>3.94205</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3914,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.885</v>
+        <v>3.95</v>
       </c>
       <c r="C101" t="n">
-        <v>3.885</v>
+        <v>3.958</v>
       </c>
       <c r="D101" t="n">
-        <v>3.885</v>
+        <v>3.958</v>
       </c>
       <c r="E101" t="n">
-        <v>3.885</v>
+        <v>3.95</v>
       </c>
       <c r="F101" t="n">
-        <v>613.7012</v>
+        <v>78108.43150000001</v>
       </c>
       <c r="G101" t="n">
-        <v>3.898000000000002</v>
+        <v>5115732.96237584</v>
       </c>
       <c r="H101" t="n">
-        <v>3.940483333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3949,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.881</v>
+        <v>3.977</v>
       </c>
       <c r="C102" t="n">
-        <v>3.881</v>
+        <v>3.977</v>
       </c>
       <c r="D102" t="n">
-        <v>3.881</v>
+        <v>3.977</v>
       </c>
       <c r="E102" t="n">
-        <v>3.881</v>
+        <v>3.977</v>
       </c>
       <c r="F102" t="n">
-        <v>515.9016</v>
+        <v>125387.797</v>
       </c>
       <c r="G102" t="n">
-        <v>3.892133333333335</v>
+        <v>5241120.75937584</v>
       </c>
       <c r="H102" t="n">
-        <v>3.938516666666666</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+        <v>3.958</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3.958</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +3988,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.881</v>
+        <v>3.969</v>
       </c>
       <c r="C103" t="n">
-        <v>3.885</v>
+        <v>3.969</v>
       </c>
       <c r="D103" t="n">
-        <v>3.885</v>
+        <v>3.969</v>
       </c>
       <c r="E103" t="n">
-        <v>3.881</v>
+        <v>3.969</v>
       </c>
       <c r="F103" t="n">
-        <v>3058853.5225</v>
+        <v>28800</v>
       </c>
       <c r="G103" t="n">
-        <v>3.887266666666668</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H103" t="n">
-        <v>3.936766666666665</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4029,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.885</v>
+        <v>3.959</v>
       </c>
       <c r="C104" t="n">
-        <v>3.885</v>
+        <v>3.969</v>
       </c>
       <c r="D104" t="n">
-        <v>3.885</v>
+        <v>3.969</v>
       </c>
       <c r="E104" t="n">
-        <v>3.885</v>
+        <v>3.959</v>
       </c>
       <c r="F104" t="n">
-        <v>1543.8726</v>
+        <v>18137.3806</v>
       </c>
       <c r="G104" t="n">
-        <v>3.882933333333335</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H104" t="n">
-        <v>3.934866666666665</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4070,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.875</v>
+        <v>3.969</v>
       </c>
       <c r="C105" t="n">
-        <v>3.862</v>
+        <v>3.969</v>
       </c>
       <c r="D105" t="n">
-        <v>3.875</v>
+        <v>3.969</v>
       </c>
       <c r="E105" t="n">
-        <v>3.862</v>
+        <v>3.969</v>
       </c>
       <c r="F105" t="n">
-        <v>500638.994</v>
+        <v>111658.1647</v>
       </c>
       <c r="G105" t="n">
-        <v>3.879733333333335</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H105" t="n">
-        <v>3.932566666666665</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4105,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.862</v>
+        <v>3.989</v>
       </c>
       <c r="C106" t="n">
-        <v>3.853</v>
+        <v>3.989</v>
       </c>
       <c r="D106" t="n">
-        <v>3.862</v>
+        <v>3.989</v>
       </c>
       <c r="E106" t="n">
-        <v>3.853</v>
+        <v>3.989</v>
       </c>
       <c r="F106" t="n">
-        <v>1402949.8263</v>
+        <v>127110.2314</v>
       </c>
       <c r="G106" t="n">
-        <v>3.878466666666669</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H106" t="n">
-        <v>3.930116666666665</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4140,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="C107" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="D107" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="E107" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="F107" t="n">
-        <v>76000</v>
+        <v>125032.0826</v>
       </c>
       <c r="G107" t="n">
-        <v>3.879333333333335</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H107" t="n">
-        <v>3.928199999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4175,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="C108" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="D108" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="E108" t="n">
-        <v>3.885</v>
+        <v>3.989</v>
       </c>
       <c r="F108" t="n">
-        <v>800.3733999999999</v>
+        <v>13526.7871</v>
       </c>
       <c r="G108" t="n">
-        <v>3.880200000000002</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H108" t="n">
-        <v>3.926283333333332</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4210,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91</v>
+        <v>3.989</v>
       </c>
       <c r="C109" t="n">
-        <v>3.91</v>
+        <v>3.989</v>
       </c>
       <c r="D109" t="n">
-        <v>3.91</v>
+        <v>3.989</v>
       </c>
       <c r="E109" t="n">
-        <v>3.91</v>
+        <v>3.989</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>18633.3483</v>
       </c>
       <c r="G109" t="n">
-        <v>3.882733333333335</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H109" t="n">
-        <v>3.924949999999998</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4245,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.91</v>
+        <v>3.98</v>
       </c>
       <c r="C110" t="n">
-        <v>3.91</v>
+        <v>4.003</v>
       </c>
       <c r="D110" t="n">
-        <v>3.91</v>
+        <v>4.003</v>
       </c>
       <c r="E110" t="n">
-        <v>3.91</v>
+        <v>3.98</v>
       </c>
       <c r="F110" t="n">
-        <v>44943.6485</v>
+        <v>425.7332</v>
       </c>
       <c r="G110" t="n">
-        <v>3.884400000000002</v>
+        <v>5339856.72397584</v>
       </c>
       <c r="H110" t="n">
-        <v>3.923449999999998</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4280,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.91</v>
+        <v>3.97</v>
       </c>
       <c r="C111" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="D111" t="n">
-        <v>3.91</v>
+        <v>3.97</v>
       </c>
       <c r="E111" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="F111" t="n">
-        <v>785.5297</v>
+        <v>17870.8935</v>
       </c>
       <c r="G111" t="n">
-        <v>3.886066666666669</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H111" t="n">
-        <v>3.921949999999998</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4315,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="C112" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="D112" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="E112" t="n">
-        <v>3.91</v>
+        <v>3.969</v>
       </c>
       <c r="F112" t="n">
-        <v>38471.6561</v>
+        <v>127110.2314</v>
       </c>
       <c r="G112" t="n">
-        <v>3.887733333333336</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H112" t="n">
-        <v>3.920616666666665</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4350,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.936</v>
+        <v>3.969</v>
       </c>
       <c r="C113" t="n">
-        <v>3.936</v>
+        <v>3.969</v>
       </c>
       <c r="D113" t="n">
-        <v>3.936</v>
+        <v>3.969</v>
       </c>
       <c r="E113" t="n">
-        <v>3.936</v>
+        <v>3.969</v>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>4498.2007</v>
       </c>
       <c r="G113" t="n">
-        <v>3.891133333333336</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H113" t="n">
-        <v>3.919716666666665</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4385,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.91</v>
+        <v>3.992</v>
       </c>
       <c r="C114" t="n">
-        <v>3.91</v>
+        <v>3.992</v>
       </c>
       <c r="D114" t="n">
-        <v>3.91</v>
+        <v>3.992</v>
       </c>
       <c r="E114" t="n">
-        <v>3.91</v>
+        <v>3.992</v>
       </c>
       <c r="F114" t="n">
-        <v>515.9016</v>
+        <v>126</v>
       </c>
       <c r="G114" t="n">
-        <v>3.892800000000003</v>
+        <v>5322111.83047584</v>
       </c>
       <c r="H114" t="n">
-        <v>3.918999999999998</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4420,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.936</v>
+        <v>3.992</v>
       </c>
       <c r="C115" t="n">
-        <v>3.936</v>
+        <v>3.993</v>
       </c>
       <c r="D115" t="n">
-        <v>3.936</v>
+        <v>3.993</v>
       </c>
       <c r="E115" t="n">
-        <v>3.936</v>
+        <v>3.992</v>
       </c>
       <c r="F115" t="n">
-        <v>1497.0754</v>
+        <v>51135.3222</v>
       </c>
       <c r="G115" t="n">
-        <v>3.896200000000003</v>
+        <v>5373247.15267584</v>
       </c>
       <c r="H115" t="n">
-        <v>3.918716666666664</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4455,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.925</v>
+        <v>3.969</v>
       </c>
       <c r="C116" t="n">
-        <v>3.925</v>
+        <v>3.969</v>
       </c>
       <c r="D116" t="n">
-        <v>3.925</v>
+        <v>3.969</v>
       </c>
       <c r="E116" t="n">
-        <v>3.925</v>
+        <v>3.969</v>
       </c>
       <c r="F116" t="n">
-        <v>128</v>
+        <v>51034.7181</v>
       </c>
       <c r="G116" t="n">
-        <v>3.89886666666667</v>
+        <v>5322212.43457584</v>
       </c>
       <c r="H116" t="n">
-        <v>3.918249999999998</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4490,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.92</v>
+        <v>3.969</v>
       </c>
       <c r="C117" t="n">
-        <v>3.92</v>
+        <v>3.958</v>
       </c>
       <c r="D117" t="n">
-        <v>3.92</v>
+        <v>3.969</v>
       </c>
       <c r="E117" t="n">
-        <v>3.92</v>
+        <v>3.958</v>
       </c>
       <c r="F117" t="n">
-        <v>128</v>
+        <v>352198.8293</v>
       </c>
       <c r="G117" t="n">
-        <v>3.90146666666667</v>
+        <v>4970013.60527584</v>
       </c>
       <c r="H117" t="n">
-        <v>3.918066666666664</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4525,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.92</v>
+        <v>3.955</v>
       </c>
       <c r="C118" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="D118" t="n">
-        <v>3.92</v>
+        <v>3.955</v>
       </c>
       <c r="E118" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="F118" t="n">
-        <v>3899.5</v>
+        <v>24040.4842</v>
       </c>
       <c r="G118" t="n">
-        <v>3.903800000000003</v>
+        <v>4945973.12107584</v>
       </c>
       <c r="H118" t="n">
-        <v>3.91788333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4560,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="C119" t="n">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="D119" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="E119" t="n">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="F119" t="n">
-        <v>2039.6775</v>
+        <v>49257.7163</v>
       </c>
       <c r="G119" t="n">
-        <v>3.906133333333337</v>
+        <v>4896715.404775839</v>
       </c>
       <c r="H119" t="n">
-        <v>3.917866666666664</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4595,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="C120" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="D120" t="n">
         <v>3.9</v>
       </c>
-      <c r="D120" t="n">
-        <v>3.91</v>
-      </c>
       <c r="E120" t="n">
-        <v>3.9</v>
+        <v>3.872</v>
       </c>
       <c r="F120" t="n">
-        <v>2502.7027</v>
+        <v>624430.0852</v>
       </c>
       <c r="G120" t="n">
-        <v>3.90866666666667</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H120" t="n">
-        <v>3.917449999999997</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4630,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.889</v>
+        <v>3.872</v>
       </c>
       <c r="C121" t="n">
-        <v>3.85</v>
+        <v>3.872</v>
       </c>
       <c r="D121" t="n">
-        <v>3.889</v>
+        <v>3.872</v>
       </c>
       <c r="E121" t="n">
-        <v>3.85</v>
+        <v>3.872</v>
       </c>
       <c r="F121" t="n">
-        <v>478116.0096</v>
+        <v>91966.52039999999</v>
       </c>
       <c r="G121" t="n">
-        <v>3.90846666666667</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H121" t="n">
-        <v>3.916449999999997</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4665,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.914</v>
+        <v>3.872</v>
       </c>
       <c r="C122" t="n">
-        <v>3.914</v>
+        <v>3.872</v>
       </c>
       <c r="D122" t="n">
-        <v>3.914</v>
+        <v>3.872</v>
       </c>
       <c r="E122" t="n">
-        <v>3.914</v>
+        <v>3.872</v>
       </c>
       <c r="F122" t="n">
-        <v>3832.396525293</v>
+        <v>13301.4738</v>
       </c>
       <c r="G122" t="n">
-        <v>3.910400000000004</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H122" t="n">
-        <v>3.91668333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4700,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.881</v>
+        <v>3.872</v>
       </c>
       <c r="C123" t="n">
-        <v>3.881</v>
+        <v>3.872</v>
       </c>
       <c r="D123" t="n">
-        <v>3.881</v>
+        <v>3.872</v>
       </c>
       <c r="E123" t="n">
-        <v>3.881</v>
+        <v>3.872</v>
       </c>
       <c r="F123" t="n">
-        <v>5650</v>
+        <v>269945.975</v>
       </c>
       <c r="G123" t="n">
-        <v>3.910133333333337</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H123" t="n">
-        <v>3.916749999999996</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4735,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="C124" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="D124" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="E124" t="n">
-        <v>3.881</v>
+        <v>3.885</v>
       </c>
       <c r="F124" t="n">
-        <v>23706.3555</v>
+        <v>7530</v>
       </c>
       <c r="G124" t="n">
-        <v>3.908200000000004</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H124" t="n">
-        <v>3.916866666666663</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4770,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="C125" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="D125" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="E125" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="F125" t="n">
-        <v>128</v>
+        <v>163788.4749</v>
       </c>
       <c r="G125" t="n">
-        <v>3.908466666666671</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H125" t="n">
-        <v>3.917649999999997</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4805,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="C126" t="n">
-        <v>3.915</v>
+        <v>3.885</v>
       </c>
       <c r="D126" t="n">
-        <v>3.915</v>
+        <v>3.885</v>
       </c>
       <c r="E126" t="n">
-        <v>3.914</v>
+        <v>3.885</v>
       </c>
       <c r="F126" t="n">
-        <v>98670</v>
+        <v>93315.07060000001</v>
       </c>
       <c r="G126" t="n">
-        <v>3.908800000000004</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H126" t="n">
-        <v>3.918466666666663</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4840,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.925</v>
+        <v>3.885</v>
       </c>
       <c r="C127" t="n">
-        <v>3.935</v>
+        <v>3.885</v>
       </c>
       <c r="D127" t="n">
-        <v>3.935</v>
+        <v>3.885</v>
       </c>
       <c r="E127" t="n">
-        <v>3.925</v>
+        <v>3.885</v>
       </c>
       <c r="F127" t="n">
-        <v>257078.7301</v>
+        <v>48491.5898</v>
       </c>
       <c r="G127" t="n">
-        <v>3.910466666666671</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H127" t="n">
-        <v>3.919349999999996</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4875,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.936</v>
+        <v>3.885</v>
       </c>
       <c r="C128" t="n">
-        <v>3.936</v>
+        <v>3.885</v>
       </c>
       <c r="D128" t="n">
-        <v>3.936</v>
+        <v>3.885</v>
       </c>
       <c r="E128" t="n">
-        <v>3.936</v>
+        <v>3.885</v>
       </c>
       <c r="F128" t="n">
-        <v>322561.025</v>
+        <v>553177.9301</v>
       </c>
       <c r="G128" t="n">
-        <v>3.910466666666671</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H128" t="n">
-        <v>3.920249999999996</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4910,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.946</v>
+        <v>3.885</v>
       </c>
       <c r="C129" t="n">
-        <v>3.96</v>
+        <v>3.885</v>
       </c>
       <c r="D129" t="n">
-        <v>3.96</v>
+        <v>3.885</v>
       </c>
       <c r="E129" t="n">
-        <v>3.946</v>
+        <v>3.885</v>
       </c>
       <c r="F129" t="n">
-        <v>22905.7226</v>
+        <v>95369.56329999999</v>
       </c>
       <c r="G129" t="n">
-        <v>3.913800000000004</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H129" t="n">
-        <v>3.920766666666663</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+        <v>3.885</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3.885</v>
+      </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4949,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.978</v>
+        <v>3.885</v>
       </c>
       <c r="C130" t="n">
-        <v>3.978</v>
+        <v>3.885</v>
       </c>
       <c r="D130" t="n">
-        <v>3.978</v>
+        <v>3.885</v>
       </c>
       <c r="E130" t="n">
-        <v>3.978</v>
+        <v>3.885</v>
       </c>
       <c r="F130" t="n">
-        <v>126</v>
+        <v>613.7012</v>
       </c>
       <c r="G130" t="n">
-        <v>3.916600000000004</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H130" t="n">
-        <v>3.922199999999997</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4990,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.977</v>
+        <v>3.881</v>
       </c>
       <c r="C131" t="n">
-        <v>3.977</v>
+        <v>3.881</v>
       </c>
       <c r="D131" t="n">
-        <v>3.977</v>
+        <v>3.881</v>
       </c>
       <c r="E131" t="n">
-        <v>3.977</v>
+        <v>3.881</v>
       </c>
       <c r="F131" t="n">
-        <v>16836.339</v>
+        <v>515.9016</v>
       </c>
       <c r="G131" t="n">
-        <v>3.920066666666671</v>
+        <v>4279299.417975839</v>
       </c>
       <c r="H131" t="n">
-        <v>3.924116666666663</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5033,41 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.978</v>
+        <v>3.881</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="E132" t="n">
-        <v>3.978</v>
+        <v>3.881</v>
       </c>
       <c r="F132" t="n">
-        <v>532898.0421</v>
+        <v>3058853.5225</v>
       </c>
       <c r="G132" t="n">
-        <v>3.925400000000004</v>
+        <v>7338152.940475839</v>
       </c>
       <c r="H132" t="n">
-        <v>3.924816666666664</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5076,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="F133" t="n">
-        <v>7416.6259</v>
+        <v>1543.8726</v>
       </c>
       <c r="G133" t="n">
-        <v>3.930733333333337</v>
+        <v>7338152.940475839</v>
       </c>
       <c r="H133" t="n">
-        <v>3.925199999999997</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5117,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="C134" t="n">
-        <v>4.06</v>
+        <v>3.862</v>
       </c>
       <c r="D134" t="n">
-        <v>4.06</v>
+        <v>3.875</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>3.862</v>
       </c>
       <c r="F134" t="n">
-        <v>572588.374</v>
+        <v>500638.994</v>
       </c>
       <c r="G134" t="n">
-        <v>3.940066666666671</v>
+        <v>6837513.946475839</v>
       </c>
       <c r="H134" t="n">
-        <v>3.926716666666664</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5158,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.071</v>
+        <v>3.862</v>
       </c>
       <c r="C135" t="n">
-        <v>4.071</v>
+        <v>3.853</v>
       </c>
       <c r="D135" t="n">
-        <v>4.071</v>
+        <v>3.862</v>
       </c>
       <c r="E135" t="n">
-        <v>4.071</v>
+        <v>3.853</v>
       </c>
       <c r="F135" t="n">
-        <v>123</v>
+        <v>1402949.8263</v>
       </c>
       <c r="G135" t="n">
-        <v>3.951466666666671</v>
+        <v>5434564.120175839</v>
       </c>
       <c r="H135" t="n">
-        <v>3.928416666666664</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5199,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="C136" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="D136" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="E136" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="F136" t="n">
-        <v>390889.6235</v>
+        <v>76000</v>
       </c>
       <c r="G136" t="n">
-        <v>3.961266666666671</v>
+        <v>5510564.120175839</v>
       </c>
       <c r="H136" t="n">
-        <v>3.928883333333331</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5240,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="C137" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="D137" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="E137" t="n">
-        <v>3.997</v>
+        <v>3.885</v>
       </c>
       <c r="F137" t="n">
-        <v>249.9375</v>
+        <v>800.3733999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>3.966800000000004</v>
+        <v>5510564.120175839</v>
       </c>
       <c r="H137" t="n">
-        <v>3.929016666666664</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5281,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="C138" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="D138" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="E138" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="F138" t="n">
-        <v>19750.0625</v>
+        <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>3.974533333333337</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H138" t="n">
-        <v>3.929149999999997</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5322,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="F139" t="n">
-        <v>13301.4738</v>
+        <v>44943.6485</v>
       </c>
       <c r="G139" t="n">
-        <v>3.98246666666667</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H139" t="n">
-        <v>3.92933333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5363,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="F140" t="n">
-        <v>597.273</v>
+        <v>785.5297</v>
       </c>
       <c r="G140" t="n">
-        <v>3.988200000000004</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H140" t="n">
-        <v>3.929516666666664</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,36 +5404,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="C141" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="D141" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="E141" t="n">
-        <v>3.997</v>
+        <v>3.91</v>
       </c>
       <c r="F141" t="n">
-        <v>20000</v>
+        <v>38471.6561</v>
       </c>
       <c r="G141" t="n">
-        <v>3.99366666666667</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H141" t="n">
-        <v>3.929416666666663</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,36 +5445,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.997</v>
+        <v>3.936</v>
       </c>
       <c r="C142" t="n">
-        <v>3.997</v>
+        <v>3.936</v>
       </c>
       <c r="D142" t="n">
-        <v>3.997</v>
+        <v>3.936</v>
       </c>
       <c r="E142" t="n">
-        <v>3.997</v>
+        <v>3.936</v>
       </c>
       <c r="F142" t="n">
-        <v>263345.8331</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>3.997800000000004</v>
+        <v>5510964.120175839</v>
       </c>
       <c r="H142" t="n">
-        <v>3.929883333333331</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,36 +5486,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.003</v>
+        <v>3.91</v>
       </c>
       <c r="C143" t="n">
-        <v>4.003</v>
+        <v>3.91</v>
       </c>
       <c r="D143" t="n">
-        <v>4.003</v>
+        <v>3.91</v>
       </c>
       <c r="E143" t="n">
-        <v>4.003</v>
+        <v>3.91</v>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>515.9016</v>
       </c>
       <c r="G143" t="n">
-        <v>4.00226666666667</v>
+        <v>5510448.218575839</v>
       </c>
       <c r="H143" t="n">
-        <v>3.930449999999997</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,36 +5527,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.003</v>
+        <v>3.936</v>
       </c>
       <c r="C144" t="n">
-        <v>3.987</v>
+        <v>3.936</v>
       </c>
       <c r="D144" t="n">
-        <v>4.003</v>
+        <v>3.936</v>
       </c>
       <c r="E144" t="n">
-        <v>3.987</v>
+        <v>3.936</v>
       </c>
       <c r="F144" t="n">
-        <v>46932.5644</v>
+        <v>1497.0754</v>
       </c>
       <c r="G144" t="n">
-        <v>4.00406666666667</v>
+        <v>5511945.293975839</v>
       </c>
       <c r="H144" t="n">
-        <v>3.930749999999997</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,36 +5568,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.987</v>
+        <v>3.925</v>
       </c>
       <c r="C145" t="n">
-        <v>3.987</v>
+        <v>3.925</v>
       </c>
       <c r="D145" t="n">
-        <v>3.987</v>
+        <v>3.925</v>
       </c>
       <c r="E145" t="n">
-        <v>3.987</v>
+        <v>3.925</v>
       </c>
       <c r="F145" t="n">
-        <v>11709.7581</v>
+        <v>128</v>
       </c>
       <c r="G145" t="n">
-        <v>4.004666666666671</v>
+        <v>5511817.293975839</v>
       </c>
       <c r="H145" t="n">
-        <v>3.930666666666664</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,36 +5609,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.004</v>
+        <v>3.92</v>
       </c>
       <c r="C146" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="D146" t="n">
-        <v>4.004</v>
+        <v>3.92</v>
       </c>
       <c r="E146" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="F146" t="n">
-        <v>159403.3455</v>
+        <v>128</v>
       </c>
       <c r="G146" t="n">
-        <v>4.006400000000005</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H146" t="n">
-        <v>3.930833333333331</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,36 +5650,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="C147" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="D147" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="E147" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="F147" t="n">
-        <v>26589.3485</v>
+        <v>3899.5</v>
       </c>
       <c r="G147" t="n">
-        <v>4.006600000000005</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H147" t="n">
-        <v>3.931399999999997</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,36 +5691,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="C148" t="n">
-        <v>4.005</v>
+        <v>3.92</v>
       </c>
       <c r="D148" t="n">
-        <v>4.005</v>
+        <v>3.92</v>
       </c>
       <c r="E148" t="n">
-        <v>4.003</v>
+        <v>3.92</v>
       </c>
       <c r="F148" t="n">
-        <v>20561.4454</v>
+        <v>2039.6775</v>
       </c>
       <c r="G148" t="n">
-        <v>4.006933333333338</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H148" t="n">
-        <v>3.93218333333333</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,36 +5732,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.005</v>
+        <v>3.91</v>
       </c>
       <c r="C149" t="n">
-        <v>4.005</v>
+        <v>3.9</v>
       </c>
       <c r="D149" t="n">
-        <v>4.005</v>
+        <v>3.91</v>
       </c>
       <c r="E149" t="n">
-        <v>4.005</v>
+        <v>3.9</v>
       </c>
       <c r="F149" t="n">
-        <v>13288.0345</v>
+        <v>2502.7027</v>
       </c>
       <c r="G149" t="n">
-        <v>4.003266666666671</v>
+        <v>5509186.591275839</v>
       </c>
       <c r="H149" t="n">
-        <v>3.933099999999997</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,36 +5773,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.978</v>
+        <v>3.889</v>
       </c>
       <c r="C150" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="D150" t="n">
-        <v>3.978</v>
+        <v>3.889</v>
       </c>
       <c r="E150" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="F150" t="n">
-        <v>22956.2318</v>
+        <v>478116.0096</v>
       </c>
       <c r="G150" t="n">
-        <v>3.996533333333338</v>
+        <v>5031070.581675839</v>
       </c>
       <c r="H150" t="n">
-        <v>3.934099999999998</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +5814,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.004</v>
+        <v>3.914</v>
       </c>
       <c r="C151" t="n">
-        <v>4.004</v>
+        <v>3.914</v>
       </c>
       <c r="D151" t="n">
-        <v>4.004</v>
+        <v>3.914</v>
       </c>
       <c r="E151" t="n">
-        <v>4.004</v>
+        <v>3.914</v>
       </c>
       <c r="F151" t="n">
-        <v>6645.6772</v>
+        <v>3832.396525293</v>
       </c>
       <c r="G151" t="n">
-        <v>3.997000000000004</v>
+        <v>5034902.978201131</v>
       </c>
       <c r="H151" t="n">
-        <v>3.936299999999997</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,36 +5855,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.972</v>
+        <v>3.881</v>
       </c>
       <c r="C152" t="n">
-        <v>3.962</v>
+        <v>3.881</v>
       </c>
       <c r="D152" t="n">
-        <v>3.972</v>
+        <v>3.881</v>
       </c>
       <c r="E152" t="n">
-        <v>3.962</v>
+        <v>3.881</v>
       </c>
       <c r="F152" t="n">
-        <v>66816.5053</v>
+        <v>5650</v>
       </c>
       <c r="G152" t="n">
-        <v>3.994666666666671</v>
+        <v>5029252.978201131</v>
       </c>
       <c r="H152" t="n">
-        <v>3.937799999999997</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,36 +5896,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.962</v>
+        <v>3.881</v>
       </c>
       <c r="C153" t="n">
-        <v>3.993</v>
+        <v>3.881</v>
       </c>
       <c r="D153" t="n">
-        <v>4.004</v>
+        <v>3.881</v>
       </c>
       <c r="E153" t="n">
-        <v>3.962</v>
+        <v>3.881</v>
       </c>
       <c r="F153" t="n">
-        <v>6528.8806</v>
+        <v>23706.3555</v>
       </c>
       <c r="G153" t="n">
-        <v>3.994400000000005</v>
+        <v>5029252.978201131</v>
       </c>
       <c r="H153" t="n">
-        <v>3.939816666666663</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,36 +5937,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.993</v>
+        <v>3.914</v>
       </c>
       <c r="C154" t="n">
-        <v>3.993</v>
+        <v>3.914</v>
       </c>
       <c r="D154" t="n">
-        <v>3.993</v>
+        <v>3.914</v>
       </c>
       <c r="E154" t="n">
-        <v>3.993</v>
+        <v>3.914</v>
       </c>
       <c r="F154" t="n">
-        <v>2501</v>
+        <v>128</v>
       </c>
       <c r="G154" t="n">
-        <v>3.993933333333338</v>
+        <v>5029380.978201131</v>
       </c>
       <c r="H154" t="n">
-        <v>3.941833333333329</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,36 +5978,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.96</v>
+        <v>3.914</v>
       </c>
       <c r="C155" t="n">
-        <v>3.951</v>
+        <v>3.915</v>
       </c>
       <c r="D155" t="n">
-        <v>3.96</v>
+        <v>3.915</v>
       </c>
       <c r="E155" t="n">
-        <v>3.951</v>
+        <v>3.914</v>
       </c>
       <c r="F155" t="n">
-        <v>20561.4454</v>
+        <v>98670</v>
       </c>
       <c r="G155" t="n">
-        <v>3.990666666666671</v>
+        <v>5128050.978201131</v>
       </c>
       <c r="H155" t="n">
-        <v>3.942933333333329</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,36 +6019,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.951</v>
+        <v>3.925</v>
       </c>
       <c r="C156" t="n">
-        <v>3.951</v>
+        <v>3.935</v>
       </c>
       <c r="D156" t="n">
-        <v>3.951</v>
+        <v>3.935</v>
       </c>
       <c r="E156" t="n">
-        <v>3.951</v>
+        <v>3.925</v>
       </c>
       <c r="F156" t="n">
-        <v>24252.9649</v>
+        <v>257078.7301</v>
       </c>
       <c r="G156" t="n">
-        <v>3.987600000000005</v>
+        <v>5385129.708301132</v>
       </c>
       <c r="H156" t="n">
-        <v>3.94403333333333</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,36 +6060,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.951</v>
+        <v>3.936</v>
       </c>
       <c r="C157" t="n">
-        <v>3.951</v>
+        <v>3.936</v>
       </c>
       <c r="D157" t="n">
-        <v>3.951</v>
+        <v>3.936</v>
       </c>
       <c r="E157" t="n">
-        <v>3.951</v>
+        <v>3.936</v>
       </c>
       <c r="F157" t="n">
-        <v>65521.7176</v>
+        <v>322561.025</v>
       </c>
       <c r="G157" t="n">
-        <v>3.984533333333338</v>
+        <v>5707690.733301132</v>
       </c>
       <c r="H157" t="n">
-        <v>3.94513333333333</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,36 +6101,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.94</v>
+        <v>3.946</v>
       </c>
       <c r="C158" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="D158" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="E158" t="n">
-        <v>3.94</v>
+        <v>3.946</v>
       </c>
       <c r="F158" t="n">
-        <v>126840.7654</v>
+        <v>22905.7226</v>
       </c>
       <c r="G158" t="n">
-        <v>3.980333333333338</v>
+        <v>5730596.455901132</v>
       </c>
       <c r="H158" t="n">
-        <v>3.946049999999997</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,36 +6142,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.939</v>
+        <v>3.978</v>
       </c>
       <c r="C159" t="n">
-        <v>3.939</v>
+        <v>3.978</v>
       </c>
       <c r="D159" t="n">
-        <v>3.939</v>
+        <v>3.978</v>
       </c>
       <c r="E159" t="n">
-        <v>3.939</v>
+        <v>3.978</v>
       </c>
       <c r="F159" t="n">
-        <v>6484.9478</v>
+        <v>126</v>
       </c>
       <c r="G159" t="n">
-        <v>3.977133333333338</v>
+        <v>5730722.455901132</v>
       </c>
       <c r="H159" t="n">
-        <v>3.946949999999996</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,36 +6183,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.931</v>
+        <v>3.977</v>
       </c>
       <c r="C160" t="n">
-        <v>3.9</v>
+        <v>3.977</v>
       </c>
       <c r="D160" t="n">
-        <v>3.931</v>
+        <v>3.977</v>
       </c>
       <c r="E160" t="n">
-        <v>3.9</v>
+        <v>3.977</v>
       </c>
       <c r="F160" t="n">
-        <v>1875.0265</v>
+        <v>16836.339</v>
       </c>
       <c r="G160" t="n">
-        <v>3.971333333333338</v>
+        <v>5713886.116901132</v>
       </c>
       <c r="H160" t="n">
-        <v>3.947199999999996</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,36 +6224,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.89</v>
+        <v>3.978</v>
       </c>
       <c r="C161" t="n">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>3.89</v>
+        <v>3.978</v>
       </c>
       <c r="F161" t="n">
-        <v>437.0943</v>
+        <v>532898.0421</v>
       </c>
       <c r="G161" t="n">
-        <v>3.963800000000004</v>
+        <v>6246784.159001132</v>
       </c>
       <c r="H161" t="n">
-        <v>3.94728333333333</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,36 +6265,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>257.4743</v>
+        <v>7416.6259</v>
       </c>
       <c r="G162" t="n">
-        <v>3.955600000000004</v>
+        <v>6246784.159001132</v>
       </c>
       <c r="H162" t="n">
-        <v>3.947266666666663</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,36 +6306,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
-        <v>3.874</v>
+        <v>4.06</v>
       </c>
       <c r="D163" t="n">
-        <v>3.875</v>
+        <v>4.06</v>
       </c>
       <c r="E163" t="n">
-        <v>3.874</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>6277.6117</v>
+        <v>572588.374</v>
       </c>
       <c r="G163" t="n">
-        <v>3.946866666666671</v>
+        <v>6819372.533001132</v>
       </c>
       <c r="H163" t="n">
-        <v>3.94708333333333</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,40 +6347,39 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.87</v>
+        <v>4.071</v>
       </c>
       <c r="C164" t="n">
-        <v>3.87</v>
+        <v>4.071</v>
       </c>
       <c r="D164" t="n">
-        <v>3.87</v>
+        <v>4.071</v>
       </c>
       <c r="E164" t="n">
-        <v>3.87</v>
+        <v>4.071</v>
       </c>
       <c r="F164" t="n">
-        <v>41211.2074</v>
+        <v>123</v>
       </c>
       <c r="G164" t="n">
-        <v>3.937866666666671</v>
+        <v>6819495.533001132</v>
       </c>
       <c r="H164" t="n">
-        <v>3.94683333333333</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="L164" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6674,44 +6388,39 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.869</v>
+        <v>3.997</v>
       </c>
       <c r="C165" t="n">
-        <v>3.869</v>
+        <v>3.997</v>
       </c>
       <c r="D165" t="n">
-        <v>3.869</v>
+        <v>3.997</v>
       </c>
       <c r="E165" t="n">
-        <v>3.869</v>
+        <v>3.997</v>
       </c>
       <c r="F165" t="n">
-        <v>5053.1807</v>
+        <v>390889.6235</v>
       </c>
       <c r="G165" t="n">
-        <v>3.931133333333337</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H165" t="n">
-        <v>3.946949999999997</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L165" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,44 +6429,39 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.87</v>
+        <v>3.997</v>
       </c>
       <c r="C166" t="n">
-        <v>3.87</v>
+        <v>3.997</v>
       </c>
       <c r="D166" t="n">
-        <v>3.87</v>
+        <v>3.997</v>
       </c>
       <c r="E166" t="n">
-        <v>3.87</v>
+        <v>3.997</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0005</v>
+        <v>249.9375</v>
       </c>
       <c r="G166" t="n">
-        <v>3.922200000000004</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H166" t="n">
-        <v>3.94723333333333</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="L166" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,40 +6470,39 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.9</v>
+        <v>3.997</v>
       </c>
       <c r="C167" t="n">
-        <v>3.989</v>
+        <v>3.997</v>
       </c>
       <c r="D167" t="n">
-        <v>3.989</v>
+        <v>3.997</v>
       </c>
       <c r="E167" t="n">
-        <v>3.9</v>
+        <v>3.997</v>
       </c>
       <c r="F167" t="n">
-        <v>187416.558548859</v>
+        <v>19750.0625</v>
       </c>
       <c r="G167" t="n">
-        <v>3.924000000000004</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H167" t="n">
-        <v>3.948966666666664</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L167" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6808,42 +6511,39 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="C168" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="F168" t="n">
-        <v>40277.6285</v>
+        <v>13301.4738</v>
       </c>
       <c r="G168" t="n">
-        <v>3.918000000000004</v>
+        <v>6441907.383301132</v>
       </c>
       <c r="H168" t="n">
-        <v>3.949266666666664</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,42 +6552,39 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>3.903</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>8639.978499999999</v>
+        <v>597.273</v>
       </c>
       <c r="G169" t="n">
-        <v>3.912000000000003</v>
+        <v>6441907.383301132</v>
       </c>
       <c r="H169" t="n">
-        <v>3.949149999999997</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6896,36 +6593,39 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="C170" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="D170" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="E170" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="F170" t="n">
-        <v>22330</v>
+        <v>20000</v>
       </c>
       <c r="G170" t="n">
-        <v>3.910600000000003</v>
+        <v>6421907.383301132</v>
       </c>
       <c r="H170" t="n">
-        <v>3.949483333333331</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6934,36 +6634,39 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="C171" t="n">
-        <v>3.94</v>
+        <v>3.997</v>
       </c>
       <c r="D171" t="n">
-        <v>3.94</v>
+        <v>3.997</v>
       </c>
       <c r="E171" t="n">
-        <v>3.93</v>
+        <v>3.997</v>
       </c>
       <c r="F171" t="n">
-        <v>33057.6285</v>
+        <v>263345.8331</v>
       </c>
       <c r="G171" t="n">
-        <v>3.90986666666667</v>
+        <v>6421907.383301132</v>
       </c>
       <c r="H171" t="n">
-        <v>3.94998333333333</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,36 +6675,39 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.959</v>
+        <v>4.003</v>
       </c>
       <c r="C172" t="n">
-        <v>3.959</v>
+        <v>4.003</v>
       </c>
       <c r="D172" t="n">
-        <v>3.959</v>
+        <v>4.003</v>
       </c>
       <c r="E172" t="n">
-        <v>3.959</v>
+        <v>4.003</v>
       </c>
       <c r="F172" t="n">
-        <v>43770</v>
+        <v>300</v>
       </c>
       <c r="G172" t="n">
-        <v>3.910400000000003</v>
+        <v>6422207.383301132</v>
       </c>
       <c r="H172" t="n">
-        <v>3.950799999999997</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7010,36 +6716,39 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.969</v>
+        <v>4.003</v>
       </c>
       <c r="C173" t="n">
-        <v>3.969</v>
+        <v>3.987</v>
       </c>
       <c r="D173" t="n">
-        <v>3.969</v>
+        <v>4.003</v>
       </c>
       <c r="E173" t="n">
-        <v>3.969</v>
+        <v>3.987</v>
       </c>
       <c r="F173" t="n">
-        <v>59354.8386</v>
+        <v>46932.5644</v>
       </c>
       <c r="G173" t="n">
-        <v>3.912333333333337</v>
+        <v>6375274.818901133</v>
       </c>
       <c r="H173" t="n">
-        <v>3.951349999999997</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,36 +6757,1234 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11709.7581</v>
+      </c>
+      <c r="G174" t="n">
+        <v>6375274.818901133</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="F175" t="n">
+        <v>159403.3455</v>
+      </c>
+      <c r="G175" t="n">
+        <v>6534678.164401133</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="F176" t="n">
+        <v>26589.3485</v>
+      </c>
+      <c r="G176" t="n">
+        <v>6534678.164401133</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20561.4454</v>
+      </c>
+      <c r="G177" t="n">
+        <v>6555239.609801132</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13288.0345</v>
+      </c>
+      <c r="G178" t="n">
+        <v>6555239.609801132</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="C179" t="n">
         <v>3.97</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D179" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="E179" t="n">
         <v>3.97</v>
       </c>
-      <c r="D174" t="n">
+      <c r="F179" t="n">
+        <v>22956.2318</v>
+      </c>
+      <c r="G179" t="n">
+        <v>6532283.378001132</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="F180" t="n">
+        <v>6645.6772</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6538929.055201132</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="F181" t="n">
+        <v>66816.5053</v>
+      </c>
+      <c r="G181" t="n">
+        <v>6472112.549901132</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6528.8806</v>
+      </c>
+      <c r="G182" t="n">
+        <v>6478641.430501131</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2501</v>
+      </c>
+      <c r="G183" t="n">
+        <v>6478641.430501131</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F184" t="n">
+        <v>20561.4454</v>
+      </c>
+      <c r="G184" t="n">
+        <v>6458079.985101132</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24252.9649</v>
+      </c>
+      <c r="G185" t="n">
+        <v>6458079.985101132</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F186" t="n">
+        <v>65521.7176</v>
+      </c>
+      <c r="G186" t="n">
+        <v>6458079.985101132</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F187" t="n">
+        <v>126840.7654</v>
+      </c>
+      <c r="G187" t="n">
+        <v>6331239.219701132</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6484.9478</v>
+      </c>
+      <c r="G188" t="n">
+        <v>6324754.271901132</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1875.0265</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6322879.245401132</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F190" t="n">
+        <v>437.0943</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6322442.151101132</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F191" t="n">
+        <v>257.4743</v>
+      </c>
+      <c r="G191" t="n">
+        <v>6322184.676801132</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6277.6117</v>
+      </c>
+      <c r="G192" t="n">
+        <v>6315907.065101132</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F193" t="n">
+        <v>41211.2074</v>
+      </c>
+      <c r="G193" t="n">
+        <v>6274695.857701132</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5053.1807</v>
+      </c>
+      <c r="G194" t="n">
+        <v>6269642.677001132</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6269642.677501132</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>187416.558548859</v>
+      </c>
+      <c r="G196" t="n">
+        <v>6457059.236049991</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="F197" t="n">
+        <v>40277.6285</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6416781.607549991</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8639.978499999999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6416781.607549991</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F199" t="n">
+        <v>22330</v>
+      </c>
+      <c r="G199" t="n">
+        <v>6439111.607549991</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F200" t="n">
+        <v>33057.6285</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6472169.236049991</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="F201" t="n">
+        <v>43770</v>
+      </c>
+      <c r="G201" t="n">
+        <v>6515939.236049991</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="F202" t="n">
+        <v>59354.8386</v>
+      </c>
+      <c r="G202" t="n">
+        <v>6575294.074649991</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>3.97</v>
       </c>
-      <c r="E174" t="n">
+      <c r="C203" t="n">
         <v>3.97</v>
       </c>
-      <c r="F174" t="n">
+      <c r="D203" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F203" t="n">
         <v>62947.6736</v>
       </c>
-      <c r="G174" t="n">
-        <v>3.914400000000003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>3.952349999999997</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+      <c r="G203" t="n">
+        <v>6638241.748249992</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.124</v>
+        <v>3.993</v>
       </c>
       <c r="C2" t="n">
-        <v>4.124</v>
+        <v>3.991</v>
       </c>
       <c r="D2" t="n">
-        <v>4.124</v>
+        <v>3.993</v>
       </c>
       <c r="E2" t="n">
-        <v>4.124</v>
+        <v>3.991</v>
       </c>
       <c r="F2" t="n">
-        <v>242.2406</v>
+        <v>1247.0922</v>
       </c>
       <c r="G2" t="n">
-        <v>5366488.00277584</v>
+        <v>5553678.46577584</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.119</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>4.119</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>232.5984</v>
+        <v>22710.7256</v>
       </c>
       <c r="G3" t="n">
-        <v>5366255.40437584</v>
+        <v>5576389.19137584</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.115</v>
+        <v>3.998</v>
       </c>
       <c r="C4" t="n">
-        <v>4.115</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.115</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>4.115</v>
+        <v>3.998</v>
       </c>
       <c r="F4" t="n">
-        <v>232.4984</v>
+        <v>289999.1838</v>
       </c>
       <c r="G4" t="n">
-        <v>5366022.90597584</v>
+        <v>5576389.19137584</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.086</v>
+        <v>3.962</v>
       </c>
       <c r="C5" t="n">
-        <v>4.086</v>
+        <v>3.962</v>
       </c>
       <c r="D5" t="n">
-        <v>4.086</v>
+        <v>3.962</v>
       </c>
       <c r="E5" t="n">
-        <v>4.086</v>
+        <v>3.962</v>
       </c>
       <c r="F5" t="n">
-        <v>129.7734</v>
+        <v>384089.4108</v>
       </c>
       <c r="G5" t="n">
-        <v>5365893.13257584</v>
+        <v>5192299.78057584</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.085</v>
+        <v>3.961</v>
       </c>
       <c r="C6" t="n">
-        <v>4.085</v>
+        <v>3.909</v>
       </c>
       <c r="D6" t="n">
-        <v>4.085</v>
+        <v>3.961</v>
       </c>
       <c r="E6" t="n">
-        <v>4.085</v>
+        <v>3.909</v>
       </c>
       <c r="F6" t="n">
-        <v>34424.3995</v>
+        <v>275555.2954</v>
       </c>
       <c r="G6" t="n">
-        <v>5331468.733075839</v>
+        <v>4916744.48517584</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.086</v>
+        <v>3.921</v>
       </c>
       <c r="C7" t="n">
-        <v>4.1</v>
+        <v>3.921</v>
       </c>
       <c r="D7" t="n">
-        <v>4.1</v>
+        <v>3.921</v>
       </c>
       <c r="E7" t="n">
-        <v>4.086</v>
+        <v>3.921</v>
       </c>
       <c r="F7" t="n">
-        <v>121587.966109756</v>
+        <v>10611.6972</v>
       </c>
       <c r="G7" t="n">
-        <v>5453056.699185596</v>
+        <v>4927356.18237584</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.1</v>
+        <v>3.909</v>
       </c>
       <c r="C8" t="n">
-        <v>4.119</v>
+        <v>3.909</v>
       </c>
       <c r="D8" t="n">
-        <v>4.12</v>
+        <v>3.909</v>
       </c>
       <c r="E8" t="n">
-        <v>4.1</v>
+        <v>3.909</v>
       </c>
       <c r="F8" t="n">
-        <v>185568.713790244</v>
+        <v>22710.7256</v>
       </c>
       <c r="G8" t="n">
-        <v>5638625.41297584</v>
+        <v>4904645.45677584</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.12</v>
+        <v>3.921</v>
       </c>
       <c r="C9" t="n">
-        <v>4.12</v>
+        <v>3.921</v>
       </c>
       <c r="D9" t="n">
-        <v>4.12</v>
+        <v>3.921</v>
       </c>
       <c r="E9" t="n">
-        <v>4.12</v>
+        <v>3.921</v>
       </c>
       <c r="F9" t="n">
-        <v>14206.4253</v>
+        <v>15021.696</v>
       </c>
       <c r="G9" t="n">
-        <v>5652831.838275841</v>
+        <v>4919667.152775841</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.124</v>
+        <v>3.961</v>
       </c>
       <c r="C10" t="n">
-        <v>4.126</v>
+        <v>3.961</v>
       </c>
       <c r="D10" t="n">
-        <v>4.126</v>
+        <v>3.961</v>
       </c>
       <c r="E10" t="n">
-        <v>4.124</v>
+        <v>3.961</v>
       </c>
       <c r="F10" t="n">
-        <v>54740.0472</v>
+        <v>127</v>
       </c>
       <c r="G10" t="n">
-        <v>5707571.88547584</v>
+        <v>4919794.152775841</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.126</v>
+        <v>3.961</v>
       </c>
       <c r="C11" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="D11" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="E11" t="n">
-        <v>4.126</v>
+        <v>3.961</v>
       </c>
       <c r="F11" t="n">
-        <v>4651.0988</v>
+        <v>525998.6935000001</v>
       </c>
       <c r="G11" t="n">
-        <v>5707571.88547584</v>
+        <v>5445792.846275841</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="C12" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="D12" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="E12" t="n">
-        <v>4.126</v>
+        <v>3.968</v>
       </c>
       <c r="F12" t="n">
-        <v>11732.2616</v>
+        <v>76646.40519999999</v>
       </c>
       <c r="G12" t="n">
-        <v>5707571.88547584</v>
+        <v>5445792.846275841</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="C13" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="D13" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="E13" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>126</v>
       </c>
       <c r="G13" t="n">
-        <v>5677571.88547584</v>
+        <v>5445918.846275841</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="C14" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="D14" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="E14" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="F14" t="n">
-        <v>15591.6809</v>
+        <v>80964.62669999999</v>
       </c>
       <c r="G14" t="n">
-        <v>5677571.88547584</v>
+        <v>5364954.219575841</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="C15" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="D15" t="n">
-        <v>4.123</v>
+        <v>3.971</v>
       </c>
       <c r="E15" t="n">
-        <v>4.123</v>
+        <v>3.969</v>
       </c>
       <c r="F15" t="n">
-        <v>44619.5966</v>
+        <v>529100.5292</v>
       </c>
       <c r="G15" t="n">
-        <v>5677571.88547584</v>
+        <v>5894054.748775841</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.087</v>
+        <v>3.971</v>
       </c>
       <c r="C16" t="n">
-        <v>4.086</v>
+        <v>3.971</v>
       </c>
       <c r="D16" t="n">
-        <v>4.087</v>
+        <v>3.971</v>
       </c>
       <c r="E16" t="n">
-        <v>4.086</v>
+        <v>3.971</v>
       </c>
       <c r="F16" t="n">
-        <v>11847.464</v>
+        <v>125598.8711</v>
       </c>
       <c r="G16" t="n">
-        <v>5665724.421475841</v>
+        <v>5894054.748775841</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.125</v>
+        <v>3.935</v>
       </c>
       <c r="C17" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="D17" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="E17" t="n">
-        <v>4.125</v>
+        <v>3.935</v>
       </c>
       <c r="F17" t="n">
-        <v>205887.8012</v>
+        <v>8880</v>
       </c>
       <c r="G17" t="n">
-        <v>5871612.22267584</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="C18" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="D18" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="E18" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="F18" t="n">
-        <v>90751.2861</v>
+        <v>81664.44869999999</v>
       </c>
       <c r="G18" t="n">
-        <v>5871612.22267584</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="C19" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="D19" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="E19" t="n">
-        <v>4.13</v>
+        <v>3.935</v>
       </c>
       <c r="F19" t="n">
-        <v>190450.5783</v>
+        <v>13185.65</v>
       </c>
       <c r="G19" t="n">
-        <v>5871612.22267584</v>
+        <v>5885174.748775841</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.085</v>
+        <v>3.961</v>
       </c>
       <c r="C20" t="n">
-        <v>4.085</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>4.085</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>4.085</v>
+        <v>3.961</v>
       </c>
       <c r="F20" t="n">
-        <v>244.5533</v>
+        <v>858740.5060000001</v>
       </c>
       <c r="G20" t="n">
-        <v>5871367.669375841</v>
+        <v>6743915.254775841</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.084</v>
+        <v>3.998</v>
       </c>
       <c r="C21" t="n">
-        <v>4.084</v>
+        <v>3.998</v>
       </c>
       <c r="D21" t="n">
-        <v>4.084</v>
+        <v>3.998</v>
       </c>
       <c r="E21" t="n">
-        <v>4.084</v>
+        <v>3.998</v>
       </c>
       <c r="F21" t="n">
-        <v>3501.6571</v>
+        <v>57516.3039</v>
       </c>
       <c r="G21" t="n">
-        <v>5867866.01227584</v>
+        <v>6686398.950875841</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.085</v>
+        <v>3.999</v>
       </c>
       <c r="C22" t="n">
-        <v>4.085</v>
+        <v>3.999</v>
       </c>
       <c r="D22" t="n">
-        <v>4.085</v>
+        <v>3.999</v>
       </c>
       <c r="E22" t="n">
-        <v>4.085</v>
+        <v>3.999</v>
       </c>
       <c r="F22" t="n">
-        <v>112080.5038</v>
+        <v>1521.2331</v>
       </c>
       <c r="G22" t="n">
-        <v>5979946.51607584</v>
+        <v>6687920.183975841</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.085</v>
+        <v>3.998</v>
       </c>
       <c r="C23" t="n">
-        <v>4.085</v>
+        <v>3.952</v>
       </c>
       <c r="D23" t="n">
-        <v>4.085</v>
+        <v>3.998</v>
       </c>
       <c r="E23" t="n">
-        <v>4.085</v>
+        <v>3.952</v>
       </c>
       <c r="F23" t="n">
-        <v>66441.19010000001</v>
+        <v>157715.3513</v>
       </c>
       <c r="G23" t="n">
-        <v>5979946.51607584</v>
+        <v>6530204.832675841</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.085</v>
+        <v>3.93</v>
       </c>
       <c r="C24" t="n">
-        <v>4.085</v>
+        <v>3.93</v>
       </c>
       <c r="D24" t="n">
-        <v>4.085</v>
+        <v>3.93</v>
       </c>
       <c r="E24" t="n">
-        <v>4.085</v>
+        <v>3.93</v>
       </c>
       <c r="F24" t="n">
-        <v>66441.19010000001</v>
+        <v>8880</v>
       </c>
       <c r="G24" t="n">
-        <v>5979946.51607584</v>
+        <v>6521324.832675841</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="C25" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="D25" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="E25" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="F25" t="n">
-        <v>90211.2775</v>
+        <v>16793.0306</v>
       </c>
       <c r="G25" t="n">
-        <v>5979946.51607584</v>
+        <v>6504531.802075841</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="C26" t="n">
-        <v>4.085</v>
+        <v>3.916</v>
       </c>
       <c r="D26" t="n">
-        <v>4.085</v>
+        <v>3.925</v>
       </c>
       <c r="E26" t="n">
-        <v>4.085</v>
+        <v>3.916</v>
       </c>
       <c r="F26" t="n">
-        <v>32102.6815</v>
+        <v>212127.9309</v>
       </c>
       <c r="G26" t="n">
-        <v>5979946.51607584</v>
+        <v>6292403.87117584</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.084</v>
+        <v>3.969</v>
       </c>
       <c r="C27" t="n">
-        <v>4.084</v>
+        <v>3.958</v>
       </c>
       <c r="D27" t="n">
-        <v>4.084</v>
+        <v>3.969</v>
       </c>
       <c r="E27" t="n">
-        <v>4.084</v>
+        <v>3.958</v>
       </c>
       <c r="F27" t="n">
-        <v>9901.305700000001</v>
+        <v>56332.9646</v>
       </c>
       <c r="G27" t="n">
-        <v>5970045.21037584</v>
+        <v>6348736.83577584</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.076</v>
+        <v>3.969</v>
       </c>
       <c r="C28" t="n">
-        <v>4.076</v>
+        <v>3.979</v>
       </c>
       <c r="D28" t="n">
-        <v>4.076</v>
+        <v>3.979</v>
       </c>
       <c r="E28" t="n">
-        <v>4.076</v>
+        <v>3.969</v>
       </c>
       <c r="F28" t="n">
-        <v>28991.1017</v>
+        <v>91830.0488</v>
       </c>
       <c r="G28" t="n">
-        <v>5941054.108675839</v>
+        <v>6440566.88457584</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.076</v>
+        <v>3.99</v>
       </c>
       <c r="C29" t="n">
-        <v>4.076</v>
+        <v>3.999</v>
       </c>
       <c r="D29" t="n">
-        <v>4.076</v>
+        <v>3.999</v>
       </c>
       <c r="E29" t="n">
-        <v>4.076</v>
+        <v>3.99</v>
       </c>
       <c r="F29" t="n">
-        <v>114671</v>
+        <v>96247.63920000001</v>
       </c>
       <c r="G29" t="n">
-        <v>5941054.108675839</v>
+        <v>6536814.52377584</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.075</v>
+        <v>3.999</v>
       </c>
       <c r="C30" t="n">
-        <v>4.075</v>
+        <v>3.99</v>
       </c>
       <c r="D30" t="n">
-        <v>4.075</v>
+        <v>3.999</v>
       </c>
       <c r="E30" t="n">
-        <v>4.075</v>
+        <v>3.99</v>
       </c>
       <c r="F30" t="n">
-        <v>50000</v>
+        <v>10214.0881</v>
       </c>
       <c r="G30" t="n">
-        <v>5891054.108675839</v>
+        <v>6526600.43567584</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.075</v>
+        <v>3.999</v>
       </c>
       <c r="C31" t="n">
-        <v>4.065</v>
+        <v>3.999</v>
       </c>
       <c r="D31" t="n">
-        <v>4.075</v>
+        <v>3.999</v>
       </c>
       <c r="E31" t="n">
-        <v>4.065</v>
+        <v>3.999</v>
       </c>
       <c r="F31" t="n">
-        <v>451.6743</v>
+        <v>26460.8543</v>
       </c>
       <c r="G31" t="n">
-        <v>5890602.434375839</v>
+        <v>6553061.28997584</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.065</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>4.004</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>4.065</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>4.004</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>6000</v>
+        <v>238090.3989</v>
       </c>
       <c r="G32" t="n">
-        <v>5884602.434375839</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.005</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4.005</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4.005</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>4.005</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>4872.7106</v>
+        <v>10138.75</v>
       </c>
       <c r="G33" t="n">
-        <v>5889475.144975839</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>222224.993</v>
+        <v>93610.4276</v>
       </c>
       <c r="G34" t="n">
-        <v>6111700.137975839</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>16257</v>
+        <v>138776.9276</v>
       </c>
       <c r="G35" t="n">
-        <v>6111700.137975839</v>
+        <v>6791151.68887584</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.007</v>
+        <v>3.99</v>
       </c>
       <c r="C36" t="n">
-        <v>4.006</v>
+        <v>3.99</v>
       </c>
       <c r="D36" t="n">
-        <v>4.007</v>
+        <v>3.99</v>
       </c>
       <c r="E36" t="n">
-        <v>4.006</v>
+        <v>3.99</v>
       </c>
       <c r="F36" t="n">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="G36" t="n">
-        <v>6011700.137975839</v>
+        <v>6790851.68887584</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>4.033</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>4.033</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>4.008</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>61818.1134</v>
+        <v>89931.67140000001</v>
       </c>
       <c r="G37" t="n">
-        <v>6073518.251375839</v>
+        <v>6880783.36027584</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.044</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>4.044</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>4.044</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>4.044</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>55102.2278</v>
+        <v>267719.5461</v>
       </c>
       <c r="G38" t="n">
-        <v>6128620.47917584</v>
+        <v>6880783.36027584</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.042</v>
+        <v>3.99</v>
       </c>
       <c r="C39" t="n">
-        <v>4.043</v>
+        <v>3.99</v>
       </c>
       <c r="D39" t="n">
-        <v>4.043</v>
+        <v>3.99</v>
       </c>
       <c r="E39" t="n">
-        <v>4.042</v>
+        <v>3.99</v>
       </c>
       <c r="F39" t="n">
-        <v>100000</v>
+        <v>20152.6203</v>
       </c>
       <c r="G39" t="n">
-        <v>6028620.47917584</v>
+        <v>6860630.739975841</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.016</v>
+        <v>3.99</v>
       </c>
       <c r="C40" t="n">
-        <v>4.006</v>
+        <v>3.99</v>
       </c>
       <c r="D40" t="n">
-        <v>4.016</v>
+        <v>3.99</v>
       </c>
       <c r="E40" t="n">
-        <v>4.006</v>
+        <v>3.99</v>
       </c>
       <c r="F40" t="n">
-        <v>100000</v>
+        <v>50125.3133</v>
       </c>
       <c r="G40" t="n">
-        <v>5928620.47917584</v>
+        <v>6860630.739975841</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.014</v>
+        <v>3.963</v>
       </c>
       <c r="C41" t="n">
-        <v>3.995</v>
+        <v>3.953</v>
       </c>
       <c r="D41" t="n">
-        <v>4.014</v>
+        <v>3.963</v>
       </c>
       <c r="E41" t="n">
-        <v>3.995</v>
+        <v>3.953</v>
       </c>
       <c r="F41" t="n">
-        <v>374444.796</v>
+        <v>166035.7434</v>
       </c>
       <c r="G41" t="n">
-        <v>5554175.683175839</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.033</v>
+        <v>3.953</v>
       </c>
       <c r="C42" t="n">
-        <v>4.033</v>
+        <v>3.953</v>
       </c>
       <c r="D42" t="n">
-        <v>4.033</v>
+        <v>3.953</v>
       </c>
       <c r="E42" t="n">
-        <v>4.033</v>
+        <v>3.953</v>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G42" t="n">
-        <v>5555175.683175839</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.994</v>
+        <v>3.953</v>
       </c>
       <c r="C43" t="n">
-        <v>3.994</v>
+        <v>3.953</v>
       </c>
       <c r="D43" t="n">
-        <v>3.994</v>
+        <v>3.953</v>
       </c>
       <c r="E43" t="n">
-        <v>3.994</v>
+        <v>3.953</v>
       </c>
       <c r="F43" t="n">
-        <v>250.1252</v>
+        <v>150000</v>
       </c>
       <c r="G43" t="n">
-        <v>5554925.55797584</v>
+        <v>6694594.996575841</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.993</v>
+        <v>3.952</v>
       </c>
       <c r="C44" t="n">
-        <v>3.991</v>
+        <v>3.931</v>
       </c>
       <c r="D44" t="n">
-        <v>3.993</v>
+        <v>3.952</v>
       </c>
       <c r="E44" t="n">
-        <v>3.991</v>
+        <v>3.931</v>
       </c>
       <c r="F44" t="n">
-        <v>1247.0922</v>
+        <v>79484.6023</v>
       </c>
       <c r="G44" t="n">
-        <v>5553678.46577584</v>
+        <v>6615110.39427584</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3.931</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3.931</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3.931</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3.931</v>
       </c>
       <c r="F45" t="n">
-        <v>22710.7256</v>
+        <v>137265.7151</v>
       </c>
       <c r="G45" t="n">
-        <v>5576389.19137584</v>
+        <v>6615110.39427584</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.998</v>
+        <v>3.931</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3.921</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>3.931</v>
       </c>
       <c r="E46" t="n">
-        <v>3.998</v>
+        <v>3.921</v>
       </c>
       <c r="F46" t="n">
-        <v>289999.1838</v>
+        <v>9484.781999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>5576389.19137584</v>
+        <v>6605625.612275841</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.962</v>
+        <v>3.925</v>
       </c>
       <c r="C47" t="n">
-        <v>3.962</v>
+        <v>3.925</v>
       </c>
       <c r="D47" t="n">
-        <v>3.962</v>
+        <v>3.925</v>
       </c>
       <c r="E47" t="n">
-        <v>3.962</v>
+        <v>3.925</v>
       </c>
       <c r="F47" t="n">
-        <v>384089.4108</v>
+        <v>9230</v>
       </c>
       <c r="G47" t="n">
-        <v>5192299.78057584</v>
+        <v>6614855.612275841</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.961</v>
+        <v>3.915</v>
       </c>
       <c r="C48" t="n">
-        <v>3.909</v>
+        <v>3.91</v>
       </c>
       <c r="D48" t="n">
-        <v>3.961</v>
+        <v>3.915</v>
       </c>
       <c r="E48" t="n">
-        <v>3.909</v>
+        <v>3.91</v>
       </c>
       <c r="F48" t="n">
-        <v>275555.2954</v>
+        <v>366396.9802</v>
       </c>
       <c r="G48" t="n">
-        <v>4916744.48517584</v>
+        <v>6248458.632075841</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="C49" t="n">
-        <v>3.921</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="n">
-        <v>3.921</v>
+        <v>3.909</v>
       </c>
       <c r="E49" t="n">
-        <v>3.921</v>
+        <v>3.9</v>
       </c>
       <c r="F49" t="n">
-        <v>10611.6972</v>
+        <v>598003.6822</v>
       </c>
       <c r="G49" t="n">
-        <v>4927356.18237584</v>
+        <v>5650454.949875841</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.909</v>
+        <v>3.877</v>
       </c>
       <c r="C50" t="n">
-        <v>3.909</v>
+        <v>3.877</v>
       </c>
       <c r="D50" t="n">
-        <v>3.909</v>
+        <v>3.877</v>
       </c>
       <c r="E50" t="n">
-        <v>3.909</v>
+        <v>3.877</v>
       </c>
       <c r="F50" t="n">
-        <v>22710.7256</v>
+        <v>257.6735</v>
       </c>
       <c r="G50" t="n">
-        <v>4904645.45677584</v>
+        <v>5650197.276375841</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.921</v>
+        <v>3.876</v>
       </c>
       <c r="C51" t="n">
-        <v>3.921</v>
+        <v>3.874</v>
       </c>
       <c r="D51" t="n">
-        <v>3.921</v>
+        <v>3.876</v>
       </c>
       <c r="E51" t="n">
-        <v>3.921</v>
+        <v>3.874</v>
       </c>
       <c r="F51" t="n">
-        <v>15021.696</v>
+        <v>82901.099</v>
       </c>
       <c r="G51" t="n">
-        <v>4919667.152775841</v>
+        <v>5567296.177375841</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.961</v>
+        <v>3.871</v>
       </c>
       <c r="C52" t="n">
-        <v>3.961</v>
+        <v>3.867</v>
       </c>
       <c r="D52" t="n">
-        <v>3.961</v>
+        <v>3.871</v>
       </c>
       <c r="E52" t="n">
-        <v>3.961</v>
+        <v>3.867</v>
       </c>
       <c r="F52" t="n">
-        <v>127</v>
+        <v>228433.315</v>
       </c>
       <c r="G52" t="n">
-        <v>4919794.152775841</v>
+        <v>5338862.862375841</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.961</v>
+        <v>3.866</v>
       </c>
       <c r="C53" t="n">
-        <v>3.968</v>
+        <v>3.866</v>
       </c>
       <c r="D53" t="n">
-        <v>3.968</v>
+        <v>3.866</v>
       </c>
       <c r="E53" t="n">
-        <v>3.961</v>
+        <v>3.866</v>
       </c>
       <c r="F53" t="n">
-        <v>525998.6935000001</v>
+        <v>300000</v>
       </c>
       <c r="G53" t="n">
-        <v>5445792.846275841</v>
+        <v>5038862.862375841</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.968</v>
+        <v>3.882</v>
       </c>
       <c r="C54" t="n">
-        <v>3.968</v>
+        <v>3.882</v>
       </c>
       <c r="D54" t="n">
-        <v>3.968</v>
+        <v>3.882</v>
       </c>
       <c r="E54" t="n">
-        <v>3.968</v>
+        <v>3.882</v>
       </c>
       <c r="F54" t="n">
-        <v>76646.40519999999</v>
+        <v>64351.4063</v>
       </c>
       <c r="G54" t="n">
-        <v>5445792.846275841</v>
+        <v>5103214.26867584</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.971</v>
+        <v>3.882</v>
       </c>
       <c r="C55" t="n">
-        <v>3.971</v>
+        <v>3.882</v>
       </c>
       <c r="D55" t="n">
-        <v>3.971</v>
+        <v>3.882</v>
       </c>
       <c r="E55" t="n">
-        <v>3.971</v>
+        <v>3.882</v>
       </c>
       <c r="F55" t="n">
-        <v>126</v>
+        <v>51034.7181</v>
       </c>
       <c r="G55" t="n">
-        <v>5445918.846275841</v>
+        <v>5103214.26867584</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.969</v>
+        <v>3.929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.969</v>
+        <v>3.929</v>
       </c>
       <c r="D56" t="n">
-        <v>3.969</v>
+        <v>3.929</v>
       </c>
       <c r="E56" t="n">
-        <v>3.969</v>
+        <v>3.929</v>
       </c>
       <c r="F56" t="n">
-        <v>80964.62669999999</v>
+        <v>78000</v>
       </c>
       <c r="G56" t="n">
-        <v>5364954.219575841</v>
+        <v>5181214.26867584</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.969</v>
+        <v>3.892</v>
       </c>
       <c r="C57" t="n">
-        <v>3.971</v>
+        <v>3.892</v>
       </c>
       <c r="D57" t="n">
-        <v>3.971</v>
+        <v>3.892</v>
       </c>
       <c r="E57" t="n">
-        <v>3.969</v>
+        <v>3.892</v>
       </c>
       <c r="F57" t="n">
-        <v>529100.5292</v>
+        <v>4812.8102</v>
       </c>
       <c r="G57" t="n">
-        <v>5894054.748775841</v>
+        <v>5176401.45847584</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.971</v>
+        <v>3.892</v>
       </c>
       <c r="C58" t="n">
-        <v>3.971</v>
+        <v>3.862</v>
       </c>
       <c r="D58" t="n">
-        <v>3.971</v>
+        <v>3.892</v>
       </c>
       <c r="E58" t="n">
-        <v>3.971</v>
+        <v>3.862</v>
       </c>
       <c r="F58" t="n">
-        <v>125598.8711</v>
+        <v>138776.9276</v>
       </c>
       <c r="G58" t="n">
-        <v>5894054.748775841</v>
+        <v>5037624.53087584</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,63 +2483,69 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.935</v>
+        <v>3.95</v>
       </c>
       <c r="C59" t="n">
-        <v>3.935</v>
+        <v>3.958</v>
       </c>
       <c r="D59" t="n">
-        <v>3.935</v>
+        <v>3.958</v>
       </c>
       <c r="E59" t="n">
-        <v>3.935</v>
+        <v>3.95</v>
       </c>
       <c r="F59" t="n">
-        <v>8880</v>
+        <v>78108.43150000001</v>
       </c>
       <c r="G59" t="n">
-        <v>5885174.748775841</v>
+        <v>5115732.96237584</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.862</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.935</v>
+        <v>3.977</v>
       </c>
       <c r="C60" t="n">
-        <v>3.935</v>
+        <v>3.977</v>
       </c>
       <c r="D60" t="n">
-        <v>3.935</v>
+        <v>3.977</v>
       </c>
       <c r="E60" t="n">
-        <v>3.935</v>
+        <v>3.977</v>
       </c>
       <c r="F60" t="n">
-        <v>81664.44869999999</v>
+        <v>125387.797</v>
       </c>
       <c r="G60" t="n">
-        <v>5885174.748775841</v>
+        <v>5241120.75937584</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2554,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.935</v>
+        <v>3.969</v>
       </c>
       <c r="C61" t="n">
-        <v>3.935</v>
+        <v>3.969</v>
       </c>
       <c r="D61" t="n">
-        <v>3.935</v>
+        <v>3.969</v>
       </c>
       <c r="E61" t="n">
-        <v>3.935</v>
+        <v>3.969</v>
       </c>
       <c r="F61" t="n">
-        <v>13185.65</v>
+        <v>28800</v>
       </c>
       <c r="G61" t="n">
-        <v>5885174.748775841</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2596,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.961</v>
+        <v>3.959</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="E62" t="n">
-        <v>3.961</v>
+        <v>3.959</v>
       </c>
       <c r="F62" t="n">
-        <v>858740.5060000001</v>
+        <v>18137.3806</v>
       </c>
       <c r="G62" t="n">
-        <v>6743915.254775841</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2643,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.998</v>
+        <v>3.969</v>
       </c>
       <c r="C63" t="n">
-        <v>3.998</v>
+        <v>3.969</v>
       </c>
       <c r="D63" t="n">
-        <v>3.998</v>
+        <v>3.969</v>
       </c>
       <c r="E63" t="n">
-        <v>3.998</v>
+        <v>3.969</v>
       </c>
       <c r="F63" t="n">
-        <v>57516.3039</v>
+        <v>111658.1647</v>
       </c>
       <c r="G63" t="n">
-        <v>6686398.950875841</v>
+        <v>5212320.75937584</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2679,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.999</v>
+        <v>3.989</v>
       </c>
       <c r="C64" t="n">
-        <v>3.999</v>
+        <v>3.989</v>
       </c>
       <c r="D64" t="n">
-        <v>3.999</v>
+        <v>3.989</v>
       </c>
       <c r="E64" t="n">
-        <v>3.999</v>
+        <v>3.989</v>
       </c>
       <c r="F64" t="n">
-        <v>1521.2331</v>
+        <v>127110.2314</v>
       </c>
       <c r="G64" t="n">
-        <v>6687920.183975841</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2715,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.998</v>
+        <v>3.989</v>
       </c>
       <c r="C65" t="n">
-        <v>3.952</v>
+        <v>3.989</v>
       </c>
       <c r="D65" t="n">
-        <v>3.998</v>
+        <v>3.989</v>
       </c>
       <c r="E65" t="n">
-        <v>3.952</v>
+        <v>3.989</v>
       </c>
       <c r="F65" t="n">
-        <v>157715.3513</v>
+        <v>125032.0826</v>
       </c>
       <c r="G65" t="n">
-        <v>6530204.832675841</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2751,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.93</v>
+        <v>3.989</v>
       </c>
       <c r="C66" t="n">
-        <v>3.93</v>
+        <v>3.989</v>
       </c>
       <c r="D66" t="n">
-        <v>3.93</v>
+        <v>3.989</v>
       </c>
       <c r="E66" t="n">
-        <v>3.93</v>
+        <v>3.989</v>
       </c>
       <c r="F66" t="n">
-        <v>8880</v>
+        <v>13526.7871</v>
       </c>
       <c r="G66" t="n">
-        <v>6521324.832675841</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2787,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.925</v>
+        <v>3.989</v>
       </c>
       <c r="C67" t="n">
-        <v>3.925</v>
+        <v>3.989</v>
       </c>
       <c r="D67" t="n">
-        <v>3.925</v>
+        <v>3.989</v>
       </c>
       <c r="E67" t="n">
-        <v>3.925</v>
+        <v>3.989</v>
       </c>
       <c r="F67" t="n">
-        <v>16793.0306</v>
+        <v>18633.3483</v>
       </c>
       <c r="G67" t="n">
-        <v>6504531.802075841</v>
+        <v>5339430.99077584</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2823,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.925</v>
+        <v>3.98</v>
       </c>
       <c r="C68" t="n">
-        <v>3.916</v>
+        <v>4.003</v>
       </c>
       <c r="D68" t="n">
-        <v>3.925</v>
+        <v>4.003</v>
       </c>
       <c r="E68" t="n">
-        <v>3.916</v>
+        <v>3.98</v>
       </c>
       <c r="F68" t="n">
-        <v>212127.9309</v>
+        <v>425.7332</v>
       </c>
       <c r="G68" t="n">
-        <v>6292403.87117584</v>
+        <v>5339856.72397584</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2859,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C69" t="n">
         <v>3.969</v>
       </c>
-      <c r="C69" t="n">
-        <v>3.958</v>
-      </c>
       <c r="D69" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E69" t="n">
         <v>3.969</v>
       </c>
-      <c r="E69" t="n">
-        <v>3.958</v>
-      </c>
       <c r="F69" t="n">
-        <v>56332.9646</v>
+        <v>17870.8935</v>
       </c>
       <c r="G69" t="n">
-        <v>6348736.83577584</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2816,19 +2905,19 @@
         <v>3.969</v>
       </c>
       <c r="C70" t="n">
-        <v>3.979</v>
+        <v>3.969</v>
       </c>
       <c r="D70" t="n">
-        <v>3.979</v>
+        <v>3.969</v>
       </c>
       <c r="E70" t="n">
         <v>3.969</v>
       </c>
       <c r="F70" t="n">
-        <v>91830.0488</v>
+        <v>127110.2314</v>
       </c>
       <c r="G70" t="n">
-        <v>6440566.88457584</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2931,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.99</v>
+        <v>3.969</v>
       </c>
       <c r="C71" t="n">
-        <v>3.999</v>
+        <v>3.969</v>
       </c>
       <c r="D71" t="n">
-        <v>3.999</v>
+        <v>3.969</v>
       </c>
       <c r="E71" t="n">
-        <v>3.99</v>
+        <v>3.969</v>
       </c>
       <c r="F71" t="n">
-        <v>96247.63920000001</v>
+        <v>4498.2007</v>
       </c>
       <c r="G71" t="n">
-        <v>6536814.52377584</v>
+        <v>5321985.83047584</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2967,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.999</v>
+        <v>3.992</v>
       </c>
       <c r="C72" t="n">
-        <v>3.99</v>
+        <v>3.992</v>
       </c>
       <c r="D72" t="n">
-        <v>3.999</v>
+        <v>3.992</v>
       </c>
       <c r="E72" t="n">
-        <v>3.99</v>
+        <v>3.992</v>
       </c>
       <c r="F72" t="n">
-        <v>10214.0881</v>
+        <v>126</v>
       </c>
       <c r="G72" t="n">
-        <v>6526600.43567584</v>
+        <v>5322111.83047584</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3003,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.999</v>
+        <v>3.992</v>
       </c>
       <c r="C73" t="n">
-        <v>3.999</v>
+        <v>3.993</v>
       </c>
       <c r="D73" t="n">
-        <v>3.999</v>
+        <v>3.993</v>
       </c>
       <c r="E73" t="n">
-        <v>3.999</v>
+        <v>3.992</v>
       </c>
       <c r="F73" t="n">
-        <v>26460.8543</v>
+        <v>51135.3222</v>
       </c>
       <c r="G73" t="n">
-        <v>6553061.28997584</v>
+        <v>5373247.15267584</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3039,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="F74" t="n">
-        <v>238090.3989</v>
+        <v>51034.7181</v>
       </c>
       <c r="G74" t="n">
-        <v>6791151.68887584</v>
+        <v>5322212.43457584</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3075,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3.958</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>3.969</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3.958</v>
       </c>
       <c r="F75" t="n">
-        <v>10138.75</v>
+        <v>352198.8293</v>
       </c>
       <c r="G75" t="n">
-        <v>6791151.68887584</v>
+        <v>4970013.60527584</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3111,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>3.955</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>3.955</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="F76" t="n">
-        <v>93610.4276</v>
+        <v>24040.4842</v>
       </c>
       <c r="G76" t="n">
-        <v>6791151.68887584</v>
+        <v>4945973.12107584</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3147,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>3.94</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>3.94</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="F77" t="n">
-        <v>138776.9276</v>
+        <v>49257.7163</v>
       </c>
       <c r="G77" t="n">
-        <v>6791151.68887584</v>
+        <v>4896715.404775839</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3183,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.99</v>
+        <v>3.9</v>
       </c>
       <c r="C78" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="D78" t="n">
-        <v>3.99</v>
+        <v>3.9</v>
       </c>
       <c r="E78" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>624430.0852</v>
       </c>
       <c r="G78" t="n">
-        <v>6790851.68887584</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3219,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="F79" t="n">
-        <v>89931.67140000001</v>
+        <v>91966.52039999999</v>
       </c>
       <c r="G79" t="n">
-        <v>6880783.36027584</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3255,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3.872</v>
       </c>
       <c r="F80" t="n">
-        <v>267719.5461</v>
+        <v>13301.4738</v>
       </c>
       <c r="G80" t="n">
-        <v>6880783.36027584</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3291,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="C81" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="D81" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="E81" t="n">
-        <v>3.99</v>
+        <v>3.872</v>
       </c>
       <c r="F81" t="n">
-        <v>20152.6203</v>
+        <v>269945.975</v>
       </c>
       <c r="G81" t="n">
-        <v>6860630.739975841</v>
+        <v>4272285.31957584</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3327,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.99</v>
+        <v>3.885</v>
       </c>
       <c r="C82" t="n">
-        <v>3.99</v>
+        <v>3.885</v>
       </c>
       <c r="D82" t="n">
-        <v>3.99</v>
+        <v>3.885</v>
       </c>
       <c r="E82" t="n">
-        <v>3.99</v>
+        <v>3.885</v>
       </c>
       <c r="F82" t="n">
-        <v>50125.3133</v>
+        <v>7530</v>
       </c>
       <c r="G82" t="n">
-        <v>6860630.739975841</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3363,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.963</v>
+        <v>3.885</v>
       </c>
       <c r="C83" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="D83" t="n">
-        <v>3.963</v>
+        <v>3.885</v>
       </c>
       <c r="E83" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="F83" t="n">
-        <v>166035.7434</v>
+        <v>163788.4749</v>
       </c>
       <c r="G83" t="n">
-        <v>6694594.996575841</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3399,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="C84" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="D84" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="E84" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="F84" t="n">
-        <v>120000</v>
+        <v>93315.07060000001</v>
       </c>
       <c r="G84" t="n">
-        <v>6694594.996575841</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3435,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="C85" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="D85" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="E85" t="n">
-        <v>3.953</v>
+        <v>3.885</v>
       </c>
       <c r="F85" t="n">
-        <v>150000</v>
+        <v>48491.5898</v>
       </c>
       <c r="G85" t="n">
-        <v>6694594.996575841</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,203 +3471,241 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.952</v>
+        <v>3.885</v>
       </c>
       <c r="C86" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="D86" t="n">
-        <v>3.952</v>
+        <v>3.885</v>
       </c>
       <c r="E86" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="F86" t="n">
-        <v>79484.6023</v>
+        <v>553177.9301</v>
       </c>
       <c r="G86" t="n">
-        <v>6615110.39427584</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3.885</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="C87" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="D87" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="E87" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="F87" t="n">
-        <v>137265.7151</v>
+        <v>95369.56329999999</v>
       </c>
       <c r="G87" t="n">
-        <v>6615110.39427584</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="C88" t="n">
-        <v>3.921</v>
+        <v>3.885</v>
       </c>
       <c r="D88" t="n">
-        <v>3.931</v>
+        <v>3.885</v>
       </c>
       <c r="E88" t="n">
-        <v>3.921</v>
+        <v>3.885</v>
       </c>
       <c r="F88" t="n">
-        <v>9484.781999999999</v>
+        <v>613.7012</v>
       </c>
       <c r="G88" t="n">
-        <v>6605625.612275841</v>
+        <v>4279815.31957584</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.925</v>
+        <v>3.881</v>
       </c>
       <c r="C89" t="n">
-        <v>3.925</v>
+        <v>3.881</v>
       </c>
       <c r="D89" t="n">
-        <v>3.925</v>
+        <v>3.881</v>
       </c>
       <c r="E89" t="n">
-        <v>3.925</v>
+        <v>3.881</v>
       </c>
       <c r="F89" t="n">
-        <v>9230</v>
+        <v>515.9016</v>
       </c>
       <c r="G89" t="n">
-        <v>6614855.612275841</v>
+        <v>4279299.417975839</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.885</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.915</v>
+        <v>3.881</v>
       </c>
       <c r="C90" t="n">
-        <v>3.91</v>
+        <v>3.885</v>
       </c>
       <c r="D90" t="n">
-        <v>3.915</v>
+        <v>3.885</v>
       </c>
       <c r="E90" t="n">
-        <v>3.91</v>
+        <v>3.881</v>
       </c>
       <c r="F90" t="n">
-        <v>366396.9802</v>
+        <v>3058853.5225</v>
       </c>
       <c r="G90" t="n">
-        <v>6248458.632075841</v>
+        <v>7338152.940475839</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.909</v>
+        <v>3.885</v>
       </c>
       <c r="C91" t="n">
-        <v>3.9</v>
+        <v>3.885</v>
       </c>
       <c r="D91" t="n">
-        <v>3.909</v>
+        <v>3.885</v>
       </c>
       <c r="E91" t="n">
-        <v>3.9</v>
+        <v>3.885</v>
       </c>
       <c r="F91" t="n">
-        <v>598003.6822</v>
+        <v>1543.8726</v>
       </c>
       <c r="G91" t="n">
-        <v>5650454.949875841</v>
+        <v>7338152.940475839</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3714,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.877</v>
+        <v>3.875</v>
       </c>
       <c r="C92" t="n">
-        <v>3.877</v>
+        <v>3.862</v>
       </c>
       <c r="D92" t="n">
-        <v>3.877</v>
+        <v>3.875</v>
       </c>
       <c r="E92" t="n">
-        <v>3.877</v>
+        <v>3.862</v>
       </c>
       <c r="F92" t="n">
-        <v>257.6735</v>
+        <v>500638.994</v>
       </c>
       <c r="G92" t="n">
-        <v>5650197.276375841</v>
+        <v>6837513.946475839</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3756,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.876</v>
+        <v>3.862</v>
       </c>
       <c r="C93" t="n">
-        <v>3.874</v>
+        <v>3.853</v>
       </c>
       <c r="D93" t="n">
-        <v>3.876</v>
+        <v>3.862</v>
       </c>
       <c r="E93" t="n">
-        <v>3.874</v>
+        <v>3.853</v>
       </c>
       <c r="F93" t="n">
-        <v>82901.099</v>
+        <v>1402949.8263</v>
       </c>
       <c r="G93" t="n">
-        <v>5567296.177375841</v>
+        <v>5434564.120175839</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3798,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.871</v>
+        <v>3.885</v>
       </c>
       <c r="C94" t="n">
-        <v>3.867</v>
+        <v>3.885</v>
       </c>
       <c r="D94" t="n">
-        <v>3.871</v>
+        <v>3.885</v>
       </c>
       <c r="E94" t="n">
-        <v>3.867</v>
+        <v>3.885</v>
       </c>
       <c r="F94" t="n">
-        <v>228433.315</v>
+        <v>76000</v>
       </c>
       <c r="G94" t="n">
-        <v>5338862.862375841</v>
+        <v>5510564.120175839</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,72 +3840,82 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.866</v>
+        <v>3.885</v>
       </c>
       <c r="C95" t="n">
-        <v>3.866</v>
+        <v>3.885</v>
       </c>
       <c r="D95" t="n">
-        <v>3.866</v>
+        <v>3.885</v>
       </c>
       <c r="E95" t="n">
-        <v>3.866</v>
+        <v>3.885</v>
       </c>
       <c r="F95" t="n">
-        <v>300000</v>
+        <v>800.3733999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>5038862.862375841</v>
+        <v>5510564.120175839</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.867</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+        <v>3.885</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="C96" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="D96" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="E96" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="F96" t="n">
-        <v>64351.4063</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>5103214.26867584</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,38 +3925,39 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3.867</v>
+        <v>3.885</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="C97" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="D97" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="E97" t="n">
-        <v>3.882</v>
+        <v>3.91</v>
       </c>
       <c r="F97" t="n">
-        <v>51034.7181</v>
+        <v>44943.6485</v>
       </c>
       <c r="G97" t="n">
-        <v>5103214.26867584</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,38 +3967,39 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3.867</v>
+        <v>3.885</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.929</v>
+        <v>3.91</v>
       </c>
       <c r="C98" t="n">
-        <v>3.929</v>
+        <v>3.91</v>
       </c>
       <c r="D98" t="n">
-        <v>3.929</v>
+        <v>3.91</v>
       </c>
       <c r="E98" t="n">
-        <v>3.929</v>
+        <v>3.91</v>
       </c>
       <c r="F98" t="n">
-        <v>78000</v>
+        <v>785.5297</v>
       </c>
       <c r="G98" t="n">
-        <v>5181214.26867584</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,33 +4008,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.892</v>
+        <v>3.91</v>
       </c>
       <c r="C99" t="n">
-        <v>3.892</v>
+        <v>3.91</v>
       </c>
       <c r="D99" t="n">
-        <v>3.892</v>
+        <v>3.91</v>
       </c>
       <c r="E99" t="n">
-        <v>3.892</v>
+        <v>3.91</v>
       </c>
       <c r="F99" t="n">
-        <v>4812.8102</v>
+        <v>38471.6561</v>
       </c>
       <c r="G99" t="n">
-        <v>5176401.45847584</v>
+        <v>5510764.120175839</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,33 +4050,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.892</v>
+        <v>3.936</v>
       </c>
       <c r="C100" t="n">
-        <v>3.862</v>
+        <v>3.936</v>
       </c>
       <c r="D100" t="n">
-        <v>3.892</v>
+        <v>3.936</v>
       </c>
       <c r="E100" t="n">
-        <v>3.862</v>
+        <v>3.936</v>
       </c>
       <c r="F100" t="n">
-        <v>138776.9276</v>
+        <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>5037624.53087584</v>
+        <v>5510964.120175839</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,33 +4092,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="C101" t="n">
-        <v>3.958</v>
+        <v>3.91</v>
       </c>
       <c r="D101" t="n">
-        <v>3.958</v>
+        <v>3.91</v>
       </c>
       <c r="E101" t="n">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="F101" t="n">
-        <v>78108.43150000001</v>
+        <v>515.9016</v>
       </c>
       <c r="G101" t="n">
-        <v>5115732.96237584</v>
+        <v>5510448.218575839</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3938,72 +4134,82 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.977</v>
+        <v>3.936</v>
       </c>
       <c r="C102" t="n">
-        <v>3.977</v>
+        <v>3.936</v>
       </c>
       <c r="D102" t="n">
-        <v>3.977</v>
+        <v>3.936</v>
       </c>
       <c r="E102" t="n">
-        <v>3.977</v>
+        <v>3.936</v>
       </c>
       <c r="F102" t="n">
-        <v>125387.797</v>
+        <v>1497.0754</v>
       </c>
       <c r="G102" t="n">
-        <v>5241120.75937584</v>
+        <v>5511945.293975839</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.958</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
+        <v>3.885</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="C103" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="D103" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="E103" t="n">
-        <v>3.969</v>
+        <v>3.925</v>
       </c>
       <c r="F103" t="n">
-        <v>28800</v>
+        <v>128</v>
       </c>
       <c r="G103" t="n">
-        <v>5212320.75937584</v>
+        <v>5511817.293975839</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,38 +4219,39 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3.958</v>
+        <v>3.885</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.959</v>
+        <v>3.92</v>
       </c>
       <c r="C104" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="D104" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="E104" t="n">
-        <v>3.959</v>
+        <v>3.92</v>
       </c>
       <c r="F104" t="n">
-        <v>18137.3806</v>
+        <v>128</v>
       </c>
       <c r="G104" t="n">
-        <v>5212320.75937584</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,38 +4261,39 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3.958</v>
+        <v>3.885</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="C105" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="D105" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="E105" t="n">
-        <v>3.969</v>
+        <v>3.92</v>
       </c>
       <c r="F105" t="n">
-        <v>111658.1647</v>
+        <v>3899.5</v>
       </c>
       <c r="G105" t="n">
-        <v>5212320.75937584</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4094,33 +4302,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.989</v>
+        <v>3.92</v>
       </c>
       <c r="C106" t="n">
-        <v>3.989</v>
+        <v>3.92</v>
       </c>
       <c r="D106" t="n">
-        <v>3.989</v>
+        <v>3.92</v>
       </c>
       <c r="E106" t="n">
-        <v>3.989</v>
+        <v>3.92</v>
       </c>
       <c r="F106" t="n">
-        <v>127110.2314</v>
+        <v>2039.6775</v>
       </c>
       <c r="G106" t="n">
-        <v>5339430.99077584</v>
+        <v>5511689.293975839</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4129,33 +4344,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.989</v>
+        <v>3.91</v>
       </c>
       <c r="C107" t="n">
-        <v>3.989</v>
+        <v>3.9</v>
       </c>
       <c r="D107" t="n">
-        <v>3.989</v>
+        <v>3.91</v>
       </c>
       <c r="E107" t="n">
-        <v>3.989</v>
+        <v>3.9</v>
       </c>
       <c r="F107" t="n">
-        <v>125032.0826</v>
+        <v>2502.7027</v>
       </c>
       <c r="G107" t="n">
-        <v>5339430.99077584</v>
+        <v>5509186.591275839</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4164,33 +4386,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.989</v>
+        <v>3.889</v>
       </c>
       <c r="C108" t="n">
-        <v>3.989</v>
+        <v>3.85</v>
       </c>
       <c r="D108" t="n">
-        <v>3.989</v>
+        <v>3.889</v>
       </c>
       <c r="E108" t="n">
-        <v>3.989</v>
+        <v>3.85</v>
       </c>
       <c r="F108" t="n">
-        <v>13526.7871</v>
+        <v>478116.0096</v>
       </c>
       <c r="G108" t="n">
-        <v>5339430.99077584</v>
+        <v>5031070.581675839</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4199,33 +4428,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.989</v>
+        <v>3.914</v>
       </c>
       <c r="C109" t="n">
-        <v>3.989</v>
+        <v>3.914</v>
       </c>
       <c r="D109" t="n">
-        <v>3.989</v>
+        <v>3.914</v>
       </c>
       <c r="E109" t="n">
-        <v>3.989</v>
+        <v>3.914</v>
       </c>
       <c r="F109" t="n">
-        <v>18633.3483</v>
+        <v>3832.396525293</v>
       </c>
       <c r="G109" t="n">
-        <v>5339430.99077584</v>
+        <v>5034902.978201131</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4234,33 +4470,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.98</v>
+        <v>3.881</v>
       </c>
       <c r="C110" t="n">
-        <v>4.003</v>
+        <v>3.881</v>
       </c>
       <c r="D110" t="n">
-        <v>4.003</v>
+        <v>3.881</v>
       </c>
       <c r="E110" t="n">
-        <v>3.98</v>
+        <v>3.881</v>
       </c>
       <c r="F110" t="n">
-        <v>425.7332</v>
+        <v>5650</v>
       </c>
       <c r="G110" t="n">
-        <v>5339856.72397584</v>
+        <v>5029252.978201131</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4269,33 +4512,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.97</v>
+        <v>3.881</v>
       </c>
       <c r="C111" t="n">
-        <v>3.969</v>
+        <v>3.881</v>
       </c>
       <c r="D111" t="n">
-        <v>3.97</v>
+        <v>3.881</v>
       </c>
       <c r="E111" t="n">
-        <v>3.969</v>
+        <v>3.881</v>
       </c>
       <c r="F111" t="n">
-        <v>17870.8935</v>
+        <v>23706.3555</v>
       </c>
       <c r="G111" t="n">
-        <v>5321985.83047584</v>
+        <v>5029252.978201131</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4304,33 +4554,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="C112" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="D112" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="E112" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="F112" t="n">
-        <v>127110.2314</v>
+        <v>128</v>
       </c>
       <c r="G112" t="n">
-        <v>5321985.83047584</v>
+        <v>5029380.978201131</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4339,33 +4596,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="C113" t="n">
-        <v>3.969</v>
+        <v>3.915</v>
       </c>
       <c r="D113" t="n">
-        <v>3.969</v>
+        <v>3.915</v>
       </c>
       <c r="E113" t="n">
-        <v>3.969</v>
+        <v>3.914</v>
       </c>
       <c r="F113" t="n">
-        <v>4498.2007</v>
+        <v>98670</v>
       </c>
       <c r="G113" t="n">
-        <v>5321985.83047584</v>
+        <v>5128050.978201131</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4374,33 +4638,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.992</v>
+        <v>3.925</v>
       </c>
       <c r="C114" t="n">
-        <v>3.992</v>
+        <v>3.935</v>
       </c>
       <c r="D114" t="n">
-        <v>3.992</v>
+        <v>3.935</v>
       </c>
       <c r="E114" t="n">
-        <v>3.992</v>
+        <v>3.925</v>
       </c>
       <c r="F114" t="n">
-        <v>126</v>
+        <v>257078.7301</v>
       </c>
       <c r="G114" t="n">
-        <v>5322111.83047584</v>
+        <v>5385129.708301132</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4409,33 +4680,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.992</v>
+        <v>3.936</v>
       </c>
       <c r="C115" t="n">
-        <v>3.993</v>
+        <v>3.936</v>
       </c>
       <c r="D115" t="n">
-        <v>3.993</v>
+        <v>3.936</v>
       </c>
       <c r="E115" t="n">
-        <v>3.992</v>
+        <v>3.936</v>
       </c>
       <c r="F115" t="n">
-        <v>51135.3222</v>
+        <v>322561.025</v>
       </c>
       <c r="G115" t="n">
-        <v>5373247.15267584</v>
+        <v>5707690.733301132</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4444,33 +4722,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.969</v>
+        <v>3.946</v>
       </c>
       <c r="C116" t="n">
-        <v>3.969</v>
+        <v>3.96</v>
       </c>
       <c r="D116" t="n">
-        <v>3.969</v>
+        <v>3.96</v>
       </c>
       <c r="E116" t="n">
-        <v>3.969</v>
+        <v>3.946</v>
       </c>
       <c r="F116" t="n">
-        <v>51034.7181</v>
+        <v>22905.7226</v>
       </c>
       <c r="G116" t="n">
-        <v>5322212.43457584</v>
+        <v>5730596.455901132</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4479,33 +4764,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.969</v>
+        <v>3.978</v>
       </c>
       <c r="C117" t="n">
-        <v>3.958</v>
+        <v>3.978</v>
       </c>
       <c r="D117" t="n">
-        <v>3.969</v>
+        <v>3.978</v>
       </c>
       <c r="E117" t="n">
-        <v>3.958</v>
+        <v>3.978</v>
       </c>
       <c r="F117" t="n">
-        <v>352198.8293</v>
+        <v>126</v>
       </c>
       <c r="G117" t="n">
-        <v>4970013.60527584</v>
+        <v>5730722.455901132</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4514,33 +4806,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.955</v>
+        <v>3.977</v>
       </c>
       <c r="C118" t="n">
-        <v>3.95</v>
+        <v>3.977</v>
       </c>
       <c r="D118" t="n">
-        <v>3.955</v>
+        <v>3.977</v>
       </c>
       <c r="E118" t="n">
-        <v>3.95</v>
+        <v>3.977</v>
       </c>
       <c r="F118" t="n">
-        <v>24040.4842</v>
+        <v>16836.339</v>
       </c>
       <c r="G118" t="n">
-        <v>4945973.12107584</v>
+        <v>5713886.116901132</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4549,33 +4848,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.94</v>
+        <v>3.978</v>
       </c>
       <c r="C119" t="n">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>3.91</v>
+        <v>3.978</v>
       </c>
       <c r="F119" t="n">
-        <v>49257.7163</v>
+        <v>532898.0421</v>
       </c>
       <c r="G119" t="n">
-        <v>4896715.404775839</v>
+        <v>6246784.159001132</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4584,33 +4890,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>3.872</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>3.872</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>624430.0852</v>
+        <v>7416.6259</v>
       </c>
       <c r="G120" t="n">
-        <v>4272285.31957584</v>
+        <v>6246784.159001132</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4619,33 +4932,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.872</v>
+        <v>4</v>
       </c>
       <c r="C121" t="n">
-        <v>3.872</v>
+        <v>4.06</v>
       </c>
       <c r="D121" t="n">
-        <v>3.872</v>
+        <v>4.06</v>
       </c>
       <c r="E121" t="n">
-        <v>3.872</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>91966.52039999999</v>
+        <v>572588.374</v>
       </c>
       <c r="G121" t="n">
-        <v>4272285.31957584</v>
+        <v>6819372.533001132</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4654,33 +4974,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.872</v>
+        <v>4.071</v>
       </c>
       <c r="C122" t="n">
-        <v>3.872</v>
+        <v>4.071</v>
       </c>
       <c r="D122" t="n">
-        <v>3.872</v>
+        <v>4.071</v>
       </c>
       <c r="E122" t="n">
-        <v>3.872</v>
+        <v>4.071</v>
       </c>
       <c r="F122" t="n">
-        <v>13301.4738</v>
+        <v>123</v>
       </c>
       <c r="G122" t="n">
-        <v>4272285.31957584</v>
+        <v>6819495.533001132</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4689,33 +5016,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.872</v>
+        <v>3.997</v>
       </c>
       <c r="C123" t="n">
-        <v>3.872</v>
+        <v>3.997</v>
       </c>
       <c r="D123" t="n">
-        <v>3.872</v>
+        <v>3.997</v>
       </c>
       <c r="E123" t="n">
-        <v>3.872</v>
+        <v>3.997</v>
       </c>
       <c r="F123" t="n">
-        <v>269945.975</v>
+        <v>390889.6235</v>
       </c>
       <c r="G123" t="n">
-        <v>4272285.31957584</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4724,33 +5058,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="C124" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="D124" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="E124" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="F124" t="n">
-        <v>7530</v>
+        <v>249.9375</v>
       </c>
       <c r="G124" t="n">
-        <v>4279815.31957584</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4759,33 +5100,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="C125" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="D125" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="E125" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="F125" t="n">
-        <v>163788.4749</v>
+        <v>19750.0625</v>
       </c>
       <c r="G125" t="n">
-        <v>4279815.31957584</v>
+        <v>6428605.909501133</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4794,33 +5142,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>93315.07060000001</v>
+        <v>13301.4738</v>
       </c>
       <c r="G126" t="n">
-        <v>4279815.31957584</v>
+        <v>6441907.383301132</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4829,33 +5184,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>3.885</v>
+        <v>4</v>
       </c>
       <c r="F127" t="n">
-        <v>48491.5898</v>
+        <v>597.273</v>
       </c>
       <c r="G127" t="n">
-        <v>4279815.31957584</v>
+        <v>6441907.383301132</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4864,33 +5226,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="C128" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="D128" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="E128" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="F128" t="n">
-        <v>553177.9301</v>
+        <v>20000</v>
       </c>
       <c r="G128" t="n">
-        <v>4279815.31957584</v>
+        <v>6421907.383301132</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4899,72 +5268,82 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="C129" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="D129" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="E129" t="n">
-        <v>3.885</v>
+        <v>3.997</v>
       </c>
       <c r="F129" t="n">
-        <v>95369.56329999999</v>
+        <v>263345.8331</v>
       </c>
       <c r="G129" t="n">
-        <v>4279815.31957584</v>
+        <v>6421907.383301132</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>3.885</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>3.885</v>
       </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="C130" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="D130" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="E130" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="F130" t="n">
-        <v>613.7012</v>
+        <v>300</v>
       </c>
       <c r="G130" t="n">
-        <v>4279815.31957584</v>
+        <v>6422207.383301132</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4978,120 +5357,119 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.881</v>
+        <v>4.003</v>
       </c>
       <c r="C131" t="n">
-        <v>3.881</v>
+        <v>3.987</v>
       </c>
       <c r="D131" t="n">
-        <v>3.881</v>
+        <v>4.003</v>
       </c>
       <c r="E131" t="n">
-        <v>3.881</v>
+        <v>3.987</v>
       </c>
       <c r="F131" t="n">
-        <v>515.9016</v>
+        <v>46932.5644</v>
       </c>
       <c r="G131" t="n">
-        <v>4279299.417975839</v>
+        <v>6375274.818901133</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>3.885</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>3.885</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.881</v>
+        <v>3.987</v>
       </c>
       <c r="C132" t="n">
-        <v>3.885</v>
+        <v>3.987</v>
       </c>
       <c r="D132" t="n">
-        <v>3.885</v>
+        <v>3.987</v>
       </c>
       <c r="E132" t="n">
-        <v>3.881</v>
+        <v>3.987</v>
       </c>
       <c r="F132" t="n">
-        <v>3058853.5225</v>
+        <v>11709.7581</v>
       </c>
       <c r="G132" t="n">
-        <v>7338152.940475839</v>
+        <v>6375274.818901133</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>3.881</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
         <v>3.885</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.885</v>
+        <v>4.004</v>
       </c>
       <c r="C133" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="D133" t="n">
-        <v>3.885</v>
+        <v>4.004</v>
       </c>
       <c r="E133" t="n">
-        <v>3.885</v>
+        <v>4.003</v>
       </c>
       <c r="F133" t="n">
-        <v>1543.8726</v>
+        <v>159403.3455</v>
       </c>
       <c r="G133" t="n">
-        <v>7338152.940475839</v>
+        <v>6534678.164401133</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5111,28 +5489,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.875</v>
+        <v>4.003</v>
       </c>
       <c r="C134" t="n">
-        <v>3.862</v>
+        <v>4.003</v>
       </c>
       <c r="D134" t="n">
-        <v>3.875</v>
+        <v>4.003</v>
       </c>
       <c r="E134" t="n">
-        <v>3.862</v>
+        <v>4.003</v>
       </c>
       <c r="F134" t="n">
-        <v>500638.994</v>
+        <v>26589.3485</v>
       </c>
       <c r="G134" t="n">
-        <v>6837513.946475839</v>
+        <v>6534678.164401133</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5152,28 +5531,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.862</v>
+        <v>4.003</v>
       </c>
       <c r="C135" t="n">
-        <v>3.853</v>
+        <v>4.005</v>
       </c>
       <c r="D135" t="n">
-        <v>3.862</v>
+        <v>4.005</v>
       </c>
       <c r="E135" t="n">
-        <v>3.853</v>
+        <v>4.003</v>
       </c>
       <c r="F135" t="n">
-        <v>1402949.8263</v>
+        <v>20561.4454</v>
       </c>
       <c r="G135" t="n">
-        <v>5434564.120175839</v>
+        <v>6555239.609801132</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5193,28 +5573,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.885</v>
+        <v>4.005</v>
       </c>
       <c r="C136" t="n">
-        <v>3.885</v>
+        <v>4.005</v>
       </c>
       <c r="D136" t="n">
-        <v>3.885</v>
+        <v>4.005</v>
       </c>
       <c r="E136" t="n">
-        <v>3.885</v>
+        <v>4.005</v>
       </c>
       <c r="F136" t="n">
-        <v>76000</v>
+        <v>13288.0345</v>
       </c>
       <c r="G136" t="n">
-        <v>5510564.120175839</v>
+        <v>6555239.609801132</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5234,28 +5615,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.885</v>
+        <v>3.978</v>
       </c>
       <c r="C137" t="n">
-        <v>3.885</v>
+        <v>3.97</v>
       </c>
       <c r="D137" t="n">
-        <v>3.885</v>
+        <v>3.978</v>
       </c>
       <c r="E137" t="n">
-        <v>3.885</v>
+        <v>3.97</v>
       </c>
       <c r="F137" t="n">
-        <v>800.3733999999999</v>
+        <v>22956.2318</v>
       </c>
       <c r="G137" t="n">
-        <v>5510564.120175839</v>
+        <v>6532283.378001132</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5275,28 +5657,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.91</v>
+        <v>4.004</v>
       </c>
       <c r="C138" t="n">
-        <v>3.91</v>
+        <v>4.004</v>
       </c>
       <c r="D138" t="n">
-        <v>3.91</v>
+        <v>4.004</v>
       </c>
       <c r="E138" t="n">
-        <v>3.91</v>
+        <v>4.004</v>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>6645.6772</v>
       </c>
       <c r="G138" t="n">
-        <v>5510764.120175839</v>
+        <v>6538929.055201132</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5316,28 +5699,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.91</v>
+        <v>3.972</v>
       </c>
       <c r="C139" t="n">
-        <v>3.91</v>
+        <v>3.962</v>
       </c>
       <c r="D139" t="n">
-        <v>3.91</v>
+        <v>3.972</v>
       </c>
       <c r="E139" t="n">
-        <v>3.91</v>
+        <v>3.962</v>
       </c>
       <c r="F139" t="n">
-        <v>44943.6485</v>
+        <v>66816.5053</v>
       </c>
       <c r="G139" t="n">
-        <v>5510764.120175839</v>
+        <v>6472112.549901132</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5357,28 +5741,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.91</v>
+        <v>3.962</v>
       </c>
       <c r="C140" t="n">
-        <v>3.91</v>
+        <v>3.993</v>
       </c>
       <c r="D140" t="n">
-        <v>3.91</v>
+        <v>4.004</v>
       </c>
       <c r="E140" t="n">
-        <v>3.91</v>
+        <v>3.962</v>
       </c>
       <c r="F140" t="n">
-        <v>785.5297</v>
+        <v>6528.8806</v>
       </c>
       <c r="G140" t="n">
-        <v>5510764.120175839</v>
+        <v>6478641.430501131</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5398,28 +5783,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.91</v>
+        <v>3.993</v>
       </c>
       <c r="C141" t="n">
-        <v>3.91</v>
+        <v>3.993</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91</v>
+        <v>3.993</v>
       </c>
       <c r="E141" t="n">
-        <v>3.91</v>
+        <v>3.993</v>
       </c>
       <c r="F141" t="n">
-        <v>38471.6561</v>
+        <v>2501</v>
       </c>
       <c r="G141" t="n">
-        <v>5510764.120175839</v>
+        <v>6478641.430501131</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5439,28 +5825,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.936</v>
+        <v>3.96</v>
       </c>
       <c r="C142" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="D142" t="n">
-        <v>3.936</v>
+        <v>3.96</v>
       </c>
       <c r="E142" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>20561.4454</v>
       </c>
       <c r="G142" t="n">
-        <v>5510964.120175839</v>
+        <v>6458079.985101132</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5480,28 +5867,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.91</v>
+        <v>3.951</v>
       </c>
       <c r="C143" t="n">
-        <v>3.91</v>
+        <v>3.951</v>
       </c>
       <c r="D143" t="n">
-        <v>3.91</v>
+        <v>3.951</v>
       </c>
       <c r="E143" t="n">
-        <v>3.91</v>
+        <v>3.951</v>
       </c>
       <c r="F143" t="n">
-        <v>515.9016</v>
+        <v>24252.9649</v>
       </c>
       <c r="G143" t="n">
-        <v>5510448.218575839</v>
+        <v>6458079.985101132</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5521,28 +5909,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="C144" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="D144" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="E144" t="n">
-        <v>3.936</v>
+        <v>3.951</v>
       </c>
       <c r="F144" t="n">
-        <v>1497.0754</v>
+        <v>65521.7176</v>
       </c>
       <c r="G144" t="n">
-        <v>5511945.293975839</v>
+        <v>6458079.985101132</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5562,28 +5951,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.925</v>
+        <v>3.94</v>
       </c>
       <c r="C145" t="n">
-        <v>3.925</v>
+        <v>3.94</v>
       </c>
       <c r="D145" t="n">
-        <v>3.925</v>
+        <v>3.94</v>
       </c>
       <c r="E145" t="n">
-        <v>3.925</v>
+        <v>3.94</v>
       </c>
       <c r="F145" t="n">
-        <v>128</v>
+        <v>126840.7654</v>
       </c>
       <c r="G145" t="n">
-        <v>5511817.293975839</v>
+        <v>6331239.219701132</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5603,28 +5993,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.92</v>
+        <v>3.939</v>
       </c>
       <c r="C146" t="n">
-        <v>3.92</v>
+        <v>3.939</v>
       </c>
       <c r="D146" t="n">
-        <v>3.92</v>
+        <v>3.939</v>
       </c>
       <c r="E146" t="n">
-        <v>3.92</v>
+        <v>3.939</v>
       </c>
       <c r="F146" t="n">
-        <v>128</v>
+        <v>6484.9478</v>
       </c>
       <c r="G146" t="n">
-        <v>5511689.293975839</v>
+        <v>6324754.271901132</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5644,28 +6035,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.92</v>
+        <v>3.931</v>
       </c>
       <c r="C147" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="D147" t="n">
-        <v>3.92</v>
+        <v>3.931</v>
       </c>
       <c r="E147" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="F147" t="n">
-        <v>3899.5</v>
+        <v>1875.0265</v>
       </c>
       <c r="G147" t="n">
-        <v>5511689.293975839</v>
+        <v>6322879.245401132</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5685,28 +6077,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="C148" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="D148" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="E148" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="F148" t="n">
-        <v>2039.6775</v>
+        <v>437.0943</v>
       </c>
       <c r="G148" t="n">
-        <v>5511689.293975839</v>
+        <v>6322442.151101132</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5726,28 +6119,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="C149" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D149" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="E149" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F149" t="n">
-        <v>2502.7027</v>
+        <v>257.4743</v>
       </c>
       <c r="G149" t="n">
-        <v>5509186.591275839</v>
+        <v>6322184.676801132</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5767,36 +6161,39 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.889</v>
+        <v>3.875</v>
       </c>
       <c r="C150" t="n">
-        <v>3.85</v>
+        <v>3.874</v>
       </c>
       <c r="D150" t="n">
-        <v>3.889</v>
+        <v>3.875</v>
       </c>
       <c r="E150" t="n">
-        <v>3.85</v>
+        <v>3.874</v>
       </c>
       <c r="F150" t="n">
-        <v>478116.0096</v>
+        <v>6277.6117</v>
       </c>
       <c r="G150" t="n">
-        <v>5031070.581675839</v>
+        <v>6315907.065101132</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K150" t="n">
         <v>3.885</v>
       </c>
@@ -5808,36 +6205,39 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.914</v>
+        <v>3.87</v>
       </c>
       <c r="C151" t="n">
-        <v>3.914</v>
+        <v>3.87</v>
       </c>
       <c r="D151" t="n">
-        <v>3.914</v>
+        <v>3.87</v>
       </c>
       <c r="E151" t="n">
-        <v>3.914</v>
+        <v>3.87</v>
       </c>
       <c r="F151" t="n">
-        <v>3832.396525293</v>
+        <v>41211.2074</v>
       </c>
       <c r="G151" t="n">
-        <v>5034902.978201131</v>
+        <v>6274695.857701132</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.874</v>
+      </c>
       <c r="K151" t="n">
         <v>3.885</v>
       </c>
@@ -5849,36 +6249,39 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.881</v>
+        <v>3.869</v>
       </c>
       <c r="C152" t="n">
-        <v>3.881</v>
+        <v>3.869</v>
       </c>
       <c r="D152" t="n">
-        <v>3.881</v>
+        <v>3.869</v>
       </c>
       <c r="E152" t="n">
-        <v>3.881</v>
+        <v>3.869</v>
       </c>
       <c r="F152" t="n">
-        <v>5650</v>
+        <v>5053.1807</v>
       </c>
       <c r="G152" t="n">
-        <v>5029252.978201131</v>
+        <v>6269642.677001132</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K152" t="n">
         <v>3.885</v>
       </c>
@@ -5890,36 +6293,39 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.881</v>
+        <v>3.87</v>
       </c>
       <c r="C153" t="n">
-        <v>3.881</v>
+        <v>3.87</v>
       </c>
       <c r="D153" t="n">
-        <v>3.881</v>
+        <v>3.87</v>
       </c>
       <c r="E153" t="n">
-        <v>3.881</v>
+        <v>3.87</v>
       </c>
       <c r="F153" t="n">
-        <v>23706.3555</v>
+        <v>0.0005</v>
       </c>
       <c r="G153" t="n">
-        <v>5029252.978201131</v>
+        <v>6269642.677501132</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.869</v>
+      </c>
       <c r="K153" t="n">
         <v>3.885</v>
       </c>
@@ -5931,36 +6337,39 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.914</v>
+        <v>3.9</v>
       </c>
       <c r="C154" t="n">
-        <v>3.914</v>
+        <v>3.989</v>
       </c>
       <c r="D154" t="n">
-        <v>3.914</v>
+        <v>3.989</v>
       </c>
       <c r="E154" t="n">
-        <v>3.914</v>
+        <v>3.9</v>
       </c>
       <c r="F154" t="n">
-        <v>128</v>
+        <v>187416.558548859</v>
       </c>
       <c r="G154" t="n">
-        <v>5029380.978201131</v>
+        <v>6457059.236049991</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K154" t="n">
         <v>3.885</v>
       </c>
@@ -5972,28 +6381,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.914</v>
+        <v>3.91</v>
       </c>
       <c r="C155" t="n">
-        <v>3.915</v>
+        <v>3.903</v>
       </c>
       <c r="D155" t="n">
-        <v>3.915</v>
+        <v>3.91</v>
       </c>
       <c r="E155" t="n">
-        <v>3.914</v>
+        <v>3.903</v>
       </c>
       <c r="F155" t="n">
-        <v>98670</v>
+        <v>40277.6285</v>
       </c>
       <c r="G155" t="n">
-        <v>5128050.978201131</v>
+        <v>6416781.607549991</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6013,28 +6423,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.925</v>
+        <v>3.903</v>
       </c>
       <c r="C156" t="n">
-        <v>3.935</v>
+        <v>3.903</v>
       </c>
       <c r="D156" t="n">
-        <v>3.935</v>
+        <v>3.903</v>
       </c>
       <c r="E156" t="n">
-        <v>3.925</v>
+        <v>3.903</v>
       </c>
       <c r="F156" t="n">
-        <v>257078.7301</v>
+        <v>8639.978499999999</v>
       </c>
       <c r="G156" t="n">
-        <v>5385129.708301132</v>
+        <v>6416781.607549991</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6054,28 +6465,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.936</v>
+        <v>3.93</v>
       </c>
       <c r="C157" t="n">
-        <v>3.936</v>
+        <v>3.93</v>
       </c>
       <c r="D157" t="n">
-        <v>3.936</v>
+        <v>3.93</v>
       </c>
       <c r="E157" t="n">
-        <v>3.936</v>
+        <v>3.93</v>
       </c>
       <c r="F157" t="n">
-        <v>322561.025</v>
+        <v>22330</v>
       </c>
       <c r="G157" t="n">
-        <v>5707690.733301132</v>
+        <v>6439111.607549991</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6095,28 +6507,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.946</v>
+        <v>3.93</v>
       </c>
       <c r="C158" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="D158" t="n">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="E158" t="n">
-        <v>3.946</v>
+        <v>3.93</v>
       </c>
       <c r="F158" t="n">
-        <v>22905.7226</v>
+        <v>33057.6285</v>
       </c>
       <c r="G158" t="n">
-        <v>5730596.455901132</v>
+        <v>6472169.236049991</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6136,28 +6549,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.978</v>
+        <v>3.959</v>
       </c>
       <c r="C159" t="n">
-        <v>3.978</v>
+        <v>3.959</v>
       </c>
       <c r="D159" t="n">
-        <v>3.978</v>
+        <v>3.959</v>
       </c>
       <c r="E159" t="n">
-        <v>3.978</v>
+        <v>3.959</v>
       </c>
       <c r="F159" t="n">
-        <v>126</v>
+        <v>43770</v>
       </c>
       <c r="G159" t="n">
-        <v>5730722.455901132</v>
+        <v>6515939.236049991</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6177,28 +6591,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.977</v>
+        <v>3.969</v>
       </c>
       <c r="C160" t="n">
-        <v>3.977</v>
+        <v>3.969</v>
       </c>
       <c r="D160" t="n">
-        <v>3.977</v>
+        <v>3.969</v>
       </c>
       <c r="E160" t="n">
-        <v>3.977</v>
+        <v>3.969</v>
       </c>
       <c r="F160" t="n">
-        <v>16836.339</v>
+        <v>59354.8386</v>
       </c>
       <c r="G160" t="n">
-        <v>5713886.116901132</v>
+        <v>6575294.074649991</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6218,28 +6633,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.978</v>
+        <v>3.97</v>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="E161" t="n">
-        <v>3.978</v>
+        <v>3.97</v>
       </c>
       <c r="F161" t="n">
-        <v>532898.0421</v>
+        <v>62947.6736</v>
       </c>
       <c r="G161" t="n">
-        <v>6246784.159001132</v>
+        <v>6638241.748249992</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6259,1734 +6675,7 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>7416.6259</v>
-      </c>
-      <c r="G162" t="n">
-        <v>6246784.159001132</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>572588.374</v>
-      </c>
-      <c r="G163" t="n">
-        <v>6819372.533001132</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="C164" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="D164" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4.071</v>
-      </c>
-      <c r="F164" t="n">
-        <v>123</v>
-      </c>
-      <c r="G164" t="n">
-        <v>6819495.533001132</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E165" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F165" t="n">
-        <v>390889.6235</v>
-      </c>
-      <c r="G165" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D166" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F166" t="n">
-        <v>249.9375</v>
-      </c>
-      <c r="G166" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E167" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F167" t="n">
-        <v>19750.0625</v>
-      </c>
-      <c r="G167" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4</v>
-      </c>
-      <c r="D168" t="n">
-        <v>4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>13301.4738</v>
-      </c>
-      <c r="G168" t="n">
-        <v>6441907.383301132</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>597.273</v>
-      </c>
-      <c r="G169" t="n">
-        <v>6441907.383301132</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D170" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E170" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F170" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>6421907.383301132</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C171" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D171" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E171" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F171" t="n">
-        <v>263345.8331</v>
-      </c>
-      <c r="G171" t="n">
-        <v>6421907.383301132</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="D172" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="E172" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="F172" t="n">
-        <v>300</v>
-      </c>
-      <c r="G172" t="n">
-        <v>6422207.383301132</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="D173" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="F173" t="n">
-        <v>46932.5644</v>
-      </c>
-      <c r="G173" t="n">
-        <v>6375274.818901133</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="D174" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="F174" t="n">
-        <v>11709.7581</v>
-      </c>
-      <c r="G174" t="n">
-        <v>6375274.818901133</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="D175" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="E175" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="F175" t="n">
-        <v>159403.3455</v>
-      </c>
-      <c r="G175" t="n">
-        <v>6534678.164401133</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="E176" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="F176" t="n">
-        <v>26589.3485</v>
-      </c>
-      <c r="G176" t="n">
-        <v>6534678.164401133</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="D177" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="F177" t="n">
-        <v>20561.4454</v>
-      </c>
-      <c r="G177" t="n">
-        <v>6555239.609801132</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="F178" t="n">
-        <v>13288.0345</v>
-      </c>
-      <c r="G178" t="n">
-        <v>6555239.609801132</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3.978</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D179" t="n">
-        <v>3.978</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F179" t="n">
-        <v>22956.2318</v>
-      </c>
-      <c r="G179" t="n">
-        <v>6532283.378001132</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="F180" t="n">
-        <v>6645.6772</v>
-      </c>
-      <c r="G180" t="n">
-        <v>6538929.055201132</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E181" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="F181" t="n">
-        <v>66816.5053</v>
-      </c>
-      <c r="G181" t="n">
-        <v>6472112.549901132</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="F182" t="n">
-        <v>6528.8806</v>
-      </c>
-      <c r="G182" t="n">
-        <v>6478641.430501131</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2501</v>
-      </c>
-      <c r="G183" t="n">
-        <v>6478641.430501131</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D184" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F184" t="n">
-        <v>20561.4454</v>
-      </c>
-      <c r="G184" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D185" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F185" t="n">
-        <v>24252.9649</v>
-      </c>
-      <c r="G185" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D186" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E186" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F186" t="n">
-        <v>65521.7176</v>
-      </c>
-      <c r="G186" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F187" t="n">
-        <v>126840.7654</v>
-      </c>
-      <c r="G187" t="n">
-        <v>6331239.219701132</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6484.9478</v>
-      </c>
-      <c r="G188" t="n">
-        <v>6324754.271901132</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.931</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3.931</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1875.0265</v>
-      </c>
-      <c r="G189" t="n">
-        <v>6322879.245401132</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F190" t="n">
-        <v>437.0943</v>
-      </c>
-      <c r="G190" t="n">
-        <v>6322442.151101132</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F191" t="n">
-        <v>257.4743</v>
-      </c>
-      <c r="G191" t="n">
-        <v>6322184.676801132</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="D192" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="F192" t="n">
-        <v>6277.6117</v>
-      </c>
-      <c r="G192" t="n">
-        <v>6315907.065101132</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F193" t="n">
-        <v>41211.2074</v>
-      </c>
-      <c r="G193" t="n">
-        <v>6274695.857701132</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="F194" t="n">
-        <v>5053.1807</v>
-      </c>
-      <c r="G194" t="n">
-        <v>6269642.677001132</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K194" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="G195" t="n">
-        <v>6269642.677501132</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K195" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>187416.558548859</v>
-      </c>
-      <c r="G196" t="n">
-        <v>6457059.236049991</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K196" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="F197" t="n">
-        <v>40277.6285</v>
-      </c>
-      <c r="G197" t="n">
-        <v>6416781.607549991</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="D198" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="F198" t="n">
-        <v>8639.978499999999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>6416781.607549991</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F199" t="n">
-        <v>22330</v>
-      </c>
-      <c r="G199" t="n">
-        <v>6439111.607549991</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F200" t="n">
-        <v>33057.6285</v>
-      </c>
-      <c r="G200" t="n">
-        <v>6472169.236049991</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="D201" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="F201" t="n">
-        <v>43770</v>
-      </c>
-      <c r="G201" t="n">
-        <v>6515939.236049991</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="F202" t="n">
-        <v>59354.8386</v>
-      </c>
-      <c r="G202" t="n">
-        <v>6575294.074649991</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F203" t="n">
-        <v>62947.6736</v>
-      </c>
-      <c r="G203" t="n">
-        <v>6638241.748249992</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>5479068.40417584</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>5366245.762175839</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>5366488.00277584</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>5366255.40437584</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>5366022.90597584</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>5331468.733075839</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>5453056.699185596</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>5638625.41297584</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>5652831.838275841</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>5871367.669375841</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>5867866.01227584</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>5970045.21037584</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,19 @@
         <v>5103214.26867584</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>3.866</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.866</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4547,23 @@
         <v>5103214.26867584</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>3.882</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4588,23 @@
         <v>5181214.26867584</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>3.882</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4629,19 @@
         <v>5176401.45847584</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.929</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4668,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,22 +4705,21 @@
         <v>5115732.96237584</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="K130" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5106,22 +4746,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,22 +4785,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,16 +4824,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5226,16 +4863,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5262,16 +4902,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5298,16 +4941,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5334,16 +4980,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5370,16 +5019,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,16 +5058,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5442,16 +5097,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5478,16 +5136,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5514,16 +5175,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5214,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5253,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5622,16 +5292,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,16 +5331,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5694,16 +5370,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,16 +5409,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5766,16 +5448,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,16 +5487,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5838,16 +5526,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5872,22 +5563,23 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>3.872</v>
       </c>
       <c r="J152" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="K152" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5912,26 +5604,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>3.872</v>
       </c>
       <c r="J153" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="K153" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5956,26 +5645,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J154" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K154" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6000,22 +5686,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J155" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K155" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6040,26 +5727,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J156" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K156" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6084,26 +5768,21 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K157" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6128,22 +5807,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J158" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K158" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6168,26 +5848,23 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J159" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K159" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6212,26 +5889,23 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J160" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K160" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6256,26 +5930,23 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>3.881</v>
       </c>
       <c r="J161" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="K161" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6300,26 +5971,23 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="J162" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K162" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6346,22 +6014,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6386,26 +6051,21 @@
         <v>5434564.120175839</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6430,26 +6090,21 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K165" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6474,26 +6129,21 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K166" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6518,26 +6168,21 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K167" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6562,26 +6207,21 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K168" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6606,26 +6246,21 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K169" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6650,26 +6285,23 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J170" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K170" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6694,26 +6326,23 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J171" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K171" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6738,26 +6367,23 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>3.936</v>
       </c>
       <c r="J172" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="K172" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6782,24 +6408,23 @@
         <v>5511945.293975839</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>3.91</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6824,24 +6449,23 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>3.936</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6866,26 +6490,23 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>3.925</v>
       </c>
       <c r="J175" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K175" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6910,26 +6531,23 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J176" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K176" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6954,24 +6572,23 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6996,24 +6613,23 @@
         <v>5509186.591275839</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7038,24 +6654,23 @@
         <v>5031070.581675839</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7080,24 +6695,23 @@
         <v>5034902.978201131</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>3.85</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7122,24 +6736,23 @@
         <v>5029252.978201131</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>3.914</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7166,22 +6779,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7208,22 +6818,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7250,22 +6857,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7292,22 +6896,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7334,22 +6935,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7376,22 +6974,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7418,22 +7013,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7460,22 +7052,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7502,22 +7091,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7544,22 +7130,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7586,22 +7169,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7628,22 +7208,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7670,22 +7247,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7712,22 +7286,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7754,22 +7325,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7796,22 +7364,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7838,22 +7403,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7880,22 +7442,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7922,22 +7481,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7964,22 +7520,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8006,22 +7559,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8048,22 +7598,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8090,22 +7637,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8130,24 +7674,23 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>4.003</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8174,22 +7717,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8216,22 +7756,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8258,22 +7795,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8300,22 +7834,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8342,22 +7873,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8384,22 +7912,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8426,22 +7951,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8468,22 +7990,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8510,22 +8029,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8552,22 +8068,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8594,22 +8107,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8636,22 +8146,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8678,22 +8185,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8720,22 +8224,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8762,22 +8263,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8804,22 +8302,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8846,22 +8341,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8888,22 +8380,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8928,26 +8417,21 @@
         <v>6269642.677501132</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="K224" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8972,26 +8456,21 @@
         <v>6457059.236049991</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K225" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>3.929</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9018,22 +8497,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9060,22 +8536,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9102,22 +8575,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9144,22 +8614,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9186,22 +8653,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9228,22 +8692,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9270,24 +8731,21 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6840247.837705437</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6243556.798005437</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5668794.008405438</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>5479068.40417584</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>5366245.762175839</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>5366488.00277584</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5366255.40437584</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>5366022.90597584</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>5331468.733075839</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>5453056.699185596</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>5638625.41297584</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>5652831.838275841</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5871367.669375841</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5867866.01227584</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5970045.21037584</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,10 +2497,14 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.008</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2530,11 +2534,19 @@
         <v>6011700.137975839</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2890,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3826,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3865,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,15 +4876,17 @@
         <v>5103214.26867584</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,17 +4915,17 @@
         <v>5103214.26867584</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.882</v>
       </c>
       <c r="J126" t="n">
-        <v>3.866</v>
+        <v>4.008</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4588,17 +4956,17 @@
         <v>5181214.26867584</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.882</v>
       </c>
       <c r="J127" t="n">
-        <v>3.866</v>
+        <v>4.008</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4629,15 +4997,19 @@
         <v>5176401.45847584</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.929</v>
       </c>
       <c r="J128" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +5042,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4705,11 +5077,13 @@
         <v>5115732.96237584</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.862</v>
+      </c>
       <c r="J130" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4748,7 +5122,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4787,7 +5161,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4826,7 +5200,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4865,7 +5239,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4904,7 +5278,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4943,7 +5317,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4982,7 +5356,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5021,7 +5395,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5060,7 +5434,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5099,7 +5473,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5138,7 +5512,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5177,7 +5551,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5216,7 +5590,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5255,7 +5629,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5294,7 +5668,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5333,7 +5707,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5372,7 +5746,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5411,7 +5785,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5450,7 +5824,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5485,11 +5859,13 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J150" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5524,11 +5900,13 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J151" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5563,13 +5941,13 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.872</v>
       </c>
       <c r="J152" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5604,13 +5982,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.872</v>
       </c>
       <c r="J153" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5645,13 +6023,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.885</v>
       </c>
       <c r="J154" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5686,13 +6064,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.885</v>
       </c>
       <c r="J155" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5727,13 +6105,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.885</v>
       </c>
       <c r="J156" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5768,11 +6146,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.885</v>
+      </c>
       <c r="J157" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5807,13 +6187,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.885</v>
       </c>
       <c r="J158" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5848,13 +6228,13 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.885</v>
       </c>
       <c r="J159" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5889,13 +6269,13 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.885</v>
       </c>
       <c r="J160" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5930,13 +6310,13 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.881</v>
       </c>
       <c r="J161" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5971,13 +6351,13 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.885</v>
       </c>
       <c r="J162" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6016,7 +6396,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6055,7 +6435,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6094,7 +6474,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6129,11 +6509,13 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.885</v>
+      </c>
       <c r="J166" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6168,11 +6550,13 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.885</v>
+      </c>
       <c r="J167" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6207,11 +6591,13 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J168" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6246,11 +6632,13 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.91</v>
+      </c>
       <c r="J169" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6285,13 +6673,13 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.91</v>
       </c>
       <c r="J170" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6326,13 +6714,13 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>3.91</v>
       </c>
       <c r="J171" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6367,13 +6755,13 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>3.936</v>
       </c>
       <c r="J172" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6408,13 +6796,13 @@
         <v>5511945.293975839</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.91</v>
       </c>
       <c r="J173" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6449,13 +6837,13 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.936</v>
       </c>
       <c r="J174" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6490,13 +6878,13 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.925</v>
       </c>
       <c r="J175" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6531,13 +6919,13 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.92</v>
       </c>
       <c r="J176" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6572,13 +6960,13 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.92</v>
       </c>
       <c r="J177" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6613,13 +7001,11 @@
         <v>5509186.591275839</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6654,13 +7040,13 @@
         <v>5031070.581675839</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.9</v>
       </c>
       <c r="J179" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6695,13 +7081,13 @@
         <v>5034902.978201131</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.85</v>
       </c>
       <c r="J180" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6736,13 +7122,11 @@
         <v>5029252.978201131</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6777,11 +7161,13 @@
         <v>5029252.978201131</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.881</v>
+      </c>
       <c r="J182" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6816,11 +7202,13 @@
         <v>5029380.978201131</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.881</v>
+      </c>
       <c r="J183" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6855,11 +7243,13 @@
         <v>5128050.978201131</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.914</v>
+      </c>
       <c r="J184" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6894,11 +7284,13 @@
         <v>5385129.708301132</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.915</v>
+      </c>
       <c r="J185" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6933,11 +7325,13 @@
         <v>5707690.733301132</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.935</v>
+      </c>
       <c r="J186" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6976,7 +7370,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7015,7 +7409,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7054,7 +7448,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7093,7 +7487,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7132,7 +7526,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7171,7 +7565,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7210,7 +7604,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7249,7 +7643,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7288,7 +7682,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7327,7 +7721,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7366,7 +7760,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7405,7 +7799,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7444,7 +7838,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7483,7 +7877,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7522,7 +7916,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7561,7 +7955,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7600,7 +7994,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7639,7 +8033,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7674,13 +8068,11 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7719,7 +8111,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7758,7 +8150,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7797,7 +8189,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7836,7 +8228,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7875,7 +8267,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7914,7 +8306,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7953,7 +8345,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7992,7 +8384,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8031,7 +8423,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8070,7 +8462,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8109,7 +8501,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8148,7 +8540,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8187,7 +8579,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8226,7 +8618,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8265,7 +8657,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8304,7 +8696,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8343,7 +8735,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8378,11 +8770,13 @@
         <v>6269642.677001132</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J223" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8417,11 +8811,13 @@
         <v>6269642.677501132</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J224" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8456,11 +8852,13 @@
         <v>6457059.236049991</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J225" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8495,11 +8893,13 @@
         <v>6416781.607549991</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J226" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8538,7 +8938,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8573,11 +8973,13 @@
         <v>6439111.607549991</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.903</v>
+      </c>
       <c r="J228" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8612,11 +9014,13 @@
         <v>6472169.236049991</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.93</v>
+      </c>
       <c r="J229" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8655,7 +9059,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8694,7 +9098,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8733,7 +9137,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.929</v>
+        <v>4.008</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8746,6 +9150,6 @@
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6840247.837705437</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6784827.837705437</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6243556.798005437</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5668794.008405438</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>5479068.40417584</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>5366245.762175839</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>5366488.00277584</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5366255.40437584</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>5366022.90597584</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>5365893.13257584</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>5331468.733075839</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>5453056.699185596</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>5638625.41297584</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>5652831.838275841</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>5707571.88547584</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5871367.669375841</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5867866.01227584</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5891054.108675839</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5890602.434375839</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5884602.434375839</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5889475.144975839</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,14 +2497,10 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2534,19 +2530,11 @@
         <v>6011700.137975839</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2731,17 +2695,11 @@
         <v>5554175.683175839</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2770,17 +2728,11 @@
         <v>5555175.683175839</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2809,17 +2761,11 @@
         <v>5554925.55797584</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2848,17 +2794,11 @@
         <v>5553678.46577584</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2890,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3199,15 +3091,15 @@
         <v>5445792.846275841</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3241,9 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +3170,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,12 +3241,12 @@
         <v>5894054.748775841</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,9 +3283,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3320,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3391,12 @@
         <v>5885174.748775841</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,12 +3430,12 @@
         <v>6743915.254775841</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,12 +3469,12 @@
         <v>6686398.950875841</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3511,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,9 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,12 +3693,12 @@
         <v>6348736.83577584</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.916</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3772,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +3809,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +3883,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,9 +3957,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,9 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4031,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +4105,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4179,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4216,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4290,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4327,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4401,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4438,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4475,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4512,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,9 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,9 +4623,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4660,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,14 +4731,10 @@
         <v>5103214.26867584</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.882</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,14 +4768,10 @@
         <v>5181214.26867584</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.882</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,14 +4805,10 @@
         <v>5176401.45847584</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,9 +4845,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,14 +4879,10 @@
         <v>5115732.96237584</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.862</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5121,9 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,9 +4956,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5199,9 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5238,9 +5030,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,9 +5067,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5316,9 +5104,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,9 +5141,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,9 +5178,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5433,9 +5215,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5472,9 +5252,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5511,9 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,9 +5326,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5589,9 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,9 +5400,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5667,9 +5437,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,9 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,9 +5511,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,9 +5548,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5823,9 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,14 +5619,10 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5900,14 +5656,10 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5941,14 +5693,10 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,9 +5735,7 @@
       <c r="I153" t="n">
         <v>3.872</v>
       </c>
-      <c r="J153" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,9 +5774,7 @@
       <c r="I154" t="n">
         <v>3.885</v>
       </c>
-      <c r="J154" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,14 +5808,10 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6105,14 +5845,10 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6146,14 +5882,10 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,14 +5919,10 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6228,14 +5956,10 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,14 +5993,10 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,14 +6030,10 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,14 +6067,10 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,9 +6107,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,9 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,9 +6181,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,14 +6215,10 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6550,14 +6252,10 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6591,14 +6289,10 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,14 +6326,10 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,14 +6363,10 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,14 +6400,10 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6755,14 +6437,10 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,14 +6474,10 @@
         <v>5511945.293975839</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,14 +6511,10 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6878,14 +6548,10 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6919,14 +6585,10 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6960,14 +6622,10 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7004,9 +6662,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,14 +6696,10 @@
         <v>5031070.581675839</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7086,9 +6738,7 @@
       <c r="I180" t="n">
         <v>3.85</v>
       </c>
-      <c r="J180" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7125,9 +6775,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,9 +6814,7 @@
       <c r="I182" t="n">
         <v>3.881</v>
       </c>
-      <c r="J182" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,9 +6853,7 @@
       <c r="I183" t="n">
         <v>3.881</v>
       </c>
-      <c r="J183" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,9 +6892,7 @@
       <c r="I184" t="n">
         <v>3.914</v>
       </c>
-      <c r="J184" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,14 +6926,10 @@
         <v>5385129.708301132</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="J185" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,14 +6963,10 @@
         <v>5707690.733301132</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.935</v>
-      </c>
-      <c r="J186" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,9 +7003,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7408,9 +7040,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7447,9 +7077,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7486,9 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7525,9 +7151,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7564,9 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7603,9 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7642,9 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,9 +7299,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,9 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,9 +7373,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7798,9 +7410,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,9 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,9 +7484,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7912,20 +7518,16 @@
         <v>6422207.383301132</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -7951,17 +7553,11 @@
         <v>6375274.818901133</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7589,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7622,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7652,11 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7685,11 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7718,11 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7754,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +7886,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7919,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +7952,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +7985,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8018,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8051,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8084,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8117,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8150,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8183,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8216,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8770,19 +8246,11 @@
         <v>6269642.677001132</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J223" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8811,19 +8279,11 @@
         <v>6269642.677501132</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8852,19 +8312,11 @@
         <v>6457059.236049991</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8893,19 +8345,11 @@
         <v>6416781.607549991</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8937,14 +8381,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8973,19 +8411,11 @@
         <v>6439111.607549991</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.903</v>
-      </c>
-      <c r="J228" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9014,19 +8444,11 @@
         <v>6472169.236049991</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9058,14 +8480,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9097,14 +8513,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9136,20 +8546,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -1276,7 +1276,7 @@
         <v>5479068.40417584</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5366255.40437584</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>5366022.90597584</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>5365893.13257584</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>5331468.733075839</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>5453056.699185596</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>5638625.41297584</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>5652831.838275841</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5665724.421475841</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5970045.21037584</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5890602.434375839</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5884602.434375839</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5889475.144975839</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>5928620.47917584</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5554175.683175839</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>5555175.683175839</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>5554925.55797584</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5553678.46577584</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>5192299.78057584</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3091,17 +3091,11 @@
         <v>5445792.846275841</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3171,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3241,17 +3223,11 @@
         <v>5894054.748775841</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3284,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3391,17 +3355,11 @@
         <v>5885174.748775841</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3430,17 +3388,11 @@
         <v>6743915.254775841</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3469,17 +3421,11 @@
         <v>6686398.950875841</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3549,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3693,17 +3619,11 @@
         <v>6348736.83577584</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.916</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3810,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3847,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3884,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3954,15 +3850,11 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3995,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4028,15 +3916,11 @@
         <v>6790851.68887584</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4143,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4217,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4254,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4291,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4365,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4402,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4550,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4624,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4772,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4809,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4846,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4883,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4994,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5031,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5068,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5105,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5216,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5253,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5327,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5364,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5438,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5475,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5512,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5586,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5693,15 +5401,15 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5735,10 +5443,12 @@
       <c r="I153" t="n">
         <v>3.872</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.872</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5774,10 +5484,12 @@
       <c r="I154" t="n">
         <v>3.885</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.872</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5808,15 +5520,15 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5845,13 +5557,17 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5882,13 +5598,17 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5919,15 +5639,15 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5956,13 +5676,17 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5993,13 +5717,17 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -6030,13 +5758,17 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -6067,10 +5799,14 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,7 +5843,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,7 +5882,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,7 +5921,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,7 +5960,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6252,10 +5996,14 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,10 +6037,14 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,10 +6078,14 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6363,10 +6119,14 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,10 +6160,14 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,10 +6201,14 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,7 +6245,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6511,10 +6281,14 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,10 +6322,14 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6585,10 +6363,14 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,10 +6404,14 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,10 +6445,14 @@
         <v>5509186.591275839</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,7 +6489,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,7 +6530,9 @@
       <c r="I180" t="n">
         <v>3.85</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,7 +6569,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,7 +6610,9 @@
       <c r="I182" t="n">
         <v>3.881</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,7 +6651,9 @@
       <c r="I183" t="n">
         <v>3.881</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,7 +6692,9 @@
       <c r="I184" t="n">
         <v>3.914</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6926,10 +6728,14 @@
         <v>5385129.708301132</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,7 +6772,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,7 +6811,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,7 +6850,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,7 +6889,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,7 +6928,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7151,7 +6967,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7188,7 +7006,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7225,7 +7045,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,7 +7084,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,7 +7123,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,7 +7162,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,7 +7201,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,7 +7240,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7447,7 +7279,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7484,7 +7318,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,16 +7354,20 @@
         <v>6422207.383301132</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.885</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
       <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -7553,11 +7393,17 @@
         <v>6375274.818901133</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7589,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7622,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7652,11 +7510,17 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7685,11 +7549,17 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7718,11 +7588,17 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7754,8 +7630,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7787,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7820,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7853,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7886,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7919,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7952,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7985,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8018,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8051,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8084,8 +8020,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8117,8 +8059,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8150,8 +8098,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8183,8 +8137,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8216,8 +8176,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8249,8 +8215,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8282,8 +8254,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8315,8 +8293,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8348,8 +8332,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8381,8 +8371,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8414,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8447,8 +8449,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8480,8 +8488,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8513,8 +8527,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8546,8 +8566,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-21 BackTest PLY.xlsx
+++ b/BackTest/2020-01-21 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16020.4226</v>
       </c>
       <c r="G2" t="n">
-        <v>6840247.837705437</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>55420</v>
       </c>
       <c r="G3" t="n">
-        <v>6784827.837705437</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>15647.7033</v>
       </c>
       <c r="G4" t="n">
-        <v>6784827.837705437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>12311.1137</v>
       </c>
       <c r="G5" t="n">
-        <v>6784827.837705437</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>541271.0397</v>
       </c>
       <c r="G6" t="n">
-        <v>6243556.798005437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>6243756.798005437</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>574962.7896</v>
       </c>
       <c r="G8" t="n">
-        <v>5668794.008405438</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>300000</v>
       </c>
       <c r="G9" t="n">
-        <v>5368794.008405438</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>5378794.008405438</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>546443.9888000001</v>
       </c>
       <c r="G11" t="n">
-        <v>4832350.019605437</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>213470</v>
       </c>
       <c r="G12" t="n">
-        <v>5045820.019605437</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>62225.748</v>
       </c>
       <c r="G13" t="n">
-        <v>5108045.767605437</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2588.6616</v>
       </c>
       <c r="G14" t="n">
-        <v>5110634.429205437</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>365.7632</v>
       </c>
       <c r="G15" t="n">
-        <v>5111000.192405437</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>23900.1459</v>
       </c>
       <c r="G16" t="n">
-        <v>5087100.046505437</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4914</v>
       </c>
       <c r="G17" t="n">
-        <v>5082186.046505437</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>300</v>
       </c>
       <c r="G18" t="n">
-        <v>5082486.046505437</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>36870.2497</v>
       </c>
       <c r="G19" t="n">
-        <v>5045615.796805438</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>126</v>
       </c>
       <c r="G20" t="n">
-        <v>5045741.796805438</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>23722.658</v>
       </c>
       <c r="G21" t="n">
-        <v>5045741.796805438</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11847.464</v>
       </c>
       <c r="G22" t="n">
-        <v>5057589.260805437</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>141.4671</v>
       </c>
       <c r="G23" t="n">
-        <v>5057730.727905437</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>138471.7281</v>
       </c>
       <c r="G24" t="n">
-        <v>5196202.456005437</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>44373.982378144</v>
       </c>
       <c r="G25" t="n">
-        <v>5240576.438383581</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>148602.479921856</v>
       </c>
       <c r="G26" t="n">
-        <v>5240576.438383581</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>238491.965792259</v>
       </c>
       <c r="G27" t="n">
-        <v>5479068.40417584</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>56411.321</v>
       </c>
       <c r="G28" t="n">
-        <v>5422657.08317584</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>553899.5820000001</v>
       </c>
       <c r="G29" t="n">
-        <v>5422657.08317584</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>56411.321</v>
       </c>
       <c r="G30" t="n">
-        <v>5366245.762175839</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>242.2406</v>
       </c>
       <c r="G31" t="n">
-        <v>5366488.00277584</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>232.5984</v>
       </c>
       <c r="G32" t="n">
-        <v>5366255.40437584</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>232.4984</v>
       </c>
       <c r="G33" t="n">
-        <v>5366022.90597584</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>129.7734</v>
       </c>
       <c r="G34" t="n">
-        <v>5365893.13257584</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>34424.3995</v>
       </c>
       <c r="G35" t="n">
-        <v>5331468.733075839</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>121587.966109756</v>
       </c>
       <c r="G36" t="n">
-        <v>5453056.699185596</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>185568.713790244</v>
       </c>
       <c r="G37" t="n">
-        <v>5638625.41297584</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>14206.4253</v>
       </c>
       <c r="G38" t="n">
-        <v>5652831.838275841</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>54740.0472</v>
       </c>
       <c r="G39" t="n">
-        <v>5707571.88547584</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4651.0988</v>
       </c>
       <c r="G40" t="n">
-        <v>5707571.88547584</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>11732.2616</v>
       </c>
       <c r="G41" t="n">
-        <v>5707571.88547584</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>30000</v>
       </c>
       <c r="G42" t="n">
-        <v>5677571.88547584</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>15591.6809</v>
       </c>
       <c r="G43" t="n">
-        <v>5677571.88547584</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>44619.5966</v>
       </c>
       <c r="G44" t="n">
-        <v>5677571.88547584</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>11847.464</v>
       </c>
       <c r="G45" t="n">
-        <v>5665724.421475841</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>205887.8012</v>
       </c>
       <c r="G46" t="n">
-        <v>5871612.22267584</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>90751.2861</v>
       </c>
       <c r="G47" t="n">
-        <v>5871612.22267584</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>190450.5783</v>
       </c>
       <c r="G48" t="n">
-        <v>5871612.22267584</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>244.5533</v>
       </c>
       <c r="G49" t="n">
-        <v>5871367.669375841</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3501.6571</v>
       </c>
       <c r="G50" t="n">
-        <v>5867866.01227584</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>112080.5038</v>
       </c>
       <c r="G51" t="n">
-        <v>5979946.51607584</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>66441.19010000001</v>
       </c>
       <c r="G52" t="n">
-        <v>5979946.51607584</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>66441.19010000001</v>
       </c>
       <c r="G53" t="n">
-        <v>5979946.51607584</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>90211.2775</v>
       </c>
       <c r="G54" t="n">
-        <v>5979946.51607584</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>32102.6815</v>
       </c>
       <c r="G55" t="n">
-        <v>5979946.51607584</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>9901.305700000001</v>
       </c>
       <c r="G56" t="n">
-        <v>5970045.21037584</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>28991.1017</v>
       </c>
       <c r="G57" t="n">
-        <v>5941054.108675839</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>114671</v>
       </c>
       <c r="G58" t="n">
-        <v>5941054.108675839</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>50000</v>
       </c>
       <c r="G59" t="n">
-        <v>5891054.108675839</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>451.6743</v>
       </c>
       <c r="G60" t="n">
-        <v>5890602.434375839</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>6000</v>
       </c>
       <c r="G61" t="n">
-        <v>5884602.434375839</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>4872.7106</v>
       </c>
       <c r="G62" t="n">
-        <v>5889475.144975839</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>222224.993</v>
       </c>
       <c r="G63" t="n">
-        <v>6111700.137975839</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>16257</v>
       </c>
       <c r="G64" t="n">
-        <v>6111700.137975839</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>100000</v>
       </c>
       <c r="G65" t="n">
-        <v>6011700.137975839</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>61818.1134</v>
       </c>
       <c r="G66" t="n">
-        <v>6073518.251375839</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>55102.2278</v>
       </c>
       <c r="G67" t="n">
-        <v>6128620.47917584</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>100000</v>
       </c>
       <c r="G68" t="n">
-        <v>6028620.47917584</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>100000</v>
       </c>
       <c r="G69" t="n">
-        <v>5928620.47917584</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>374444.796</v>
       </c>
       <c r="G70" t="n">
-        <v>5554175.683175839</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>5555175.683175839</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>250.1252</v>
       </c>
       <c r="G72" t="n">
-        <v>5554925.55797584</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1247.0922</v>
       </c>
       <c r="G73" t="n">
-        <v>5553678.46577584</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>22710.7256</v>
       </c>
       <c r="G74" t="n">
-        <v>5576389.19137584</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>289999.1838</v>
       </c>
       <c r="G75" t="n">
-        <v>5576389.19137584</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>384089.4108</v>
       </c>
       <c r="G76" t="n">
-        <v>5192299.78057584</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>275555.2954</v>
       </c>
       <c r="G77" t="n">
-        <v>4916744.48517584</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>10611.6972</v>
       </c>
       <c r="G78" t="n">
-        <v>4927356.18237584</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>22710.7256</v>
       </c>
       <c r="G79" t="n">
-        <v>4904645.45677584</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>15021.696</v>
       </c>
       <c r="G80" t="n">
-        <v>4919667.152775841</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>127</v>
       </c>
       <c r="G81" t="n">
-        <v>4919794.152775841</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>525998.6935000001</v>
       </c>
       <c r="G82" t="n">
-        <v>5445792.846275841</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>76646.40519999999</v>
       </c>
       <c r="G83" t="n">
-        <v>5445792.846275841</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>126</v>
       </c>
       <c r="G84" t="n">
-        <v>5445918.846275841</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>80964.62669999999</v>
       </c>
       <c r="G85" t="n">
-        <v>5364954.219575841</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>529100.5292</v>
       </c>
       <c r="G86" t="n">
-        <v>5894054.748775841</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>125598.8711</v>
       </c>
       <c r="G87" t="n">
-        <v>5894054.748775841</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>8880</v>
       </c>
       <c r="G88" t="n">
-        <v>5885174.748775841</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>81664.44869999999</v>
       </c>
       <c r="G89" t="n">
-        <v>5885174.748775841</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>13185.65</v>
       </c>
       <c r="G90" t="n">
-        <v>5885174.748775841</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>858740.5060000001</v>
       </c>
       <c r="G91" t="n">
-        <v>6743915.254775841</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>57516.3039</v>
       </c>
       <c r="G92" t="n">
-        <v>6686398.950875841</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1521.2331</v>
       </c>
       <c r="G93" t="n">
-        <v>6687920.183975841</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>157715.3513</v>
       </c>
       <c r="G94" t="n">
-        <v>6530204.832675841</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>8880</v>
       </c>
       <c r="G95" t="n">
-        <v>6521324.832675841</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>16793.0306</v>
       </c>
       <c r="G96" t="n">
-        <v>6504531.802075841</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>212127.9309</v>
       </c>
       <c r="G97" t="n">
-        <v>6292403.87117584</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>56332.9646</v>
       </c>
       <c r="G98" t="n">
-        <v>6348736.83577584</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>91830.0488</v>
       </c>
       <c r="G99" t="n">
-        <v>6440566.88457584</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>96247.63920000001</v>
       </c>
       <c r="G100" t="n">
-        <v>6536814.52377584</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>10214.0881</v>
       </c>
       <c r="G101" t="n">
-        <v>6526600.43567584</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>26460.8543</v>
       </c>
       <c r="G102" t="n">
-        <v>6553061.28997584</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>238090.3989</v>
       </c>
       <c r="G103" t="n">
-        <v>6791151.68887584</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>10138.75</v>
       </c>
       <c r="G104" t="n">
-        <v>6791151.68887584</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>93610.4276</v>
       </c>
       <c r="G105" t="n">
-        <v>6791151.68887584</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>138776.9276</v>
       </c>
       <c r="G106" t="n">
-        <v>6791151.68887584</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>300</v>
       </c>
       <c r="G107" t="n">
-        <v>6790851.68887584</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>89931.67140000001</v>
       </c>
       <c r="G108" t="n">
-        <v>6880783.36027584</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>267719.5461</v>
       </c>
       <c r="G109" t="n">
-        <v>6880783.36027584</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>20152.6203</v>
       </c>
       <c r="G110" t="n">
-        <v>6860630.739975841</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>50125.3133</v>
       </c>
       <c r="G111" t="n">
-        <v>6860630.739975841</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>166035.7434</v>
       </c>
       <c r="G112" t="n">
-        <v>6694594.996575841</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>120000</v>
       </c>
       <c r="G113" t="n">
-        <v>6694594.996575841</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>150000</v>
       </c>
       <c r="G114" t="n">
-        <v>6694594.996575841</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>79484.6023</v>
       </c>
       <c r="G115" t="n">
-        <v>6615110.39427584</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>137265.7151</v>
       </c>
       <c r="G116" t="n">
-        <v>6615110.39427584</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>9484.781999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>6605625.612275841</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>9230</v>
       </c>
       <c r="G118" t="n">
-        <v>6614855.612275841</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>366396.9802</v>
       </c>
       <c r="G119" t="n">
-        <v>6248458.632075841</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>598003.6822</v>
       </c>
       <c r="G120" t="n">
-        <v>5650454.949875841</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>257.6735</v>
       </c>
       <c r="G121" t="n">
-        <v>5650197.276375841</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>82901.099</v>
       </c>
       <c r="G122" t="n">
-        <v>5567296.177375841</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>228433.315</v>
       </c>
       <c r="G123" t="n">
-        <v>5338862.862375841</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>300000</v>
       </c>
       <c r="G124" t="n">
-        <v>5038862.862375841</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>64351.4063</v>
       </c>
       <c r="G125" t="n">
-        <v>5103214.26867584</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>51034.7181</v>
       </c>
       <c r="G126" t="n">
-        <v>5103214.26867584</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>78000</v>
       </c>
       <c r="G127" t="n">
-        <v>5181214.26867584</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>4812.8102</v>
       </c>
       <c r="G128" t="n">
-        <v>5176401.45847584</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>138776.9276</v>
       </c>
       <c r="G129" t="n">
-        <v>5037624.53087584</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>78108.43150000001</v>
       </c>
       <c r="G130" t="n">
-        <v>5115732.96237584</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>125387.797</v>
       </c>
       <c r="G131" t="n">
-        <v>5241120.75937584</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>28800</v>
       </c>
       <c r="G132" t="n">
-        <v>5212320.75937584</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>18137.3806</v>
       </c>
       <c r="G133" t="n">
-        <v>5212320.75937584</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>111658.1647</v>
       </c>
       <c r="G134" t="n">
-        <v>5212320.75937584</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>127110.2314</v>
       </c>
       <c r="G135" t="n">
-        <v>5339430.99077584</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>125032.0826</v>
       </c>
       <c r="G136" t="n">
-        <v>5339430.99077584</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>13526.7871</v>
       </c>
       <c r="G137" t="n">
-        <v>5339430.99077584</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>18633.3483</v>
       </c>
       <c r="G138" t="n">
-        <v>5339430.99077584</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>425.7332</v>
       </c>
       <c r="G139" t="n">
-        <v>5339856.72397584</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>17870.8935</v>
       </c>
       <c r="G140" t="n">
-        <v>5321985.83047584</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>127110.2314</v>
       </c>
       <c r="G141" t="n">
-        <v>5321985.83047584</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>4498.2007</v>
       </c>
       <c r="G142" t="n">
-        <v>5321985.83047584</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>126</v>
       </c>
       <c r="G143" t="n">
-        <v>5322111.83047584</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>51135.3222</v>
       </c>
       <c r="G144" t="n">
-        <v>5373247.15267584</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>51034.7181</v>
       </c>
       <c r="G145" t="n">
-        <v>5322212.43457584</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>352198.8293</v>
       </c>
       <c r="G146" t="n">
-        <v>4970013.60527584</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>24040.4842</v>
       </c>
       <c r="G147" t="n">
-        <v>4945973.12107584</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>49257.7163</v>
       </c>
       <c r="G148" t="n">
-        <v>4896715.404775839</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>624430.0852</v>
       </c>
       <c r="G149" t="n">
-        <v>4272285.31957584</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>91966.52039999999</v>
       </c>
       <c r="G150" t="n">
-        <v>4272285.31957584</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>13301.4738</v>
       </c>
       <c r="G151" t="n">
-        <v>4272285.31957584</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,22 +4943,15 @@
         <v>269945.975</v>
       </c>
       <c r="G152" t="n">
-        <v>4272285.31957584</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5435,26 +4973,15 @@
         <v>7530</v>
       </c>
       <c r="G153" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5476,26 +5003,15 @@
         <v>163788.4749</v>
       </c>
       <c r="G154" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5517,22 +5033,15 @@
         <v>93315.07060000001</v>
       </c>
       <c r="G155" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5554,26 +5063,15 @@
         <v>48491.5898</v>
       </c>
       <c r="G156" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5595,26 +5093,15 @@
         <v>553177.9301</v>
       </c>
       <c r="G157" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,22 +5123,15 @@
         <v>95369.56329999999</v>
       </c>
       <c r="G158" t="n">
-        <v>4279815.31957584</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5673,26 +5153,19 @@
         <v>613.7012</v>
       </c>
       <c r="G159" t="n">
-        <v>4279815.31957584</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>3.885</v>
       </c>
       <c r="I159" t="n">
         <v>3.885</v>
       </c>
-      <c r="J159" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5714,26 +5187,23 @@
         <v>515.9016</v>
       </c>
       <c r="G160" t="n">
-        <v>4279299.417975839</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>3.885</v>
       </c>
       <c r="I160" t="n">
         <v>3.885</v>
       </c>
-      <c r="J160" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5755,26 +5225,23 @@
         <v>3058853.5225</v>
       </c>
       <c r="G161" t="n">
-        <v>7338152.940475839</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>3.881</v>
       </c>
       <c r="I161" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5796,26 +5263,23 @@
         <v>1543.8726</v>
       </c>
       <c r="G162" t="n">
-        <v>7338152.940475839</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>3.885</v>
       </c>
       <c r="I162" t="n">
         <v>3.885</v>
       </c>
-      <c r="J162" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5837,24 +5301,21 @@
         <v>500638.994</v>
       </c>
       <c r="G163" t="n">
-        <v>6837513.946475839</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5876,24 +5337,21 @@
         <v>1402949.8263</v>
       </c>
       <c r="G164" t="n">
-        <v>5434564.120175839</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5915,24 +5373,21 @@
         <v>76000</v>
       </c>
       <c r="G165" t="n">
-        <v>5510564.120175839</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5954,24 +5409,21 @@
         <v>800.3733999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>5510564.120175839</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5993,26 +5445,23 @@
         <v>200</v>
       </c>
       <c r="G167" t="n">
-        <v>5510764.120175839</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>3.885</v>
       </c>
       <c r="I167" t="n">
         <v>3.885</v>
       </c>
-      <c r="J167" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6034,26 +5483,21 @@
         <v>44943.6485</v>
       </c>
       <c r="G168" t="n">
-        <v>5510764.120175839</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6075,26 +5519,21 @@
         <v>785.5297</v>
       </c>
       <c r="G169" t="n">
-        <v>5510764.120175839</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6116,26 +5555,21 @@
         <v>38471.6561</v>
       </c>
       <c r="G170" t="n">
-        <v>5510764.120175839</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6157,26 +5591,21 @@
         <v>200</v>
       </c>
       <c r="G171" t="n">
-        <v>5510964.120175839</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6198,26 +5627,21 @@
         <v>515.9016</v>
       </c>
       <c r="G172" t="n">
-        <v>5510448.218575839</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6239,24 +5663,21 @@
         <v>1497.0754</v>
       </c>
       <c r="G173" t="n">
-        <v>5511945.293975839</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6278,26 +5699,21 @@
         <v>128</v>
       </c>
       <c r="G174" t="n">
-        <v>5511817.293975839</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>3.936</v>
-      </c>
-      <c r="J174" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6319,26 +5735,21 @@
         <v>128</v>
       </c>
       <c r="G175" t="n">
-        <v>5511689.293975839</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6360,26 +5771,21 @@
         <v>3899.5</v>
       </c>
       <c r="G176" t="n">
-        <v>5511689.293975839</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J176" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6401,26 +5807,21 @@
         <v>2039.6775</v>
       </c>
       <c r="G177" t="n">
-        <v>5511689.293975839</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J177" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6442,26 +5843,21 @@
         <v>2502.7027</v>
       </c>
       <c r="G178" t="n">
-        <v>5509186.591275839</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6483,24 +5879,21 @@
         <v>478116.0096</v>
       </c>
       <c r="G179" t="n">
-        <v>5031070.581675839</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6522,26 +5915,21 @@
         <v>3832.396525293</v>
       </c>
       <c r="G180" t="n">
-        <v>5034902.978201131</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6563,24 +5951,23 @@
         <v>5650</v>
       </c>
       <c r="G181" t="n">
-        <v>5029252.978201131</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>3.914</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6602,26 +5989,23 @@
         <v>23706.3555</v>
       </c>
       <c r="G182" t="n">
-        <v>5029252.978201131</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>3.881</v>
       </c>
       <c r="I182" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6643,26 +6027,23 @@
         <v>128</v>
       </c>
       <c r="G183" t="n">
-        <v>5029380.978201131</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>3.881</v>
       </c>
       <c r="I183" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6684,26 +6065,23 @@
         <v>98670</v>
       </c>
       <c r="G184" t="n">
-        <v>5128050.978201131</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>3.914</v>
       </c>
       <c r="I184" t="n">
-        <v>3.914</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6725,26 +6103,23 @@
         <v>257078.7301</v>
       </c>
       <c r="G185" t="n">
-        <v>5385129.708301132</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>3.915</v>
       </c>
       <c r="I185" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>3.885</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6766,24 +6141,21 @@
         <v>322561.025</v>
       </c>
       <c r="G186" t="n">
-        <v>5707690.733301132</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6805,24 +6177,21 @@
         <v>22905.7226</v>
       </c>
       <c r="G187" t="n">
-        <v>5730596.455901132</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6844,24 +6213,21 @@
         <v>126</v>
       </c>
       <c r="G188" t="n">
-        <v>5730722.455901132</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6883,24 +6249,21 @@
         <v>16836.339</v>
       </c>
       <c r="G189" t="n">
-        <v>5713886.116901132</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6922,24 +6285,21 @@
         <v>532898.0421</v>
       </c>
       <c r="G190" t="n">
-        <v>6246784.159001132</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6961,24 +6321,21 @@
         <v>7416.6259</v>
       </c>
       <c r="G191" t="n">
-        <v>6246784.159001132</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7000,24 +6357,21 @@
         <v>572588.374</v>
       </c>
       <c r="G192" t="n">
-        <v>6819372.533001132</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7039,24 +6393,21 @@
         <v>123</v>
       </c>
       <c r="G193" t="n">
-        <v>6819495.533001132</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7078,24 +6429,21 @@
         <v>390889.6235</v>
       </c>
       <c r="G194" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7117,24 +6465,21 @@
         <v>249.9375</v>
       </c>
       <c r="G195" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7156,24 +6501,21 @@
         <v>19750.0625</v>
       </c>
       <c r="G196" t="n">
-        <v>6428605.909501133</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K196" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7195,24 +6537,21 @@
         <v>13301.4738</v>
       </c>
       <c r="G197" t="n">
-        <v>6441907.383301132</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7234,24 +6573,21 @@
         <v>597.273</v>
       </c>
       <c r="G198" t="n">
-        <v>6441907.383301132</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7273,24 +6609,21 @@
         <v>20000</v>
       </c>
       <c r="G199" t="n">
-        <v>6421907.383301132</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7312,24 +6645,21 @@
         <v>263345.8331</v>
       </c>
       <c r="G200" t="n">
-        <v>6421907.383301132</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7351,24 +6681,21 @@
         <v>300</v>
       </c>
       <c r="G201" t="n">
-        <v>6422207.383301132</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7390,24 +6717,21 @@
         <v>46932.5644</v>
       </c>
       <c r="G202" t="n">
-        <v>6375274.818901133</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7429,24 +6753,21 @@
         <v>11709.7581</v>
       </c>
       <c r="G203" t="n">
-        <v>6375274.818901133</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7468,24 +6789,21 @@
         <v>159403.3455</v>
       </c>
       <c r="G204" t="n">
-        <v>6534678.164401133</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7507,24 +6825,21 @@
         <v>26589.3485</v>
       </c>
       <c r="G205" t="n">
-        <v>6534678.164401133</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7546,24 +6861,21 @@
         <v>20561.4454</v>
       </c>
       <c r="G206" t="n">
-        <v>6555239.609801132</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7585,24 +6897,21 @@
         <v>13288.0345</v>
       </c>
       <c r="G207" t="n">
-        <v>6555239.609801132</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7624,24 +6933,21 @@
         <v>22956.2318</v>
       </c>
       <c r="G208" t="n">
-        <v>6532283.378001132</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7663,24 +6969,21 @@
         <v>6645.6772</v>
       </c>
       <c r="G209" t="n">
-        <v>6538929.055201132</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7702,24 +7005,21 @@
         <v>66816.5053</v>
       </c>
       <c r="G210" t="n">
-        <v>6472112.549901132</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7741,24 +7041,21 @@
         <v>6528.8806</v>
       </c>
       <c r="G211" t="n">
-        <v>6478641.430501131</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7780,24 +7077,21 @@
         <v>2501</v>
       </c>
       <c r="G212" t="n">
-        <v>6478641.430501131</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7819,24 +7113,21 @@
         <v>20561.4454</v>
       </c>
       <c r="G213" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7858,24 +7149,21 @@
         <v>24252.9649</v>
       </c>
       <c r="G214" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7897,24 +7185,21 @@
         <v>65521.7176</v>
       </c>
       <c r="G215" t="n">
-        <v>6458079.985101132</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7936,24 +7221,21 @@
         <v>126840.7654</v>
       </c>
       <c r="G216" t="n">
-        <v>6331239.219701132</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7975,24 +7257,21 @@
         <v>6484.9478</v>
       </c>
       <c r="G217" t="n">
-        <v>6324754.271901132</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8014,24 +7293,21 @@
         <v>1875.0265</v>
       </c>
       <c r="G218" t="n">
-        <v>6322879.245401132</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K218" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8053,24 +7329,21 @@
         <v>437.0943</v>
       </c>
       <c r="G219" t="n">
-        <v>6322442.151101132</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K219" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8092,24 +7365,21 @@
         <v>257.4743</v>
       </c>
       <c r="G220" t="n">
-        <v>6322184.676801132</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K220" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8131,24 +7401,21 @@
         <v>6277.6117</v>
       </c>
       <c r="G221" t="n">
-        <v>6315907.065101132</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K221" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8170,24 +7437,21 @@
         <v>41211.2074</v>
       </c>
       <c r="G222" t="n">
-        <v>6274695.857701132</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K222" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8209,24 +7473,21 @@
         <v>5053.1807</v>
       </c>
       <c r="G223" t="n">
-        <v>6269642.677001132</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K223" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8248,24 +7509,21 @@
         <v>0.0005</v>
       </c>
       <c r="G224" t="n">
-        <v>6269642.677501132</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8287,24 +7545,21 @@
         <v>187416.558548859</v>
       </c>
       <c r="G225" t="n">
-        <v>6457059.236049991</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K225" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8326,24 +7581,21 @@
         <v>40277.6285</v>
       </c>
       <c r="G226" t="n">
-        <v>6416781.607549991</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8365,24 +7617,21 @@
         <v>8639.978499999999</v>
       </c>
       <c r="G227" t="n">
-        <v>6416781.607549991</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K227" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8404,24 +7653,21 @@
         <v>22330</v>
       </c>
       <c r="G228" t="n">
-        <v>6439111.607549991</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K228" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8443,24 +7689,21 @@
         <v>33057.6285</v>
       </c>
       <c r="G229" t="n">
-        <v>6472169.236049991</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K229" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8482,24 +7725,21 @@
         <v>43770</v>
       </c>
       <c r="G230" t="n">
-        <v>6515939.236049991</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K230" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8521,24 +7761,21 @@
         <v>59354.8386</v>
       </c>
       <c r="G231" t="n">
-        <v>6575294.074649991</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K231" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8560,24 +7797,21 @@
         <v>62947.6736</v>
       </c>
       <c r="G232" t="n">
-        <v>6638241.748249992</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="K232" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
